--- a/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
+++ b/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Manufacturing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D44F35C-9514-8745-BE85-843C4AB82CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7537F7-CCD1-F649-885C-59F58EBCA8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34660" windowHeight="22680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU List" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'User Supplied Options'!$A$6:$N$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="724">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -891,12 +890,6 @@
   </si>
   <si>
     <t>SAO_conn_SFH11-NBPC-D03-ST-BK</t>
-  </si>
-  <si>
-    <t>ADAFRUIT MICROSD CARD BREAKOUT 5V OR 3V</t>
-  </si>
-  <si>
-    <t>1528-1462-ND</t>
   </si>
   <si>
     <t>470uF</t>
@@ -1227,9 +1220,6 @@
     <t>After order I have received</t>
   </si>
   <si>
-    <t>Low cost Adafruit MicroSD</t>
-  </si>
-  <si>
     <t>Extra headers for accessories</t>
   </si>
   <si>
@@ -1244,12 +1234,6 @@
 4Ucon Online Connectors 20806</t>
   </si>
   <si>
-    <t>Alternate Teensy 3.2 Stackable Headers</t>
-  </si>
-  <si>
-    <t>Sockets for Teensy 3.2 to Logic Board</t>
-  </si>
-  <si>
     <t>Lanyard</t>
   </si>
   <si>
@@ -1517,9 +1501,6 @@
     <t>S03B-PASK-2_LF__SN_</t>
   </si>
   <si>
-    <t>JST_S03B-PASK-2_LF__SN_:S03BPASK2LFSN</t>
-  </si>
-  <si>
     <t xml:space="preserve">J10, </t>
   </si>
   <si>
@@ -1805,18 +1786,12 @@
     <t>LIPO CONVERSION</t>
   </si>
   <si>
-    <t>LiPo Charge manager</t>
-  </si>
-  <si>
     <t>ADD-ON Accessories</t>
   </si>
   <si>
     <t>Generic eBay or similar</t>
   </si>
   <si>
-    <t>OLED Teensy View, SPI, stack on Teensy</t>
-  </si>
-  <si>
     <t>OLED Monochrome 64x128, I2C, 4-pin header</t>
   </si>
   <si>
@@ -1829,9 +1804,6 @@
     <t xml:space="preserve">SAOs, </t>
   </si>
   <si>
-    <t>OLED Color 64x128, SPI, small, with SD</t>
-  </si>
-  <si>
     <t>QWIIC-based EXPANSION</t>
   </si>
   <si>
@@ -1859,12 +1831,6 @@
     <t>DIY NFMI COMMUNICATION</t>
   </si>
   <si>
-    <t>LiPo Battery options</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/1431</t>
-  </si>
-  <si>
     <t>OLED Color 64x128, SPI, 1.5" large, with SD</t>
   </si>
   <si>
@@ -1946,9 +1912,6 @@
     <t>Teensy 3.2 and Headers - Standard</t>
   </si>
   <si>
-    <t>Teensy 3.2 and Headers - Alternate</t>
-  </si>
-  <si>
     <t>Teensy 3.2 SMT Header, 2x7, Tall .420"</t>
   </si>
   <si>
@@ -2163,6 +2126,106 @@
   </si>
   <si>
     <t>1x16 Long pin Headers and Sockets</t>
+  </si>
+  <si>
+    <t>Teensy 3.2 and Headers - Alternates</t>
+  </si>
+  <si>
+    <t>Teensy 3.2 Stackable Headers for TeensyView</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sparkfun-electronics/LCD-14048/6823624?s=N4IgTCBcDaIC4FMEDsDOBPABANwJYIHcQBdAXyA</t>
+  </si>
+  <si>
+    <t>OLED Teensy View, SPI, stack on Teensy, requires header pins</t>
+  </si>
+  <si>
+    <t>Short Sockets for Teensy 3.2 to Logic Board</t>
+  </si>
+  <si>
+    <t>Low cost Adafruit MicroSD 3V only</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/4682/12822319?s=N4IgTCBcDaIIIBMCGAzATgVwJYBcAEALAGwAcEAugL5A</t>
+  </si>
+  <si>
+    <t>MICROSD SPI/SPIO BREAKOUT BOARD</t>
+  </si>
+  <si>
+    <t>OLED Color 64x128, SPI, 1.27", with SD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/1673/5353658</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/1431/5353646</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/1743/9380218</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/328/5054542</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/1904/5054545</t>
+  </si>
+  <si>
+    <t>LiPo Battery 2500mAh (largest that fits)</t>
+  </si>
+  <si>
+    <t>EIGHT CORE PLANE STACK</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Already included in base assembled, so you don't need to add this capacitor.</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/258/5054544</t>
+  </si>
+  <si>
+    <t>LiPo Battery 2000mAh</t>
+  </si>
+  <si>
+    <t>LiPo Battery 1250mAh</t>
+  </si>
+  <si>
+    <t>JST_S03B-PASK-2_LF__SN_:S03BPASK2LFSN
+Socket: TH, Side Entry, JST PA S03B-PASK-2(LF)(SN), Digikey 455-1848-ND ($0.44/ea)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/BM03B-PASS-1-TFT-LF-SN/2773420?s=N4IgTCBcDaICwFYEFowDYDMAOZBGZAcgCIgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/976/7385293?s=N4IgTCBcDaIMwDYC0BOA7AgwgFSQOQBEQBdAXyA</t>
+  </si>
+  <si>
+    <t>REQUIRES FOOTPRINT UPDATE
+Socket: SMT, Top Entry, JST PA BM03B-PASS-1-TFT(LF)(SN), Digikey 455-2638-1-ND ($0.80)</t>
+  </si>
+  <si>
+    <t>REQUIRES FOOTPRINT UPDATE
+Socket: SMT, Side Entry, Keystone 976, Digikey 36-976CT-ND ($2.71/ea)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUIRES FOOTPRINT UPDATE
+</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/S03B-XASK-1-LF-SN/455-4089-ND/9385578</t>
+  </si>
+  <si>
+    <t>BATTERY PACK</t>
+  </si>
+  <si>
+    <t>AAA Battery</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/2482CN/7385282</t>
+  </si>
+  <si>
+    <t>4x AAA Battery Holder with keystone connector</t>
   </si>
 </sst>
 </file>
@@ -2174,10 +2237,17 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2428,37 +2498,37 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2468,196 +2538,341 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2665,176 +2880,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3168,27 +3259,27 @@
   <sheetData>
     <row r="2" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="49" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B3" s="96" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E3" s="1">
         <v>150</v>
@@ -3196,10 +3287,10 @@
     </row>
     <row r="4" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B4" s="96" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
@@ -3207,10 +3298,10 @@
     </row>
     <row r="5" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B5" s="96" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E5" s="1">
         <v>130</v>
@@ -3218,10 +3309,10 @@
     </row>
     <row r="8" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="96" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3229,10 +3320,10 @@
     </row>
     <row r="9" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="96" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -3240,42 +3331,42 @@
     </row>
     <row r="13" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="49" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="96" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="96" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="96" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="96" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="96" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="96" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="96" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3287,7 +3378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5DBFB5-E21A-7B4B-815F-748A526FD280}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -3320,7 +3411,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="91" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -3331,18 +3422,18 @@
         <v>172</v>
       </c>
       <c r="C3" s="27"/>
-      <c r="P3" s="143" t="s">
+      <c r="P3" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="K4" s="51" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>175</v>
@@ -3363,16 +3454,16 @@
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
       <c r="J5" s="45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K5" s="38" t="s">
         <v>180</v>
       </c>
       <c r="L5" s="76" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M5" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>183</v>
@@ -3389,7 +3480,7 @@
     </row>
     <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>188</v>
@@ -3416,7 +3507,7 @@
         <v>192</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K6" s="38" t="s">
         <v>194</v>
@@ -3442,7 +3533,7 @@
     </row>
     <row r="7" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="104" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B7" s="105"/>
       <c r="C7" s="105"/>
@@ -3457,10 +3548,10 @@
         <v>142</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E8" s="46">
         <v>1</v>
@@ -3501,13 +3592,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E9" s="48">
         <v>4</v>
@@ -3552,13 +3643,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>313</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>315</v>
       </c>
       <c r="E10" s="46">
         <v>1</v>
@@ -3567,10 +3658,10 @@
         <v>200</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>203</v>
@@ -3606,10 +3697,10 @@
         <v>221</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E11" s="46">
         <v>1</v>
@@ -3621,7 +3712,7 @@
         <v>224</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I11" s="47" t="s">
         <v>203</v>
@@ -3657,10 +3748,10 @@
         <v>269</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E12" s="46">
         <v>1</v>
@@ -3672,7 +3763,7 @@
         <v>225</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I12" s="47" t="s">
         <v>203</v>
@@ -3708,10 +3799,10 @@
         <v>222</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E13" s="46">
         <v>1</v>
@@ -3723,7 +3814,7 @@
         <v>226</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I13" s="47" t="s">
         <v>203</v>
@@ -3759,10 +3850,10 @@
         <v>272</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E14" s="46">
         <v>1</v>
@@ -3774,7 +3865,7 @@
         <v>227</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I14" s="47" t="s">
         <v>203</v>
@@ -3810,10 +3901,10 @@
         <v>223</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E15" s="46">
         <v>1</v>
@@ -3822,10 +3913,10 @@
         <v>200</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I15" s="47" t="s">
         <v>203</v>
@@ -3855,7 +3946,7 @@
     </row>
     <row r="16" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="36"/>
@@ -3884,7 +3975,7 @@
     </row>
     <row r="17" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="36"/>
@@ -3913,7 +4004,7 @@
     </row>
     <row r="18" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="36"/>
@@ -3942,7 +4033,7 @@
     </row>
     <row r="19" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="62" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="36"/>
@@ -3955,7 +4046,7 @@
     </row>
     <row r="20" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="62" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="36"/>
@@ -3968,7 +4059,7 @@
     </row>
     <row r="21" spans="1:18" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="59"/>
@@ -3990,7 +4081,7 @@
     </row>
     <row r="23" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="104" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B23" s="105"/>
       <c r="C23" s="105"/>
@@ -3999,59 +4090,59 @@
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="45" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E24" s="46">
         <v>0</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I24" s="47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L24" s="52"/>
       <c r="M24" s="52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N24" s="52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R24" s="32"/>
     </row>
     <row r="25" spans="1:18" ht="68" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="151" t="s">
-        <v>358</v>
+      <c r="C25" s="150" t="s">
+        <v>356</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E25" s="46">
         <v>2</v>
@@ -4063,7 +4154,7 @@
         <v>218</v>
       </c>
       <c r="H25" s="47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I25" s="46" t="s">
         <v>203</v>
@@ -4090,16 +4181,16 @@
     </row>
     <row r="26" spans="1:18" s="30" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="87" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="150" t="s">
-        <v>359</v>
+      <c r="C26" s="149" t="s">
+        <v>357</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E26" s="30">
         <v>4</v>
@@ -4108,10 +4199,10 @@
         <v>200</v>
       </c>
       <c r="G26" s="88" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H26" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I26" s="88" t="s">
         <v>203</v>
@@ -4138,16 +4229,16 @@
     </row>
     <row r="27" spans="1:18" s="46" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="51" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>217</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E27" s="46">
         <v>4</v>
@@ -4156,10 +4247,10 @@
         <v>200</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I27" s="47" t="s">
         <v>219</v>
@@ -4192,10 +4283,10 @@
         <v>228</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E28" s="46">
         <v>1</v>
@@ -4207,7 +4298,7 @@
         <v>229</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I28" s="51" t="s">
         <v>203</v>
@@ -4456,7 +4547,7 @@
     </row>
     <row r="33" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="91" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="B33" s="115"/>
       <c r="E33" s="110"/>
@@ -4465,22 +4556,22 @@
     </row>
     <row r="34" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
-      <c r="B34" s="152" t="s">
+      <c r="B34" s="151" t="s">
         <v>217</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>694</v>
-      </c>
-      <c r="E34" s="153">
+        <v>682</v>
+      </c>
+      <c r="E34" s="152">
         <v>2</v>
       </c>
       <c r="F34" s="46"/>
       <c r="G34" s="50"/>
-      <c r="H34" s="154" t="s">
-        <v>699</v>
+      <c r="H34" s="153" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="35" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
@@ -4489,10 +4580,10 @@
         <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="E35" s="110">
         <v>4</v>
@@ -4502,8 +4593,8 @@
       <c r="H35" s="119"/>
     </row>
     <row r="36" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="149" t="s">
-        <v>692</v>
+      <c r="A36" s="148" t="s">
+        <v>680</v>
       </c>
       <c r="B36" s="116"/>
       <c r="D36" s="26"/>
@@ -4514,7 +4605,7 @@
     </row>
     <row r="37" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C37" s="97" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
@@ -4526,7 +4617,7 @@
     </row>
     <row r="38" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C38" s="97" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
@@ -4538,7 +4629,7 @@
     </row>
     <row r="39" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C39" s="97" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
@@ -4550,7 +4641,7 @@
     </row>
     <row r="40" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C40" s="97" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="40"/>
@@ -4562,7 +4653,7 @@
     </row>
     <row r="41" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C41" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
@@ -4575,7 +4666,7 @@
     <row r="42" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="57"/>
       <c r="C42" s="94" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
@@ -4597,7 +4688,7 @@
     </row>
     <row r="44" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="104" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B44" s="105"/>
       <c r="C44" s="105"/>
@@ -4609,20 +4700,20 @@
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B45" s="92" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="104" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B48" s="105"/>
       <c r="C48" s="105"/>
       <c r="D48" s="106"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="D49" s="146" t="s">
-        <v>702</v>
+      <c r="D49" s="145" t="s">
+        <v>690</v>
       </c>
       <c r="E49" s="28">
         <v>7</v>
@@ -4633,13 +4724,13 @@
         <v>14</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E50" s="46">
         <v>14</v>
@@ -4648,10 +4739,10 @@
         <v>200</v>
       </c>
       <c r="G50" s="47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H50" s="47" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I50" s="47" t="s">
         <v>219</v>
@@ -4684,13 +4775,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E51" s="48">
         <v>14</v>
@@ -4746,12 +4837,12 @@
     </row>
     <row r="53" spans="1:18" ht="68" x14ac:dyDescent="0.15">
       <c r="D53" s="93" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="D54" s="146" t="s">
-        <v>703</v>
+      <c r="D54" s="145" t="s">
+        <v>691</v>
       </c>
       <c r="E54" s="28">
         <v>14</v>
@@ -4775,13 +4866,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052A41E-3EA7-B148-953B-E2218E71D84C}">
-  <dimension ref="A1:AE112"/>
+  <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -4809,7 +4900,7 @@
         <v>230</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -4817,7 +4908,7 @@
         <v>231</v>
       </c>
       <c r="B2" s="114" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -4833,7 +4924,7 @@
         <v>234</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -4846,15 +4937,15 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="91" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="P7" s="143" t="s">
+      <c r="P7" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
     </row>
     <row r="8" spans="1:31" s="83" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="83" t="s">
@@ -4893,8 +4984,8 @@
       <c r="G9" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="J9" s="147" t="s">
-        <v>310</v>
+      <c r="J9" s="146" t="s">
+        <v>308</v>
       </c>
       <c r="K9" s="38" t="s">
         <v>180</v>
@@ -4921,7 +5012,7 @@
     </row>
     <row r="10" spans="1:31" s="83" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>188</v>
@@ -4947,8 +5038,8 @@
       <c r="I10" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="J10" s="147" t="s">
-        <v>691</v>
+      <c r="J10" s="146" t="s">
+        <v>679</v>
       </c>
       <c r="K10" s="38" t="s">
         <v>194</v>
@@ -5014,7 +5105,7 @@
     </row>
     <row r="11" spans="1:31" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="104" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="105"/>
@@ -5025,32 +5116,32 @@
     <row r="12" spans="1:31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
       <c r="B12" s="115" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D12" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E12" s="110">
         <v>2</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H12" s="117" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="116" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C13" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D13" t="s">
         <v>253</v>
@@ -5060,19 +5151,19 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H13" s="117" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="116" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C14" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
         <v>253</v>
@@ -5085,16 +5176,16 @@
         <v>201</v>
       </c>
       <c r="H14" s="117" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="B15" s="115" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D15" t="s">
         <v>253</v>
@@ -5107,38 +5198,38 @@
         <v>254</v>
       </c>
       <c r="H15" s="117" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="115" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E16" s="110">
         <v>1</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H16" s="117" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
       <c r="B17" s="116" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D17" t="s">
         <v>255</v>
@@ -5151,16 +5242,16 @@
         <v>256</v>
       </c>
       <c r="H17" s="117" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="116" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D18" t="s">
         <v>255</v>
@@ -5173,107 +5264,107 @@
         <v>257</v>
       </c>
       <c r="H18" s="117" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
       <c r="B19" s="115" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C19" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E19" s="110">
         <v>1</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H19" s="117" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="115" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C20" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D20" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E20" s="110">
         <v>1</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H20" s="117" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
       <c r="B21" s="116" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E21" s="110">
         <v>2</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="26" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="H21" s="119" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
       <c r="B22" s="115" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="D22" t="s">
-        <v>488</v>
+        <v>664</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>713</v>
       </c>
       <c r="E22" s="110">
         <v>1</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H22" s="119" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="115" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>260</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E23" s="110">
         <v>1</v>
@@ -5283,13 +5374,13 @@
         <v>261</v>
       </c>
       <c r="H23" s="119" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
       <c r="B24" s="116" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -5305,13 +5396,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="119" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
       <c r="B25" s="116" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -5327,16 +5418,16 @@
         <v>13</v>
       </c>
       <c r="H25" s="119" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
       <c r="B26" s="115" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C26" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D26" t="s">
         <v>265</v>
@@ -5346,19 +5437,19 @@
       </c>
       <c r="F26" s="28"/>
       <c r="G26" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H26" s="119" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
       <c r="B27" s="115" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C27" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D27" t="s">
         <v>265</v>
@@ -5368,16 +5459,16 @@
       </c>
       <c r="F27" s="28"/>
       <c r="G27" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H27" s="119" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
       <c r="B28" s="116" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" t="s">
@@ -5391,13 +5482,13 @@
         <v>470</v>
       </c>
       <c r="H28" s="119" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
       <c r="B29" s="115" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" t="s">
@@ -5408,16 +5499,16 @@
       </c>
       <c r="F29" s="28"/>
       <c r="G29" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H29" s="119" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
       <c r="B30" s="116" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" t="s">
@@ -5428,16 +5519,16 @@
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="26" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="H30" s="119" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
       <c r="B31" s="116" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" t="s">
@@ -5448,16 +5539,16 @@
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="26" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H31" s="119" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
       <c r="B32" s="115" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" t="s">
@@ -5467,17 +5558,17 @@
         <v>2</v>
       </c>
       <c r="F32" s="28"/>
-      <c r="G32" s="144" t="s">
-        <v>660</v>
+      <c r="G32" s="143" t="s">
+        <v>648</v>
       </c>
       <c r="H32" s="119" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
       <c r="B33" s="116" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" t="s">
@@ -5488,16 +5579,16 @@
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="26" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="H33" s="119" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
       <c r="B34" s="115" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" t="s">
@@ -5508,16 +5599,16 @@
       </c>
       <c r="F34" s="28"/>
       <c r="G34" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H34" s="119" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
       <c r="B35" s="115" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" t="s">
@@ -5528,16 +5619,16 @@
       </c>
       <c r="F35" s="28"/>
       <c r="G35" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H35" s="119" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="27"/>
       <c r="B36" s="115" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" t="s">
@@ -5548,19 +5639,19 @@
       </c>
       <c r="F36" s="28"/>
       <c r="G36" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H36" s="119" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" s="115" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C37" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D37" t="s">
         <v>267</v>
@@ -5573,19 +5664,19 @@
         <v>268</v>
       </c>
       <c r="H37" s="119" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
       <c r="B38" s="115" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C38" t="s">
         <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E38" s="110">
         <v>1</v>
@@ -5595,19 +5686,19 @@
         <v>271</v>
       </c>
       <c r="H38" s="119" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="115" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C39" t="s">
         <v>275</v>
       </c>
       <c r="D39" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E39" s="110">
         <v>1</v>
@@ -5617,16 +5708,16 @@
         <v>276</v>
       </c>
       <c r="H39" s="119" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="115" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C40" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D40" t="s">
         <v>273</v>
@@ -5639,13 +5730,13 @@
         <v>274</v>
       </c>
       <c r="H40" s="119" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
       <c r="B41" s="115" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C41" t="s">
         <v>280</v>
@@ -5658,13 +5749,13 @@
         <v>281</v>
       </c>
       <c r="H41" s="119" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
       <c r="B42" s="115" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C42" t="s">
         <v>279</v>
@@ -5674,15 +5765,15 @@
       </c>
       <c r="F42" s="28"/>
       <c r="G42" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H42" s="119" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="91" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="B43" s="115"/>
       <c r="E43" s="110"/>
@@ -5705,9 +5796,9 @@
       </c>
       <c r="G44" s="38"/>
       <c r="H44" s="83" t="s">
-        <v>285</v>
-      </c>
-      <c r="I44" s="149"/>
+        <v>283</v>
+      </c>
+      <c r="I44" s="148"/>
       <c r="J44" s="83">
         <v>5</v>
       </c>
@@ -5734,499 +5825,499 @@
     <row r="45" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
       <c r="B45" s="115" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C45" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D45" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E45" s="110">
         <v>2</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" t="s">
-        <v>464</v>
-      </c>
-      <c r="H45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q45" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R45" s="145" t="s">
-        <v>674</v>
+        <v>459</v>
+      </c>
+      <c r="H45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q45" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R45" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="46" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
       <c r="B46" s="115" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C46" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E46" s="110">
         <v>1</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" t="s">
-        <v>506</v>
-      </c>
-      <c r="H46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q46" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R46" s="145" t="s">
-        <v>674</v>
+        <v>500</v>
+      </c>
+      <c r="H46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q46" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R46" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
       <c r="B47" s="115" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C47" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E47" s="110">
         <v>1</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" t="s">
-        <v>509</v>
-      </c>
-      <c r="H47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q47" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R47" s="145" t="s">
-        <v>674</v>
+        <v>503</v>
+      </c>
+      <c r="H47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q47" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R47" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
       <c r="B48" s="115" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C48" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E48" s="110">
         <v>2</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" t="s">
-        <v>511</v>
-      </c>
-      <c r="H48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q48" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R48" s="145" t="s">
-        <v>674</v>
+        <v>505</v>
+      </c>
+      <c r="H48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q48" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R48" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
       <c r="B49" s="115" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C49" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E49" s="110">
         <v>1</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" t="s">
-        <v>514</v>
-      </c>
-      <c r="H49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q49" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R49" s="145" t="s">
-        <v>674</v>
+        <v>508</v>
+      </c>
+      <c r="H49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q49" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R49" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="50" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
       <c r="B50" s="115" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C50" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E50" s="110">
         <v>1</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" t="s">
-        <v>517</v>
-      </c>
-      <c r="H50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q50" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R50" s="145" t="s">
-        <v>674</v>
+        <v>511</v>
+      </c>
+      <c r="H50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q50" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R50" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
       <c r="B51" s="115" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C51" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E51" s="110">
         <v>2</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" t="s">
-        <v>511</v>
-      </c>
-      <c r="H51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q51" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R51" s="145" t="s">
-        <v>674</v>
+        <v>505</v>
+      </c>
+      <c r="H51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q51" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R51" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="52" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
       <c r="B52" s="115" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C52" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E52" s="110">
         <v>2</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" t="s">
-        <v>521</v>
-      </c>
-      <c r="H52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q52" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R52" s="145" t="s">
-        <v>674</v>
+        <v>515</v>
+      </c>
+      <c r="H52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q52" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R52" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
       <c r="B53" s="115" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C53" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E53" s="110">
         <v>1</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" t="s">
-        <v>524</v>
-      </c>
-      <c r="H53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q53" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R53" s="145" t="s">
-        <v>674</v>
+        <v>518</v>
+      </c>
+      <c r="H53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q53" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R53" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
       <c r="B54" s="115" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C54" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E54" s="110">
         <v>1</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" t="s">
-        <v>527</v>
-      </c>
-      <c r="H54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="I54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="J54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="K54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="L54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="M54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="N54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="O54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="P54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q54" s="145" t="s">
-        <v>674</v>
-      </c>
-      <c r="R54" s="145" t="s">
-        <v>674</v>
+        <v>521</v>
+      </c>
+      <c r="H54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="I54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="J54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="K54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="L54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="M54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="N54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="O54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="P54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q54" s="144" t="s">
+        <v>662</v>
+      </c>
+      <c r="R54" s="144" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="149" t="s">
-        <v>692</v>
+      <c r="A55" s="148" t="s">
+        <v>680</v>
       </c>
       <c r="B55" s="140"/>
       <c r="C55"/>
@@ -6239,7 +6330,7 @@
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B56" s="111" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C56" s="70"/>
       <c r="K56" s="27">
@@ -6261,7 +6352,7 @@
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B57" s="111" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C57" s="70"/>
       <c r="K57" s="27">
@@ -6283,7 +6374,7 @@
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B58" s="111" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C58" s="70"/>
       <c r="K58" s="27">
@@ -6305,96 +6396,96 @@
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B59" s="112" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C59" s="70"/>
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B60" s="112" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C60" s="70"/>
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B61" s="112" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C61" s="70"/>
     </row>
     <row r="62" spans="1:18" ht="34" x14ac:dyDescent="0.15">
       <c r="B62" s="112" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C62" s="70"/>
     </row>
     <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B63" s="112" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C63" s="70"/>
     </row>
     <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="B64" s="112" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C64" s="70"/>
     </row>
-    <row r="65" spans="1:20" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B65" s="75" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E65" s="86"/>
       <c r="H65" s="83"/>
       <c r="R65" s="39"/>
     </row>
-    <row r="66" spans="1:20" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B66" s="75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E66" s="86"/>
       <c r="H66" s="83"/>
       <c r="R66" s="39"/>
     </row>
-    <row r="67" spans="1:20" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B67" s="97" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="E67" s="86"/>
       <c r="H67" s="83"/>
       <c r="R67" s="39"/>
     </row>
-    <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="91" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="B68" s="115"/>
       <c r="E68" s="110"/>
       <c r="F68" s="28"/>
       <c r="H68" s="118"/>
     </row>
-    <row r="69" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="27"/>
       <c r="B69" s="115" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C69" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D69" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E69" s="110">
         <v>1</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H69" s="117" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -6403,370 +6494,273 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:18" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="27"/>
-      <c r="B70" s="116" t="s">
-        <v>483</v>
-      </c>
-      <c r="C70" t="s">
-        <v>262</v>
+      <c r="B70" s="115" t="s">
+        <v>481</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="D70" s="96" t="s">
+        <v>718</v>
       </c>
       <c r="E70" s="110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" s="28"/>
-      <c r="G70" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H70" s="119" t="s">
-        <v>623</v>
-      </c>
-      <c r="I70" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H70" s="117" t="s">
+        <v>719</v>
+      </c>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:18" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
-      <c r="B71" s="116" t="s">
-        <v>483</v>
+      <c r="B71" s="115" t="s">
+        <v>481</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>696</v>
+        <v>664</v>
+      </c>
+      <c r="D71" s="96" t="s">
+        <v>716</v>
       </c>
       <c r="E71" s="110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" s="28"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="119"/>
-      <c r="I71" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="H71" s="119" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="27"/>
       <c r="B72" s="115" t="s">
-        <v>489</v>
-      </c>
-      <c r="C72" t="s">
-        <v>490</v>
-      </c>
-      <c r="D72" s="92" t="s">
-        <v>641</v>
+        <v>481</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="D72" s="96" t="s">
+        <v>717</v>
       </c>
       <c r="E72" s="110">
         <v>1</v>
       </c>
       <c r="F72" s="28"/>
-      <c r="G72" s="26" t="s">
-        <v>625</v>
-      </c>
       <c r="H72" s="119" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="27"/>
+      <c r="B73" s="116" t="s">
+        <v>478</v>
+      </c>
+      <c r="C73" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" s="110">
+        <v>2</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="H73" s="119" t="s">
+        <v>612</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="27"/>
+      <c r="B74" s="116" t="s">
+        <v>478</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="E74" s="110">
+        <v>4</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A75" s="27"/>
+      <c r="B75" s="115" t="s">
+        <v>483</v>
+      </c>
+      <c r="C75" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" s="92" t="s">
+        <v>629</v>
+      </c>
+      <c r="E75" s="110">
+        <v>1</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="H75" s="119" t="s">
+        <v>615</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A76" s="83"/>
+      <c r="B76" s="140" t="s">
+        <v>483</v>
+      </c>
+      <c r="C76" t="s">
+        <v>484</v>
+      </c>
+      <c r="D76" s="92" t="s">
+        <v>629</v>
+      </c>
+      <c r="E76" s="85">
+        <v>1</v>
+      </c>
+      <c r="F76" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G76" s="94" t="s">
+        <v>627</v>
+      </c>
+      <c r="H76" s="141" t="s">
         <v>626</v>
       </c>
-      <c r="I72" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="J72">
+      <c r="I76" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J76" s="22">
         <v>0</v>
       </c>
-      <c r="K72">
+      <c r="K76" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A73" s="83"/>
-      <c r="B73" s="140" t="s">
-        <v>489</v>
-      </c>
-      <c r="C73" t="s">
-        <v>490</v>
-      </c>
-      <c r="D73" s="92" t="s">
-        <v>641</v>
-      </c>
-      <c r="E73" s="85">
-        <v>1</v>
-      </c>
-      <c r="F73" s="57" t="s">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B77" s="28"/>
+    </row>
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A78" s="104" t="s">
+        <v>431</v>
+      </c>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="E78" s="86"/>
+      <c r="H78" s="83"/>
+      <c r="R78" s="39"/>
+    </row>
+    <row r="79" spans="1:18" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+      <c r="B79" s="113" t="s">
+        <v>720</v>
+      </c>
+      <c r="C79" s="68"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="K79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+    </row>
+    <row r="80" spans="1:18" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B80" s="113"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="160" t="s">
+        <v>723</v>
+      </c>
+      <c r="E80" s="85">
+        <v>1</v>
+      </c>
+      <c r="F80" s="159" t="s">
         <v>200</v>
       </c>
-      <c r="G73" s="94" t="s">
-        <v>639</v>
-      </c>
-      <c r="H73" s="141" t="s">
-        <v>638</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="J73" s="22">
-        <v>0</v>
-      </c>
-      <c r="K73" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B74" s="28"/>
-    </row>
-    <row r="75" spans="1:20" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A75" s="104" t="s">
-        <v>436</v>
-      </c>
-      <c r="B75" s="105"/>
-      <c r="C75" s="105"/>
-      <c r="E75" s="86"/>
-      <c r="H75" s="83"/>
-      <c r="R75" s="39"/>
-    </row>
-    <row r="76" spans="1:20" s="123" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A76" s="121"/>
-      <c r="B76" s="122" t="s">
-        <v>630</v>
-      </c>
-      <c r="D76" s="124"/>
-      <c r="E76" s="125"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="127"/>
-      <c r="I76" s="124"/>
-      <c r="R76" s="128"/>
-    </row>
-    <row r="77" spans="1:20" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A77" s="133" t="s">
+      <c r="G80" s="84"/>
+      <c r="H80" s="161" t="s">
+        <v>722</v>
+      </c>
+      <c r="K80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+    </row>
+    <row r="81" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="B81" s="69"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="156" t="s">
+        <v>721</v>
+      </c>
+      <c r="E81" s="64">
+        <v>4</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="123" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A82" s="121"/>
+      <c r="B82" s="122" t="s">
+        <v>619</v>
+      </c>
+      <c r="D82" s="124"/>
+      <c r="E82" s="125"/>
+      <c r="G82" s="126"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="124"/>
+      <c r="R82" s="128"/>
+    </row>
+    <row r="83" spans="1:20" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A83" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="123"/>
-      <c r="C77" s="130" t="s">
-        <v>372</v>
-      </c>
-      <c r="D77" s="133" t="s">
-        <v>649</v>
-      </c>
-      <c r="E77" s="131">
-        <v>1</v>
-      </c>
-      <c r="F77" s="132" t="s">
-        <v>200</v>
-      </c>
-      <c r="G77" s="130" t="s">
-        <v>382</v>
-      </c>
-      <c r="H77" s="134" t="s">
-        <v>646</v>
-      </c>
-      <c r="J77" s="129">
-        <v>1</v>
-      </c>
-      <c r="K77" s="123">
-        <v>1</v>
-      </c>
-      <c r="L77" s="129">
-        <f>J77+K77</f>
-        <v>2</v>
-      </c>
-      <c r="M77" s="123"/>
-      <c r="N77" s="123"/>
-      <c r="O77" s="123"/>
-      <c r="P77" s="123">
-        <v>21.88</v>
-      </c>
-      <c r="Q77" s="123">
-        <v>21.88</v>
-      </c>
-      <c r="R77" s="123">
-        <v>21.88</v>
-      </c>
-      <c r="S77" s="129" t="s">
-        <v>264</v>
-      </c>
-      <c r="T77" s="129" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="129" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A78" s="133" t="s">
-        <v>635</v>
-      </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="133" t="s">
-        <v>645</v>
-      </c>
-      <c r="D78" s="133" t="s">
-        <v>627</v>
-      </c>
-      <c r="E78" s="131">
-        <v>1</v>
-      </c>
-      <c r="F78" s="139" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="133"/>
-      <c r="H78" s="134" t="s">
-        <v>643</v>
-      </c>
-      <c r="J78" s="129">
-        <v>0</v>
-      </c>
-      <c r="K78" s="123"/>
-      <c r="M78" s="123"/>
-      <c r="N78" s="123"/>
-      <c r="O78" s="123"/>
-      <c r="P78" s="123"/>
-      <c r="Q78" s="123"/>
-      <c r="R78" s="123"/>
-    </row>
-    <row r="79" spans="1:20" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A79" s="133" t="s">
-        <v>636</v>
-      </c>
-      <c r="B79" s="123"/>
-      <c r="C79" s="133" t="s">
-        <v>379</v>
-      </c>
-      <c r="D79" s="133" t="s">
-        <v>629</v>
-      </c>
-      <c r="E79" s="131">
-        <v>1</v>
-      </c>
-      <c r="F79" s="132" t="s">
-        <v>200</v>
-      </c>
-      <c r="G79" s="133" t="s">
-        <v>380</v>
-      </c>
-      <c r="H79" s="134" t="s">
-        <v>634</v>
-      </c>
-      <c r="J79" s="129">
-        <v>0</v>
-      </c>
-      <c r="K79" s="123">
-        <v>2</v>
-      </c>
-      <c r="L79" s="129">
-        <f>J79+K79</f>
-        <v>2</v>
-      </c>
-      <c r="M79" s="123"/>
-      <c r="N79" s="123"/>
-      <c r="O79" s="123"/>
-      <c r="P79" s="123"/>
-      <c r="Q79" s="123"/>
-      <c r="R79" s="123"/>
-    </row>
-    <row r="80" spans="1:20" s="129" customFormat="1" ht="22" x14ac:dyDescent="0.15">
-      <c r="B80" s="122" t="s">
-        <v>631</v>
-      </c>
-      <c r="C80" s="133"/>
-      <c r="D80" s="133"/>
-      <c r="E80" s="131"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="133"/>
-      <c r="H80" s="134"/>
-      <c r="K80" s="123"/>
-      <c r="M80" s="123"/>
-      <c r="N80" s="123"/>
-      <c r="O80" s="123"/>
-      <c r="P80" s="123"/>
-      <c r="Q80" s="123"/>
-      <c r="R80" s="123"/>
-    </row>
-    <row r="81" spans="1:18" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A81" s="133" t="s">
-        <v>635</v>
-      </c>
-      <c r="B81" s="123"/>
-      <c r="C81" s="133" t="s">
-        <v>644</v>
-      </c>
-      <c r="D81" s="133" t="s">
-        <v>627</v>
-      </c>
-      <c r="E81" s="131">
-        <v>2</v>
-      </c>
-      <c r="F81" s="132" t="s">
-        <v>200</v>
-      </c>
-      <c r="G81" s="130" t="s">
-        <v>381</v>
-      </c>
-      <c r="H81" s="134" t="s">
-        <v>642</v>
-      </c>
-      <c r="J81" s="129">
-        <v>0</v>
-      </c>
-      <c r="K81" s="123">
-        <v>2</v>
-      </c>
-      <c r="L81" s="129">
-        <f>J81+K81</f>
-        <v>2</v>
-      </c>
-      <c r="M81" s="123"/>
-      <c r="N81" s="123"/>
-      <c r="O81" s="123"/>
-      <c r="P81" s="123"/>
-      <c r="Q81" s="123"/>
-      <c r="R81" s="123"/>
-    </row>
-    <row r="82" spans="1:18" s="138" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A82" s="133" t="s">
-        <v>636</v>
-      </c>
-      <c r="B82" s="135" t="s">
+      <c r="B83" s="123"/>
+      <c r="C83" s="130" t="s">
+        <v>370</v>
+      </c>
+      <c r="D83" s="133" t="s">
         <v>637</v>
-      </c>
-      <c r="C82" s="133" t="s">
-        <v>632</v>
-      </c>
-      <c r="D82" s="139" t="s">
-        <v>633</v>
-      </c>
-      <c r="E82" s="131">
-        <v>1</v>
-      </c>
-      <c r="F82" s="132" t="s">
-        <v>200</v>
-      </c>
-      <c r="G82" s="136" t="s">
-        <v>625</v>
-      </c>
-      <c r="H82" s="137" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" s="138" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A83" s="133" t="s">
-        <v>636</v>
-      </c>
-      <c r="B83" s="135" t="s">
-        <v>637</v>
-      </c>
-      <c r="C83" s="133" t="s">
-        <v>632</v>
-      </c>
-      <c r="D83" s="139" t="s">
-        <v>640</v>
       </c>
       <c r="E83" s="131">
         <v>1</v>
@@ -6774,289 +6768,353 @@
       <c r="F83" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G83" s="133" t="s">
-        <v>639</v>
-      </c>
-      <c r="H83" s="137" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
-      <c r="B84" s="113" t="s">
-        <v>399</v>
-      </c>
-      <c r="C84" s="68"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="K84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-    </row>
-    <row r="85" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="B85" s="69"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="E85" s="64">
-        <v>1</v>
-      </c>
-      <c r="F85" s="28" t="s">
+      <c r="G83" s="130" t="s">
+        <v>380</v>
+      </c>
+      <c r="H83" s="134" t="s">
+        <v>634</v>
+      </c>
+      <c r="J83" s="129">
+        <v>1</v>
+      </c>
+      <c r="K83" s="123">
+        <v>1</v>
+      </c>
+      <c r="L83" s="129">
+        <f>J83+K83</f>
+        <v>2</v>
+      </c>
+      <c r="M83" s="123"/>
+      <c r="N83" s="123"/>
+      <c r="O83" s="123"/>
+      <c r="P83" s="123">
+        <v>21.88</v>
+      </c>
+      <c r="Q83" s="123">
+        <v>21.88</v>
+      </c>
+      <c r="R83" s="123">
+        <v>21.88</v>
+      </c>
+      <c r="S83" s="129" t="s">
+        <v>264</v>
+      </c>
+      <c r="T83" s="129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="129" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A84" s="133" t="s">
+        <v>623</v>
+      </c>
+      <c r="B84" s="122"/>
+      <c r="C84" s="133" t="s">
+        <v>633</v>
+      </c>
+      <c r="D84" s="133" t="s">
+        <v>616</v>
+      </c>
+      <c r="E84" s="131">
+        <v>1</v>
+      </c>
+      <c r="F84" s="139" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
-      <c r="B86" s="113" t="s">
-        <v>400</v>
-      </c>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="K86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B87" s="69"/>
-      <c r="C87" s="91" t="s">
-        <v>414</v>
-      </c>
-      <c r="D87" s="69"/>
-    </row>
-    <row r="88" spans="1:18" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
-      <c r="B88" s="113" t="s">
-        <v>401</v>
-      </c>
-      <c r="C88" s="84"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="84"/>
-      <c r="K88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-    </row>
-    <row r="89" spans="1:18" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="35">
-        <v>301</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="E89" s="37">
-        <v>1</v>
-      </c>
-      <c r="F89" s="28" t="s">
+      <c r="G84" s="133"/>
+      <c r="H84" s="134" t="s">
+        <v>631</v>
+      </c>
+      <c r="J84" s="129">
+        <v>0</v>
+      </c>
+      <c r="K84" s="123"/>
+      <c r="M84" s="123"/>
+      <c r="N84" s="123"/>
+      <c r="O84" s="123"/>
+      <c r="P84" s="123"/>
+      <c r="Q84" s="123"/>
+      <c r="R84" s="123"/>
+    </row>
+    <row r="85" spans="1:20" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A85" s="133" t="s">
+        <v>624</v>
+      </c>
+      <c r="B85" s="123"/>
+      <c r="C85" s="133" t="s">
+        <v>377</v>
+      </c>
+      <c r="D85" s="133" t="s">
+        <v>618</v>
+      </c>
+      <c r="E85" s="131">
+        <v>1</v>
+      </c>
+      <c r="F85" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="I89" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="J89" s="35">
-        <v>1</v>
-      </c>
-      <c r="K89" s="35">
-        <f>IF(J89&gt;E89,0,E89-J89)</f>
+      <c r="G85" s="133" t="s">
+        <v>378</v>
+      </c>
+      <c r="H85" s="134" t="s">
+        <v>622</v>
+      </c>
+      <c r="J85" s="129">
         <v>0</v>
       </c>
-      <c r="L89" s="35">
-        <f>J89+K89</f>
-        <v>1</v>
-      </c>
-      <c r="M89" s="35">
-        <f>L89-E89</f>
+      <c r="K85" s="123">
+        <v>2</v>
+      </c>
+      <c r="L85" s="129">
+        <f>J85+K85</f>
+        <v>2</v>
+      </c>
+      <c r="M85" s="123"/>
+      <c r="N85" s="123"/>
+      <c r="O85" s="123"/>
+      <c r="P85" s="123"/>
+      <c r="Q85" s="123"/>
+      <c r="R85" s="123"/>
+    </row>
+    <row r="86" spans="1:20" s="129" customFormat="1" ht="44" x14ac:dyDescent="0.15">
+      <c r="B86" s="122" t="s">
+        <v>692</v>
+      </c>
+      <c r="C86" s="133"/>
+      <c r="D86" s="133"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="132"/>
+      <c r="G86" s="133"/>
+      <c r="H86" s="134"/>
+      <c r="K86" s="123"/>
+      <c r="M86" s="123"/>
+      <c r="N86" s="123"/>
+      <c r="O86" s="123"/>
+      <c r="P86" s="123"/>
+      <c r="Q86" s="123"/>
+      <c r="R86" s="123"/>
+    </row>
+    <row r="87" spans="1:20" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A87" s="133" t="s">
+        <v>623</v>
+      </c>
+      <c r="B87" s="123"/>
+      <c r="C87" s="133" t="s">
+        <v>632</v>
+      </c>
+      <c r="D87" s="133" t="s">
+        <v>616</v>
+      </c>
+      <c r="E87" s="131">
+        <v>2</v>
+      </c>
+      <c r="F87" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="G87" s="130" t="s">
+        <v>379</v>
+      </c>
+      <c r="H87" s="134" t="s">
+        <v>630</v>
+      </c>
+      <c r="J87" s="129">
         <v>0</v>
       </c>
-      <c r="N89" s="35">
-        <f>(4*E89)-M89</f>
-        <v>4</v>
-      </c>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="28"/>
-    </row>
-    <row r="90" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="38">
-        <v>302</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="E90" s="37">
-        <v>1</v>
-      </c>
-      <c r="F90" s="28" t="s">
+      <c r="K87" s="123">
+        <v>2</v>
+      </c>
+      <c r="L87" s="129">
+        <f>J87+K87</f>
+        <v>2</v>
+      </c>
+      <c r="M87" s="123"/>
+      <c r="N87" s="123"/>
+      <c r="O87" s="123"/>
+      <c r="P87" s="123"/>
+      <c r="Q87" s="123"/>
+      <c r="R87" s="123"/>
+    </row>
+    <row r="88" spans="1:20" s="138" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A88" s="133" t="s">
+        <v>624</v>
+      </c>
+      <c r="B88" s="135" t="s">
+        <v>625</v>
+      </c>
+      <c r="C88" s="133" t="s">
+        <v>620</v>
+      </c>
+      <c r="D88" s="139" t="s">
+        <v>621</v>
+      </c>
+      <c r="E88" s="131">
+        <v>1</v>
+      </c>
+      <c r="F88" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="H90" s="83"/>
-      <c r="I90" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="R90" s="39"/>
-    </row>
-    <row r="91" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="35">
-        <v>303</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="E91" s="37">
+      <c r="G88" s="136" t="s">
+        <v>614</v>
+      </c>
+      <c r="H88" s="137" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="138" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A89" s="133" t="s">
+        <v>624</v>
+      </c>
+      <c r="B89" s="135" t="s">
+        <v>625</v>
+      </c>
+      <c r="C89" s="133" t="s">
+        <v>620</v>
+      </c>
+      <c r="D89" s="139" t="s">
+        <v>628</v>
+      </c>
+      <c r="E89" s="131">
+        <v>1</v>
+      </c>
+      <c r="F89" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="G89" s="133" t="s">
+        <v>627</v>
+      </c>
+      <c r="H89" s="137" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+      <c r="B90" s="113" t="s">
+        <v>394</v>
+      </c>
+      <c r="C90" s="68"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="84"/>
+      <c r="K90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+    </row>
+    <row r="91" spans="1:20" ht="17" x14ac:dyDescent="0.15">
+      <c r="B91" s="69"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="E91" s="64">
         <v>1</v>
       </c>
       <c r="F91" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="H91" s="83"/>
-      <c r="I91" s="35" t="s">
+    </row>
+    <row r="92" spans="1:20" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+      <c r="B92" s="113" t="s">
+        <v>395</v>
+      </c>
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84"/>
+      <c r="K92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B93" s="69"/>
+      <c r="C93" s="91" t="s">
+        <v>409</v>
+      </c>
+      <c r="D93" s="69"/>
+    </row>
+    <row r="94" spans="1:20" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+      <c r="B94" s="113" t="s">
+        <v>396</v>
+      </c>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="K94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
+    </row>
+    <row r="95" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="35">
+        <v>301</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="37">
+        <v>1</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="I95" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="R91" s="39"/>
-    </row>
-    <row r="92" spans="1:18" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="97">
-        <v>304</v>
-      </c>
-      <c r="B92" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="C92" s="98"/>
-      <c r="D92" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="E92" s="99">
-        <v>1</v>
-      </c>
-      <c r="F92" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="H92" s="94"/>
-      <c r="I92" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="R92" s="100"/>
-    </row>
-    <row r="93" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="35">
-        <v>305</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="E93" s="37">
-        <v>1</v>
-      </c>
-      <c r="F93" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="H93" s="83"/>
-      <c r="I93" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="39"/>
-    </row>
-    <row r="94" spans="1:18" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="97">
-        <v>306</v>
-      </c>
-      <c r="B94" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="98"/>
-      <c r="D94" s="97" t="s">
-        <v>295</v>
-      </c>
-      <c r="E94" s="99">
-        <v>1</v>
-      </c>
-      <c r="F94" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="H94" s="94"/>
-      <c r="I94" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="J94" s="101"/>
-      <c r="K94" s="101"/>
-      <c r="Q94" s="102"/>
-      <c r="R94" s="100"/>
-    </row>
-    <row r="95" spans="1:18" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="98">
-        <v>307</v>
-      </c>
-      <c r="B95" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="C95" s="98"/>
-      <c r="D95" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="E95" s="99">
-        <v>1</v>
-      </c>
-      <c r="F95" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="H95" s="94"/>
-      <c r="I95" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="R95" s="100"/>
-    </row>
-    <row r="96" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="J95" s="35">
+        <v>1</v>
+      </c>
+      <c r="K95" s="35">
+        <f>IF(J95&gt;E95,0,E95-J95)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="35">
+        <f>J95+K95</f>
+        <v>1</v>
+      </c>
+      <c r="M95" s="35">
+        <f>L95-E95</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="35">
+        <f>(4*E95)-M95</f>
+        <v>4</v>
+      </c>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+      <c r="R95" s="28"/>
+    </row>
+    <row r="96" spans="1:20" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="38">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" s="98" t="s">
-        <v>299</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C96" s="35"/>
       <c r="D96" s="42" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E96" s="37">
         <v>1</v>
@@ -7064,57 +7122,28 @@
       <c r="F96" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="H96" s="120" t="s">
-        <v>299</v>
-      </c>
+      <c r="H96" s="83"/>
       <c r="I96" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="J96" s="38">
-        <v>4</v>
-      </c>
-      <c r="K96" s="38">
-        <v>0</v>
-      </c>
-      <c r="L96" s="35">
-        <f>J96+K96</f>
-        <v>4</v>
-      </c>
-      <c r="M96" s="35">
-        <f>L96-E96</f>
-        <v>3</v>
-      </c>
-      <c r="N96" s="35">
-        <f>(4*E96)-M96</f>
-        <v>1</v>
-      </c>
-      <c r="P96" s="38">
-        <v>20</v>
-      </c>
-      <c r="Q96" s="38">
-        <v>16</v>
-      </c>
       <c r="R96" s="39"/>
     </row>
     <row r="97" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="35">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="42" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E97" s="37">
         <v>1</v>
       </c>
       <c r="F97" s="28" t="s">
         <v>200</v>
-      </c>
-      <c r="G97" s="43" t="s">
-        <v>301</v>
       </c>
       <c r="H97" s="83"/>
       <c r="I97" s="35" t="s">
@@ -7122,96 +7151,253 @@
       </c>
       <c r="R97" s="39"/>
     </row>
-    <row r="98" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="38">
+    <row r="98" spans="1:18" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="97">
+        <v>304</v>
+      </c>
+      <c r="B98" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="98"/>
+      <c r="D98" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="E98" s="99">
+        <v>1</v>
+      </c>
+      <c r="F98" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="H98" s="94"/>
+      <c r="I98" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="R98" s="100"/>
+    </row>
+    <row r="99" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="35">
+        <v>305</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="35"/>
+      <c r="D99" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" s="37">
+        <v>1</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H99" s="83"/>
+      <c r="I99" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="39"/>
+    </row>
+    <row r="100" spans="1:18" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="97">
+        <v>306</v>
+      </c>
+      <c r="B100" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" s="98"/>
+      <c r="D100" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" s="99">
+        <v>1</v>
+      </c>
+      <c r="F100" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="H100" s="94"/>
+      <c r="I100" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="J100" s="101"/>
+      <c r="K100" s="101"/>
+      <c r="Q100" s="102"/>
+      <c r="R100" s="100"/>
+    </row>
+    <row r="101" spans="1:18" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="98">
+        <v>307</v>
+      </c>
+      <c r="B101" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="98"/>
+      <c r="D101" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="E101" s="99">
+        <v>1</v>
+      </c>
+      <c r="F101" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="H101" s="94"/>
+      <c r="I101" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="R101" s="100"/>
+    </row>
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="38">
+        <v>308</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="E102" s="37">
+        <v>1</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H102" s="120" t="s">
+        <v>297</v>
+      </c>
+      <c r="I102" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="J102" s="38">
+        <v>4</v>
+      </c>
+      <c r="K102" s="38">
+        <v>0</v>
+      </c>
+      <c r="L102" s="35">
+        <f>J102+K102</f>
+        <v>4</v>
+      </c>
+      <c r="M102" s="35">
+        <f>L102-E102</f>
+        <v>3</v>
+      </c>
+      <c r="N102" s="35">
+        <f>(4*E102)-M102</f>
+        <v>1</v>
+      </c>
+      <c r="P102" s="38">
+        <v>20</v>
+      </c>
+      <c r="Q102" s="38">
+        <v>16</v>
+      </c>
+      <c r="R102" s="39"/>
+    </row>
+    <row r="103" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="35">
+        <v>309</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" s="35"/>
+      <c r="D103" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" s="37">
+        <v>1</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G103" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="H103" s="83"/>
+      <c r="I103" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="R103" s="39"/>
+    </row>
+    <row r="104" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="38">
         <v>310</v>
       </c>
-      <c r="B98" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="42" t="s">
+      <c r="B104" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" s="35"/>
+      <c r="D104" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="E104" s="37">
+        <v>1</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G104" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="H104" s="83"/>
+      <c r="I104" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="R104" s="39"/>
+    </row>
+    <row r="105" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="38">
+        <v>311</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="35"/>
+      <c r="D105" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="E98" s="37">
-        <v>1</v>
-      </c>
-      <c r="F98" s="28" t="s">
+      <c r="E105" s="86"/>
+      <c r="G105" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="H105" s="83"/>
+      <c r="I105" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="R105" s="39"/>
+    </row>
+    <row r="106" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="38">
+        <v>312</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" s="35"/>
+      <c r="D106" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106" s="37">
+        <v>1</v>
+      </c>
+      <c r="F106" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="G98" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="H98" s="83"/>
-      <c r="I98" s="35" t="s">
+      <c r="G106" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="H106" s="83"/>
+      <c r="I106" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="R98" s="39"/>
-    </row>
-    <row r="99" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="38">
-        <v>311</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" s="35"/>
-      <c r="D99" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E99" s="86"/>
-      <c r="G99" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="H99" s="83"/>
-      <c r="I99" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="R99" s="39"/>
-    </row>
-    <row r="100" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="38">
-        <v>312</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C100" s="35"/>
-      <c r="D100" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="E100" s="37">
-        <v>1</v>
-      </c>
-      <c r="F100" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="G100" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="H100" s="83"/>
-      <c r="I100" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="R100" s="39"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B101" s="28"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B102" s="28"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B103" s="28"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B104" s="28"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B105" s="28"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B106" s="28"/>
+      <c r="R106" s="39"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B107" s="28"/>
@@ -7230,12 +7416,30 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B112" s="28"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B113" s="28"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B114" s="28"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B115" s="28"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B116" s="28"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B117" s="28"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B118" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="P7:R7"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H22" r:id="rId1" xr:uid="{B3564F39-BDFC-024B-80FC-3B84D3B19B84}"/>
     <hyperlink ref="H19" r:id="rId2" xr:uid="{441A81FD-7638-214B-A580-55099579328C}"/>
@@ -7250,16 +7454,16 @@
     <hyperlink ref="H13" r:id="rId11" xr:uid="{A6981C13-5249-8643-A41C-B2B2100F79D1}"/>
     <hyperlink ref="H17" r:id="rId12" xr:uid="{484B6B63-AA78-7743-BBB3-CFC6FCB12C15}"/>
     <hyperlink ref="H18" r:id="rId13" xr:uid="{CD594B1E-E3AA-0943-A29A-C9163BA37E99}"/>
-    <hyperlink ref="H70" r:id="rId14" xr:uid="{C1CC8B14-BBCA-4D40-9FF8-7DD9D4696CC5}"/>
+    <hyperlink ref="H73" r:id="rId14" xr:uid="{C1CC8B14-BBCA-4D40-9FF8-7DD9D4696CC5}"/>
     <hyperlink ref="H23" r:id="rId15" xr:uid="{4D54B049-208C-EB4E-84D2-41A2F08DF86C}"/>
-    <hyperlink ref="H72" r:id="rId16" xr:uid="{54012B0E-4E17-1344-80E3-3A670B34649A}"/>
-    <hyperlink ref="H82" r:id="rId17" xr:uid="{F426B9DF-2D8C-6B44-894D-BDCD1F63FD09}"/>
-    <hyperlink ref="H79" r:id="rId18" xr:uid="{2776FBA9-9985-9E4B-9FB5-4B066FF0ED50}"/>
-    <hyperlink ref="H83" r:id="rId19" xr:uid="{A8CE4F90-1BAF-1447-9A14-F563F16A701F}"/>
-    <hyperlink ref="H73" r:id="rId20" xr:uid="{5FA56FEC-ABF3-D042-8227-2FF115EE568D}"/>
-    <hyperlink ref="H81" r:id="rId21" xr:uid="{913EBDAF-6D52-7F42-9D9E-2E61FE9C1502}"/>
-    <hyperlink ref="H78" r:id="rId22" xr:uid="{F903274A-513B-A64B-848E-306B1EEC7E1C}"/>
-    <hyperlink ref="H77" r:id="rId23" xr:uid="{1D3329C3-5719-9943-AF92-B402BC871D52}"/>
+    <hyperlink ref="H75" r:id="rId16" xr:uid="{54012B0E-4E17-1344-80E3-3A670B34649A}"/>
+    <hyperlink ref="H88" r:id="rId17" xr:uid="{F426B9DF-2D8C-6B44-894D-BDCD1F63FD09}"/>
+    <hyperlink ref="H85" r:id="rId18" xr:uid="{2776FBA9-9985-9E4B-9FB5-4B066FF0ED50}"/>
+    <hyperlink ref="H89" r:id="rId19" xr:uid="{A8CE4F90-1BAF-1447-9A14-F563F16A701F}"/>
+    <hyperlink ref="H76" r:id="rId20" xr:uid="{5FA56FEC-ABF3-D042-8227-2FF115EE568D}"/>
+    <hyperlink ref="H87" r:id="rId21" xr:uid="{913EBDAF-6D52-7F42-9D9E-2E61FE9C1502}"/>
+    <hyperlink ref="H84" r:id="rId22" xr:uid="{F903274A-513B-A64B-848E-306B1EEC7E1C}"/>
+    <hyperlink ref="H83" r:id="rId23" xr:uid="{1D3329C3-5719-9943-AF92-B402BC871D52}"/>
     <hyperlink ref="H24" r:id="rId24" xr:uid="{13958584-2A2A-734F-A90A-B2A4875219D6}"/>
     <hyperlink ref="H25" r:id="rId25" xr:uid="{F5C45803-8299-174A-B095-B21036B0A8AF}"/>
     <hyperlink ref="H28" r:id="rId26" xr:uid="{B37F0916-A681-C94F-9417-EA6AD4DCE2F5}"/>
@@ -7276,6 +7480,9 @@
     <hyperlink ref="H41" r:id="rId37" xr:uid="{7BAF4CE9-9A25-4243-9C54-73411A4EC804}"/>
     <hyperlink ref="H42" r:id="rId38" xr:uid="{AA0EFC18-CD46-1947-957F-08534C7F8E72}"/>
     <hyperlink ref="H21" r:id="rId39" xr:uid="{28ED6A70-D746-9040-95B2-9CA2B4DBBAC4}"/>
+    <hyperlink ref="H71" r:id="rId40" xr:uid="{9746EEC6-8B11-2E4B-BAF8-32614C10BC2F}"/>
+    <hyperlink ref="H72" r:id="rId41" xr:uid="{C0B1E6B5-726E-7E44-BB2F-97BB560A17AC}"/>
+    <hyperlink ref="H80" r:id="rId42" xr:uid="{F17F3EA7-4DC5-8343-88BA-8E9C23AEF2F5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7283,10 +7490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6340416-D374-C841-832D-DB1142BA15CE}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A18" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -7321,11 +7528,11 @@
       <c r="A3" s="29"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="P3" s="143" t="s">
+      <c r="P3" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
     </row>
     <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7434,7 +7641,7 @@
     </row>
     <row r="7" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D7" s="59"/>
       <c r="G7" s="60"/>
@@ -7445,7 +7652,7 @@
     <row r="8" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="58"/>
       <c r="B8" s="82" t="s">
-        <v>397</v>
+        <v>693</v>
       </c>
       <c r="D8" s="59"/>
       <c r="G8" s="60"/>
@@ -7455,18 +7662,18 @@
     </row>
     <row r="9" spans="1:18" s="65" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="C9" s="81" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="30"/>
       <c r="G9" s="81" t="s">
-        <v>396</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>364</v>
+        <v>393</v>
+      </c>
+      <c r="H9" s="155" t="s">
+        <v>362</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>219</v>
@@ -7486,7 +7693,7 @@
     </row>
     <row r="10" spans="1:18" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B10" s="82" t="s">
-        <v>398</v>
+        <v>696</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="28"/>
@@ -7503,10 +7710,10 @@
     </row>
     <row r="11" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C11" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E11" s="67">
         <v>2</v>
@@ -7522,10 +7729,10 @@
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C12" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E12" s="67">
         <v>1</v>
@@ -7541,10 +7748,10 @@
     </row>
     <row r="13" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C13" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E13" s="67">
         <v>1</v>
@@ -7560,10 +7767,10 @@
     </row>
     <row r="14" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C14" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E14" s="67">
         <v>1</v>
@@ -7579,7 +7786,7 @@
     </row>
     <row r="15" spans="1:18" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B15" s="82" t="s">
-        <v>398</v>
+        <v>696</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="64"/>
@@ -7592,10 +7799,10 @@
     </row>
     <row r="16" spans="1:18" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="C16" s="72" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E16" s="67">
         <v>2</v>
@@ -7604,10 +7811,10 @@
         <v>200</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="H16" s="158" t="s">
+        <v>375</v>
       </c>
       <c r="J16" s="71">
         <v>1</v>
@@ -7624,7 +7831,7 @@
     </row>
     <row r="17" spans="1:18" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="82" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C17" s="84"/>
       <c r="D17" s="57"/>
@@ -7638,8 +7845,8 @@
     </row>
     <row r="18" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B18" s="73"/>
-      <c r="C18" s="77" t="s">
-        <v>392</v>
+      <c r="C18" s="157" t="s">
+        <v>697</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="64">
@@ -7649,13 +7856,13 @@
         <v>200</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>219</v>
+        <v>699</v>
+      </c>
+      <c r="H18" s="157" t="s">
+        <v>698</v>
+      </c>
+      <c r="I18" s="157" t="s">
+        <v>397</v>
       </c>
       <c r="J18" s="27">
         <v>0</v>
@@ -7683,7 +7890,7 @@
     </row>
     <row r="19" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C19" s="91" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="27">
@@ -7693,11 +7900,11 @@
         <v>200</v>
       </c>
       <c r="G19" s="92" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="77" t="s">
-        <v>219</v>
+      <c r="I19" s="157" t="s">
+        <v>397</v>
       </c>
       <c r="J19" s="27">
         <v>3</v>
@@ -7706,9 +7913,9 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="28"/>
     </row>
-    <row r="20" spans="1:18" s="27" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C20" s="91" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="27">
@@ -7718,13 +7925,13 @@
         <v>200</v>
       </c>
       <c r="G20" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>603</v>
-      </c>
-      <c r="I20" s="77" t="s">
-        <v>219</v>
+        <v>420</v>
+      </c>
+      <c r="H20" s="117" t="s">
+        <v>702</v>
+      </c>
+      <c r="I20" s="157" t="s">
+        <v>397</v>
       </c>
       <c r="J20" s="27">
         <v>0</v>
@@ -7734,8 +7941,8 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C21" s="91" t="s">
-        <v>592</v>
+      <c r="C21" s="157" t="s">
+        <v>700</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="27">
@@ -7745,11 +7952,13 @@
         <v>200</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="77" t="s">
-        <v>219</v>
+        <v>420</v>
+      </c>
+      <c r="H21" s="117" t="s">
+        <v>701</v>
+      </c>
+      <c r="I21" s="157" t="s">
+        <v>397</v>
       </c>
       <c r="J21" s="27">
         <v>0</v>
@@ -7759,8 +7968,8 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C22" s="91" t="s">
-        <v>587</v>
+      <c r="C22" s="157" t="s">
+        <v>695</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="27">
@@ -7770,11 +7979,13 @@
         <v>200</v>
       </c>
       <c r="G22" s="92" t="s">
-        <v>424</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="77" t="s">
-        <v>219</v>
+        <v>419</v>
+      </c>
+      <c r="H22" s="117" t="s">
+        <v>694</v>
+      </c>
+      <c r="I22" s="157" t="s">
+        <v>397</v>
       </c>
       <c r="J22" s="27">
         <v>1</v>
@@ -7785,123 +7996,144 @@
     </row>
     <row r="23" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C23" s="91" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="F23" s="78"/>
+      <c r="E23" s="27">
+        <v>1</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>200</v>
+      </c>
       <c r="G23" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="77"/>
+        <v>420</v>
+      </c>
+      <c r="H23" s="117" t="s">
+        <v>703</v>
+      </c>
+      <c r="I23" s="157" t="s">
+        <v>397</v>
+      </c>
       <c r="P23" s="28"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="28"/>
     </row>
     <row r="24" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C24" s="77" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
+      <c r="I24" s="157" t="s">
+        <v>397</v>
+      </c>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="28"/>
     </row>
     <row r="25" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C25" s="77" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
+      <c r="I25" s="157" t="s">
+        <v>397</v>
+      </c>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
     </row>
     <row r="26" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C26" s="91" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="92" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="H26" s="28"/>
+      <c r="I26" s="157" t="s">
+        <v>397</v>
+      </c>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
     </row>
     <row r="27" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="C27" s="91" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="92" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H27" s="28"/>
+      <c r="I27" s="157" t="s">
+        <v>397</v>
+      </c>
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
       <c r="R27" s="28"/>
     </row>
     <row r="29" spans="1:18" ht="21" x14ac:dyDescent="0.15">
       <c r="B29" s="107" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
       <c r="B30" s="115" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D30" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E30" s="110">
         <v>1</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H30" s="117" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="91"/>
       <c r="B31" s="116" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="E31" s="110">
         <v>1</v>
       </c>
       <c r="F31" s="28"/>
       <c r="H31" s="119" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="91" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="27">
@@ -7910,463 +8142,511 @@
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="117" t="s">
-        <v>681</v>
-      </c>
-      <c r="I32" s="145" t="s">
-        <v>402</v>
+        <v>669</v>
+      </c>
+      <c r="I32" s="144" t="s">
+        <v>397</v>
       </c>
       <c r="P32" s="28"/>
       <c r="Q32" s="28"/>
       <c r="R32" s="28"/>
     </row>
-    <row r="34" spans="2:8" ht="22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="22" x14ac:dyDescent="0.15">
       <c r="B34" s="108" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.15">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="C35" s="92" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="17" x14ac:dyDescent="0.15">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="C36" s="92" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="17" x14ac:dyDescent="0.15">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="C37" s="92" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="21" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B39" s="107" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="C40" s="92" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="C41" s="92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="C40" s="156" t="s">
+        <v>706</v>
+      </c>
+      <c r="E40" s="28">
+        <v>1</v>
+      </c>
+      <c r="H40" s="117" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="C41" s="156" t="s">
+        <v>711</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="H41" s="117"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="C42" s="156" t="s">
+        <v>712</v>
+      </c>
+      <c r="E42" s="28">
+        <v>1</v>
+      </c>
+      <c r="H42" s="117" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="27"/>
+      <c r="B43" s="115" t="s">
+        <v>552</v>
+      </c>
+      <c r="C43" t="s">
+        <v>554</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="110">
+        <v>1</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" t="s">
+        <v>553</v>
+      </c>
+      <c r="H43" s="119" t="s">
+        <v>705</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C44" s="92"/>
+    </row>
+    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B46" s="107" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="B43" s="107" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="C44" s="92" t="s">
-        <v>594</v>
-      </c>
-      <c r="G44" s="92" t="s">
-        <v>424</v>
-      </c>
-      <c r="H44" s="109" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="B46" s="107" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="C47" s="92" t="s">
-        <v>598</v>
+        <v>585</v>
+      </c>
+      <c r="G47" s="92" t="s">
+        <v>419</v>
+      </c>
+      <c r="H47" s="109" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B49" s="107" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.15">
-      <c r="B50" s="107"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="C50" s="92" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B52" s="107" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="91" t="s">
-        <v>606</v>
-      </c>
-      <c r="B54" s="115"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="28"/>
-      <c r="H54" s="118"/>
-    </row>
-    <row r="55" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="27"/>
-      <c r="B55" s="116" t="s">
-        <v>452</v>
-      </c>
-      <c r="C55" t="s">
-        <v>451</v>
-      </c>
-      <c r="D55" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" s="110">
-        <v>1</v>
-      </c>
-      <c r="F55" s="28"/>
-      <c r="G55" t="s">
-        <v>453</v>
-      </c>
-      <c r="H55" s="117" t="s">
-        <v>620</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A56" s="27"/>
-      <c r="B56" s="115" t="s">
-        <v>479</v>
-      </c>
-      <c r="C56" t="s">
-        <v>258</v>
-      </c>
-      <c r="D56" s="146" t="s">
-        <v>682</v>
-      </c>
-      <c r="E56" s="110">
-        <v>1</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" t="s">
-        <v>259</v>
-      </c>
-      <c r="H56" s="118"/>
-      <c r="I56" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A57" s="27"/>
-      <c r="B57" s="115" t="s">
-        <v>480</v>
-      </c>
-      <c r="C57" t="s">
-        <v>482</v>
-      </c>
-      <c r="D57" s="147" t="s">
-        <v>683</v>
-      </c>
-      <c r="E57" s="110">
-        <v>1</v>
-      </c>
-      <c r="F57" s="28"/>
-      <c r="G57" t="s">
-        <v>481</v>
-      </c>
-      <c r="H57" s="118"/>
-      <c r="I57" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A58" s="27"/>
-      <c r="B58" s="115" t="s">
-        <v>484</v>
-      </c>
-      <c r="C58" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="147" t="s">
-        <v>684</v>
-      </c>
-      <c r="E58" s="110">
-        <v>3</v>
-      </c>
-      <c r="F58" s="28"/>
-      <c r="G58" t="s">
-        <v>485</v>
-      </c>
-      <c r="H58" s="118"/>
-      <c r="I58" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B53" s="107"/>
+    </row>
+    <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B55" s="107" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B58" s="107" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="27"/>
       <c r="B59" s="115" t="s">
-        <v>491</v>
-      </c>
-      <c r="C59" t="s">
-        <v>493</v>
-      </c>
-      <c r="D59" s="147" t="s">
-        <v>685</v>
+        <v>545</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>653</v>
       </c>
       <c r="E59" s="110">
         <v>1</v>
       </c>
       <c r="F59" s="28"/>
-      <c r="G59" t="s">
-        <v>492</v>
-      </c>
-      <c r="H59" s="118"/>
+      <c r="G59" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="H59" s="119" t="s">
+        <v>654</v>
+      </c>
       <c r="I59" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27"/>
-      <c r="B60" s="115" t="s">
-        <v>494</v>
-      </c>
-      <c r="C60" t="s">
-        <v>493</v>
-      </c>
-      <c r="D60" s="147" t="s">
-        <v>686</v>
-      </c>
+      <c r="B60" s="116" t="s">
+        <v>708</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="D60" s="26"/>
       <c r="E60" s="110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="28"/>
-      <c r="G60" t="s">
-        <v>495</v>
-      </c>
-      <c r="H60" s="118"/>
-      <c r="I60" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A61" s="27"/>
-      <c r="B61" s="115" t="s">
-        <v>496</v>
-      </c>
-      <c r="C61" t="s">
-        <v>498</v>
-      </c>
-      <c r="D61" s="147" t="s">
-        <v>687</v>
-      </c>
-      <c r="E61" s="110">
-        <v>1</v>
-      </c>
-      <c r="F61" s="28"/>
-      <c r="G61" t="s">
-        <v>497</v>
-      </c>
-      <c r="H61" s="118"/>
-      <c r="I61" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A62" s="27"/>
-      <c r="B62" s="115" t="s">
-        <v>499</v>
-      </c>
-      <c r="C62" t="s">
-        <v>493</v>
-      </c>
-      <c r="D62" s="147" t="s">
-        <v>688</v>
-      </c>
-      <c r="E62" s="110">
-        <v>1</v>
-      </c>
+      <c r="G60" s="26"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="26"/>
+    </row>
+    <row r="62" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="91" t="s">
+        <v>595</v>
+      </c>
+      <c r="B62" s="115"/>
+      <c r="E62" s="110"/>
       <c r="F62" s="28"/>
-      <c r="G62" t="s">
-        <v>500</v>
-      </c>
       <c r="H62" s="118"/>
-      <c r="I62" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="27"/>
-      <c r="B63" s="115" t="s">
-        <v>501</v>
+      <c r="B63" s="116" t="s">
+        <v>447</v>
       </c>
       <c r="C63" t="s">
-        <v>493</v>
-      </c>
-      <c r="D63" s="148" t="s">
-        <v>689</v>
+        <v>446</v>
+      </c>
+      <c r="D63" t="s">
+        <v>253</v>
       </c>
       <c r="E63" s="110">
         <v>1</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" t="s">
-        <v>502</v>
-      </c>
-      <c r="H63" s="118"/>
+        <v>448</v>
+      </c>
+      <c r="H63" s="117" t="s">
+        <v>609</v>
+      </c>
       <c r="I63" s="26" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A64" s="27"/>
       <c r="B64" s="115" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C64" t="s">
-        <v>493</v>
-      </c>
-      <c r="D64" s="148" t="s">
-        <v>690</v>
+        <v>258</v>
+      </c>
+      <c r="D64" s="145" t="s">
+        <v>670</v>
       </c>
       <c r="E64" s="110">
         <v>1</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" t="s">
-        <v>504</v>
+        <v>259</v>
       </c>
       <c r="H64" s="118"/>
       <c r="I64" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A65" s="27"/>
       <c r="B65" s="115" t="s">
-        <v>551</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>665</v>
+        <v>475</v>
+      </c>
+      <c r="C65" t="s">
+        <v>477</v>
+      </c>
+      <c r="D65" s="146" t="s">
+        <v>671</v>
       </c>
       <c r="E65" s="110">
         <v>1</v>
       </c>
       <c r="F65" s="28"/>
-      <c r="G65" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="H65" s="119" t="s">
-        <v>666</v>
-      </c>
+      <c r="G65" t="s">
+        <v>476</v>
+      </c>
+      <c r="H65" s="118"/>
       <c r="I65" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="27"/>
       <c r="B66" s="115" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
       <c r="C66" t="s">
-        <v>560</v>
-      </c>
-      <c r="D66" s="28"/>
+        <v>258</v>
+      </c>
+      <c r="D66" s="146" t="s">
+        <v>672</v>
+      </c>
       <c r="E66" s="110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" t="s">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="H66" s="118"/>
       <c r="I66" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A67" s="27"/>
       <c r="B67" s="115" t="s">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="C67" t="s">
-        <v>565</v>
+        <v>487</v>
+      </c>
+      <c r="D67" s="146" t="s">
+        <v>673</v>
       </c>
       <c r="E67" s="110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" t="s">
-        <v>564</v>
+        <v>486</v>
       </c>
       <c r="H67" s="118"/>
       <c r="I67" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A68" s="27"/>
       <c r="B68" s="115" t="s">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="C68" t="s">
-        <v>569</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>671</v>
+        <v>487</v>
+      </c>
+      <c r="D68" s="146" t="s">
+        <v>674</v>
       </c>
       <c r="E68" s="110">
         <v>1</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" t="s">
-        <v>568</v>
+        <v>489</v>
       </c>
       <c r="H68" s="118"/>
       <c r="I68" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="27"/>
       <c r="B69" s="115" t="s">
-        <v>572</v>
+        <v>490</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>672</v>
+        <v>492</v>
+      </c>
+      <c r="D69" s="146" t="s">
+        <v>675</v>
       </c>
       <c r="E69" s="110">
         <v>1</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" t="s">
-        <v>278</v>
+        <v>491</v>
       </c>
       <c r="H69" s="118"/>
       <c r="I69" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A70" s="27"/>
       <c r="B70" s="115" t="s">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="C70" t="s">
-        <v>575</v>
-      </c>
-      <c r="D70" t="s">
-        <v>576</v>
+        <v>487</v>
+      </c>
+      <c r="D70" s="146" t="s">
+        <v>676</v>
       </c>
       <c r="E70" s="110">
         <v>1</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" t="s">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="H70" s="118"/>
       <c r="I70" s="26" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A71" s="27"/>
+      <c r="B71" s="115" t="s">
+        <v>495</v>
+      </c>
+      <c r="C71" t="s">
+        <v>487</v>
+      </c>
+      <c r="D71" s="147" t="s">
+        <v>677</v>
+      </c>
+      <c r="E71" s="110">
+        <v>1</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" t="s">
+        <v>496</v>
+      </c>
+      <c r="H71" s="118"/>
+      <c r="I71" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A72" s="27"/>
+      <c r="B72" s="115" t="s">
+        <v>497</v>
+      </c>
+      <c r="C72" t="s">
+        <v>487</v>
+      </c>
+      <c r="D72" s="147" t="s">
+        <v>678</v>
+      </c>
+      <c r="E72" s="110">
+        <v>1</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" t="s">
+        <v>498</v>
+      </c>
+      <c r="H72" s="118"/>
+      <c r="I72" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="27"/>
+      <c r="B73" s="115" t="s">
+        <v>557</v>
+      </c>
+      <c r="C73" t="s">
+        <v>559</v>
+      </c>
+      <c r="E73" s="110">
+        <v>2</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" t="s">
+        <v>558</v>
+      </c>
+      <c r="H73" s="118"/>
+      <c r="I73" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="27"/>
+      <c r="B74" s="115" t="s">
+        <v>561</v>
+      </c>
+      <c r="C74" t="s">
+        <v>563</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="E74" s="110">
+        <v>1</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" t="s">
+        <v>562</v>
+      </c>
+      <c r="H74" s="118"/>
+      <c r="I74" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="27"/>
+      <c r="B75" s="115" t="s">
+        <v>566</v>
+      </c>
+      <c r="C75" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="E75" s="110">
+        <v>1</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" t="s">
+        <v>278</v>
+      </c>
+      <c r="H75" s="118"/>
+      <c r="I75" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="27"/>
+      <c r="B76" s="115" t="s">
+        <v>567</v>
+      </c>
+      <c r="C76" t="s">
+        <v>569</v>
+      </c>
+      <c r="D76" t="s">
+        <v>570</v>
+      </c>
+      <c r="E76" s="110">
+        <v>1</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" t="s">
+        <v>568</v>
+      </c>
+      <c r="H76" s="118"/>
+      <c r="I76" s="26" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -8379,13 +8659,18 @@
     <mergeCell ref="P3:R3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H44" r:id="rId1" xr:uid="{E754BE64-8752-C745-BFF9-9A53AB3A2F0E}"/>
-    <hyperlink ref="H20" r:id="rId2" xr:uid="{D9F2B8F6-21A2-8645-ADB7-344ADF6610F7}"/>
-    <hyperlink ref="H32" r:id="rId3" xr:uid="{611CC402-5DA1-574B-80FC-4C8614EF427D}"/>
-    <hyperlink ref="H31" r:id="rId4" xr:uid="{17F46990-A3CF-0B4A-BE75-6C176C4A274B}"/>
-    <hyperlink ref="H30" r:id="rId5" xr:uid="{08E36568-0C60-2345-B1DE-8AD19223FF1F}"/>
-    <hyperlink ref="H55" r:id="rId6" xr:uid="{F0DAC8EB-D183-DD47-A3FB-3112A5C042FE}"/>
-    <hyperlink ref="H65" r:id="rId7" xr:uid="{131639AC-63C1-174F-9D9C-42743B00E72E}"/>
+    <hyperlink ref="H47" r:id="rId1" xr:uid="{E754BE64-8752-C745-BFF9-9A53AB3A2F0E}"/>
+    <hyperlink ref="H32" r:id="rId2" xr:uid="{611CC402-5DA1-574B-80FC-4C8614EF427D}"/>
+    <hyperlink ref="H31" r:id="rId3" xr:uid="{17F46990-A3CF-0B4A-BE75-6C176C4A274B}"/>
+    <hyperlink ref="H30" r:id="rId4" xr:uid="{08E36568-0C60-2345-B1DE-8AD19223FF1F}"/>
+    <hyperlink ref="H63" r:id="rId5" xr:uid="{F0DAC8EB-D183-DD47-A3FB-3112A5C042FE}"/>
+    <hyperlink ref="H59" r:id="rId6" xr:uid="{131639AC-63C1-174F-9D9C-42743B00E72E}"/>
+    <hyperlink ref="H22" r:id="rId7" xr:uid="{F552AF9D-E064-8D43-A5DE-71219516B326}"/>
+    <hyperlink ref="H21" r:id="rId8" xr:uid="{9E2CB0F2-7161-C445-8C52-E7DE026352A5}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{31F511B4-0A02-6A4D-8D13-38BD11687CA3}"/>
+    <hyperlink ref="H40" r:id="rId10" xr:uid="{884683D3-DCF7-6044-A15C-C5EB3348800A}"/>
+    <hyperlink ref="H43" r:id="rId11" xr:uid="{A0DA5728-D9F0-C84F-AD11-9CFB5DBD610F}"/>
+    <hyperlink ref="H42" r:id="rId12" xr:uid="{2E79709E-48F4-3849-B83D-62DE9B1506DF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
+++ b/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Manufacturing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7537F7-CCD1-F649-885C-59F58EBCA8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB30509-E052-9345-ABC2-B8DEFA4A074E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34660" windowHeight="22680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34660" windowHeight="22680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU List" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Concept Estimate" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Core Board V0.4'!$A$6:$N$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Core Board V0.4'!$A$6:$N$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'User Supplied Options'!$A$6:$N$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="731">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -2226,6 +2226,27 @@
   </si>
   <si>
     <t>4x AAA Battery Holder with keystone connector</t>
+  </si>
+  <si>
+    <t>CORE64-CB-V0.4-NP-1TP-KIT INCLUDED - PRE-ASSEMBLED</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Header 1x16</t>
+  </si>
+  <si>
+    <t>Header 2x3</t>
+  </si>
+  <si>
+    <t>Core Memory</t>
+  </si>
+  <si>
+    <t>J1, J2</t>
+  </si>
+  <si>
+    <t>do not insert</t>
   </si>
 </sst>
 </file>
@@ -2237,10 +2258,17 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2498,37 +2526,37 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2538,196 +2566,341 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2735,197 +2908,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3376,10 +3420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5DBFB5-E21A-7B4B-815F-748A526FD280}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -3422,11 +3466,11 @@
         <v>172</v>
       </c>
       <c r="C3" s="27"/>
-      <c r="P3" s="154" t="s">
+      <c r="P3" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -3533,428 +3577,434 @@
     </row>
     <row r="7" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="104" t="s">
-        <v>432</v>
+        <v>724</v>
       </c>
       <c r="B7" s="105"/>
       <c r="C7" s="105"/>
       <c r="D7" s="105"/>
       <c r="R7" s="39"/>
     </row>
-    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A8" s="28">
-        <v>0</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="46">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46" t="s">
+    <row r="8" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A8" s="60">
+        <v>1</v>
+      </c>
+      <c r="B8" s="165" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="166">
+        <v>4</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="I8" s="46" t="s">
+      <c r="G8" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="J8" s="28">
-        <v>0</v>
-      </c>
-      <c r="K8" s="46">
+      <c r="J8" s="38">
+        <v>0</v>
+      </c>
+      <c r="K8" s="38">
+        <f t="shared" ref="K8:K18" si="0">IF(J8&gt;E8,0,E8-J8)</f>
+        <v>4</v>
+      </c>
+      <c r="L8" s="38">
         <v>10</v>
       </c>
-      <c r="M8" s="28">
-        <f>L8-E8</f>
-        <v>-1</v>
-      </c>
-      <c r="N8" s="28">
-        <f>(4*E8)-M8</f>
+      <c r="M8" s="38">
+        <f t="shared" ref="M8:M13" si="1">L8-E8</f>
+        <v>6</v>
+      </c>
+      <c r="N8" s="38">
+        <f t="shared" ref="N8:N13" si="2">(4*E8)-M8</f>
+        <v>10</v>
+      </c>
+      <c r="R8" s="39" t="e">
+        <f t="shared" ref="R8:R14" si="3">Q8/P8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
+        <v>2</v>
+      </c>
+      <c r="B9" s="167" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="167" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="38">
+        <v>1</v>
+      </c>
+      <c r="M9" s="38">
+        <f>L9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="38">
+        <f>(4*E9)-M9</f>
+        <v>4</v>
+      </c>
+      <c r="R9" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A10" s="38">
+        <v>3</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="38">
+        <v>1</v>
+      </c>
+      <c r="M10" s="38">
+        <f t="shared" ref="M10:M15" si="4">L10-E10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="38">
+        <f t="shared" ref="N10:N15" si="5">(4*E10)-M10</f>
+        <v>4</v>
+      </c>
+      <c r="R10" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
+        <v>4</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="38">
+        <v>1</v>
+      </c>
+      <c r="M11" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R11" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A12" s="38">
         <v>5</v>
       </c>
-      <c r="R8" s="32" t="e">
-        <f t="shared" ref="R8:R15" si="0">Q8/P8</f>
+      <c r="B12" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="38">
+        <v>1</v>
+      </c>
+      <c r="M12" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="38">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R12" s="39" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="45">
-        <v>1</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="E9" s="48">
+    <row r="13" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A13" s="38">
+        <v>6</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" s="38">
+        <v>1</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="38">
+        <v>1</v>
+      </c>
+      <c r="M13" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="38">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="R13" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38">
+        <v>7</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="38">
+        <v>1</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="46" t="s">
+      <c r="G14" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="J9" s="28">
-        <v>0</v>
-      </c>
-      <c r="K9" s="46">
-        <f t="shared" ref="K9:K18" si="1">IF(J9&gt;E9,0,E9-J9)</f>
+      <c r="J14" s="38">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="38">
+        <v>1</v>
+      </c>
+      <c r="M14" s="38">
+        <f>L14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="38">
+        <f>(4*E14)-M14</f>
         <v>4</v>
       </c>
-      <c r="L9" s="38">
-        <v>10</v>
-      </c>
-      <c r="M9" s="28">
-        <f t="shared" ref="M9:M14" si="2">L9-E9</f>
-        <v>6</v>
-      </c>
-      <c r="N9" s="28">
-        <f t="shared" ref="N9:N14" si="3">(4*E9)-M9</f>
-        <v>10</v>
-      </c>
-      <c r="R9" s="32" t="e">
+      <c r="R14" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="35">
+        <v>8</v>
+      </c>
+      <c r="B15" s="162" t="s">
+        <v>729</v>
+      </c>
+      <c r="C15" s="162" t="s">
+        <v>726</v>
+      </c>
+      <c r="D15" s="164" t="s">
+        <v>730</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="K15" s="35">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A10" s="28">
-        <v>2</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="E10" s="46">
-        <v>1</v>
-      </c>
-      <c r="F10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35">
+        <f>J15+K15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="35">
+        <f>L15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="35">
+        <f>(4*E15)-M15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+    </row>
+    <row r="16" spans="1:18" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>9</v>
+      </c>
+      <c r="B16" s="162" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="164" t="s">
+        <v>730</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="28">
-        <v>0</v>
-      </c>
-      <c r="K10" s="46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="38">
-        <v>1</v>
-      </c>
-      <c r="M10" s="28">
-        <f>L10-E10</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="28">
-        <f>(4*E10)-M10</f>
-        <v>4</v>
-      </c>
-      <c r="R10" s="32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A11" s="28">
-        <v>9</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="46">
-        <v>1</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="28">
-        <v>0</v>
-      </c>
-      <c r="K11" s="46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="28">
-        <v>1</v>
-      </c>
-      <c r="M11" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="28">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R11" s="32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A12" s="28">
-        <v>10</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="46">
-        <v>1</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="28">
-        <v>0</v>
-      </c>
-      <c r="K12" s="46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="28">
-        <v>1</v>
-      </c>
-      <c r="M12" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="28">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R12" s="32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A13" s="28">
-        <v>11</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="E13" s="46">
-        <v>1</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="J13" s="28">
-        <v>0</v>
-      </c>
-      <c r="K13" s="46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="28">
-        <v>1</v>
-      </c>
-      <c r="M13" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="28">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R13" s="32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A14" s="28">
-        <v>12</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" s="46">
-        <v>1</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="28">
-        <v>0</v>
-      </c>
-      <c r="K14" s="46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="28">
-        <v>1</v>
-      </c>
-      <c r="M14" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="28">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R14" s="32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28">
-        <v>13</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" s="46">
-        <v>1</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15" s="28">
-        <v>0</v>
-      </c>
-      <c r="K15" s="46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="28">
-        <v>1</v>
-      </c>
-      <c r="M15" s="28">
-        <f>L15-E15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="28">
-        <f>(4*E15)-M15</f>
-        <v>4</v>
-      </c>
-      <c r="R15" s="32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="36"/>
-      <c r="F16" s="28"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="K16" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="35">
@@ -3973,17 +4023,29 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
     </row>
-    <row r="17" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="36"/>
-      <c r="F17" s="28"/>
+    <row r="17" spans="1:18" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="35">
+        <v>10</v>
+      </c>
+      <c r="B17" s="162" t="s">
+        <v>725</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>728</v>
+      </c>
+      <c r="D17" s="164" t="s">
+        <v>730</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="163" t="s">
+        <v>200</v>
+      </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="K17" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="35">
@@ -4003,28 +4065,12 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="44"/>
       <c r="D18" s="36"/>
       <c r="F18" s="28"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="K18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="35">
-        <f>J18+K18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="35">
-        <f>L18-E18</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="35">
-        <f>(4*E18)-M18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P18" s="28"/>
@@ -4032,9 +4078,7 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="62" t="s">
-        <v>368</v>
-      </c>
+      <c r="B19" s="62"/>
       <c r="C19" s="44"/>
       <c r="D19" s="36"/>
       <c r="F19" s="28"/>
@@ -4044,249 +4088,338 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="28"/>
     </row>
-    <row r="20" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="36"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-    </row>
-    <row r="21" spans="1:18" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
+    <row r="20" spans="1:18" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A21" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
       <c r="R21" s="39"/>
     </row>
-    <row r="22" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="62"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="36"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-    </row>
-    <row r="23" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A23" s="104" t="s">
-        <v>433</v>
-      </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="R23" s="39"/>
+    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="A22" s="28">
+        <v>0</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="46">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" s="28">
+        <v>0</v>
+      </c>
+      <c r="K22" s="46">
+        <v>10</v>
+      </c>
+      <c r="M22" s="28">
+        <f>L22-E22</f>
+        <v>-1</v>
+      </c>
+      <c r="N22" s="28">
+        <f>(4*E22)-M22</f>
+        <v>5</v>
+      </c>
+      <c r="R22" s="32" t="e">
+        <f t="shared" ref="R22:R29" si="6">Q22/P22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="A23" s="45">
+        <v>1</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" s="48">
+        <v>4</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" s="28">
+        <v>0</v>
+      </c>
+      <c r="K23" s="46">
+        <f t="shared" ref="K23:K32" si="7">IF(J23&gt;E23,0,E23-J23)</f>
+        <v>4</v>
+      </c>
+      <c r="L23" s="38">
+        <v>10</v>
+      </c>
+      <c r="M23" s="28">
+        <f t="shared" ref="M23:M28" si="8">L23-E23</f>
+        <v>6</v>
+      </c>
+      <c r="N23" s="28">
+        <f t="shared" ref="N23:N28" si="9">(4*E23)-M23</f>
+        <v>10</v>
+      </c>
+      <c r="R23" s="32" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A24" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>360</v>
+      <c r="A24" s="28">
+        <v>2</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>353</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E24" s="46">
-        <v>0</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>325</v>
+        <v>1</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>200</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="K24" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="N24" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="R24" s="32"/>
-    </row>
-    <row r="25" spans="1:18" ht="68" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="150" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>348</v>
+        <v>337</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" s="28">
+        <v>0</v>
+      </c>
+      <c r="K24" s="46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="38">
+        <v>1</v>
+      </c>
+      <c r="M24" s="28">
+        <f>L24-E24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="28">
+        <f>(4*E24)-M24</f>
+        <v>4</v>
+      </c>
+      <c r="R24" s="32" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="A25" s="28">
+        <v>9</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>319</v>
       </c>
       <c r="E25" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="G25" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="I25" s="46" t="s">
+      <c r="G25" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" s="47" t="s">
         <v>203</v>
       </c>
       <c r="J25" s="28">
         <v>0</v>
       </c>
-      <c r="K25" s="53">
-        <f t="shared" ref="K25:K30" si="4">IF(J25&gt;E25,0,E25-J25)</f>
-        <v>2</v>
+      <c r="K25" s="46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="28">
+        <v>1</v>
       </c>
       <c r="M25" s="28">
-        <f>L25-E25</f>
-        <v>-2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="N25" s="28">
-        <f>(4*E25)-M25</f>
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R25" s="32" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="A26" s="28">
         <v>10</v>
       </c>
-      <c r="R25" s="32" t="e">
-        <f>Q25/P25</f>
+      <c r="B26" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="46">
+        <v>1</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="28">
+        <v>0</v>
+      </c>
+      <c r="K26" s="46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="28">
+        <v>1</v>
+      </c>
+      <c r="M26" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="28">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R26" s="32" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="30" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A26" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="149" t="s">
-        <v>357</v>
-      </c>
-      <c r="D26" s="87" t="s">
-        <v>316</v>
-      </c>
-      <c r="E26" s="30">
-        <v>4</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="88" t="s">
-        <v>331</v>
-      </c>
-      <c r="H26" s="87" t="s">
-        <v>330</v>
-      </c>
-      <c r="I26" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" s="30">
-        <v>0</v>
-      </c>
-      <c r="K26" s="30">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L26" s="30">
-        <v>4</v>
-      </c>
-      <c r="M26" s="30">
-        <f>L26-E26</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="30">
-        <f>(4*E26)-M26</f>
-        <v>16</v>
-      </c>
-      <c r="R26" s="89"/>
-    </row>
-    <row r="27" spans="1:18" s="46" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A27" s="51" t="s">
-        <v>344</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>217</v>
+    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="A27" s="28">
+        <v>11</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>222</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>342</v>
+        <v>354</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>319</v>
       </c>
       <c r="E27" s="46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="47" t="s">
-        <v>338</v>
+      <c r="G27" s="46" t="s">
+        <v>226</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="J27" s="46">
+        <v>203</v>
+      </c>
+      <c r="J27" s="28">
         <v>0</v>
       </c>
       <c r="K27" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="28">
+        <v>1</v>
+      </c>
+      <c r="M27" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="28">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L27" s="46">
-        <v>4</v>
-      </c>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M32" si="5">L27-E27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="46">
-        <f t="shared" ref="N27:N32" si="6">(4*E27)-M27</f>
-        <v>16</v>
-      </c>
-      <c r="R27" s="90"/>
+      <c r="R27" s="32" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="28">
-        <v>15</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>228</v>
+        <v>12</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>272</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>346</v>
+        <v>354</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>319</v>
       </c>
       <c r="E28" s="46">
         <v>1</v>
@@ -4294,571 +4427,1004 @@
       <c r="F28" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="G28" s="47" t="s">
-        <v>229</v>
+      <c r="G28" s="46" t="s">
+        <v>227</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I28" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="I28" s="47" t="s">
         <v>203</v>
       </c>
       <c r="J28" s="28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="53">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="28">
+        <v>1</v>
       </c>
       <c r="M28" s="28">
-        <f t="shared" si="5"/>
-        <v>-1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="N28" s="28">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R28" s="32" t="e">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="R28" s="32" t="e">
-        <f>Q28/P28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="85" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="28">
-        <v>101</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>140</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>340</v>
       </c>
       <c r="E29" s="46">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F29" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="28">
+        <v>0</v>
+      </c>
+      <c r="K29" s="46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="28">
+        <v>1</v>
+      </c>
+      <c r="M29" s="28">
+        <f>L29-E29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="28">
+        <f>(4*E29)-M29</f>
+        <v>4</v>
+      </c>
+      <c r="R29" s="32" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="36"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="K30" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="35">
+        <f>J30+K30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="35">
+        <f>L30-E30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="35">
+        <f>(4*E30)-M30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+    </row>
+    <row r="31" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="36"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="K31" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="35">
+        <f>J31+K31</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="35">
+        <f>L31-E31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="35">
+        <f>(4*E31)-M31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+    </row>
+    <row r="32" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="36"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="K32" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="35">
+        <f>J32+K32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="35">
+        <f>L32-E32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="35">
+        <f>(4*E32)-M32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+    </row>
+    <row r="33" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="36"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+    </row>
+    <row r="34" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="36"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+    </row>
+    <row r="35" spans="1:18" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="R35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="62"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="36"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+    </row>
+    <row r="37" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A37" s="104" t="s">
+        <v>433</v>
+      </c>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="R37" s="39"/>
+    </row>
+    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="A38" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="E38" s="46">
+        <v>0</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="N38" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="R38" s="32"/>
+    </row>
+    <row r="39" spans="1:18" ht="68" x14ac:dyDescent="0.15">
+      <c r="A39" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="E39" s="46">
+        <v>2</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="28">
+        <v>0</v>
+      </c>
+      <c r="K39" s="53">
+        <f t="shared" ref="K39:K44" si="10">IF(J39&gt;E39,0,E39-J39)</f>
+        <v>2</v>
+      </c>
+      <c r="M39" s="28">
+        <f>L39-E39</f>
+        <v>-2</v>
+      </c>
+      <c r="N39" s="28">
+        <f>(4*E39)-M39</f>
+        <v>10</v>
+      </c>
+      <c r="R39" s="32" t="e">
+        <f>Q39/P39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="30" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A40" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" s="30">
+        <v>4</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="88" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="J40" s="30">
+        <v>0</v>
+      </c>
+      <c r="K40" s="30">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="L40" s="30">
+        <v>4</v>
+      </c>
+      <c r="M40" s="30">
+        <f>L40-E40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="30">
+        <f>(4*E40)-M40</f>
+        <v>16</v>
+      </c>
+      <c r="R40" s="89"/>
+    </row>
+    <row r="41" spans="1:18" s="46" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A41" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="E41" s="46">
+        <v>4</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="J41" s="46">
+        <v>0</v>
+      </c>
+      <c r="K41" s="46">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="L41" s="46">
+        <v>4</v>
+      </c>
+      <c r="M41" s="46">
+        <f t="shared" ref="M41:M46" si="11">L41-E41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="46">
+        <f t="shared" ref="N41:N46" si="12">(4*E41)-M41</f>
+        <v>16</v>
+      </c>
+      <c r="R41" s="90"/>
+    </row>
+    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="A42" s="28">
+        <v>15</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" s="46">
+        <v>1</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="J42" s="28">
+        <v>1</v>
+      </c>
+      <c r="K42" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="28">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="N42" s="28">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="R42" s="32" t="e">
+        <f>Q42/P42</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="85" x14ac:dyDescent="0.15">
+      <c r="A43" s="28">
+        <v>101</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="46">
+        <v>70</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H43" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I43" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J43" s="28">
         <v>860</v>
       </c>
-      <c r="K29" s="53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="28">
-        <f>J29+K29</f>
+      <c r="K43" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="28">
+        <f>J43+K43</f>
         <v>860</v>
       </c>
-      <c r="M29" s="28">
-        <f t="shared" si="5"/>
+      <c r="M43" s="28">
+        <f t="shared" si="11"/>
         <v>790</v>
       </c>
-      <c r="N29" s="28">
-        <f t="shared" si="6"/>
+      <c r="N43" s="28">
+        <f t="shared" si="12"/>
         <v>-510</v>
       </c>
-      <c r="R29" s="32" t="e">
-        <f>Q29/P29</f>
+      <c r="R43" s="32" t="e">
+        <f>Q43/P43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="102" x14ac:dyDescent="0.15">
-      <c r="A30" s="28">
+    <row r="44" spans="1:18" ht="102" x14ac:dyDescent="0.15">
+      <c r="A44" s="28">
         <v>102</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B44" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C44" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D44" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E44" s="46">
         <v>0.8</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F44" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G44" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H44" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I44" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J44" s="28">
         <v>426.2</v>
       </c>
-      <c r="K30" s="53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="28">
-        <f>J30+K30</f>
+      <c r="K44" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="28">
+        <f>J44+K44</f>
         <v>426.2</v>
       </c>
-      <c r="M30" s="28">
-        <f t="shared" si="5"/>
+      <c r="M44" s="28">
+        <f t="shared" si="11"/>
         <v>425.4</v>
       </c>
-      <c r="N30" s="28">
-        <f t="shared" si="6"/>
+      <c r="N44" s="28">
+        <f t="shared" si="12"/>
         <v>-422.2</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P44" s="28">
         <v>430</v>
       </c>
-      <c r="R30" s="32">
-        <f>Q30/P30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="85" x14ac:dyDescent="0.15">
-      <c r="A31" s="28">
+      <c r="R44" s="32">
+        <f>Q44/P44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="85" x14ac:dyDescent="0.15">
+      <c r="A45" s="28">
         <v>103</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B45" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C45" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D45" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E45" s="46">
         <v>0.8</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F45" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G45" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H45" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="I31" s="46" t="s">
+      <c r="I45" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J45" s="33">
         <v>100</v>
       </c>
-      <c r="K31" s="55">
-        <v>0</v>
-      </c>
-      <c r="L31" s="28">
-        <f>J31+K31</f>
+      <c r="K45" s="55">
+        <v>0</v>
+      </c>
+      <c r="L45" s="28">
+        <f>J45+K45</f>
         <v>100</v>
       </c>
-      <c r="M31" s="28">
-        <f t="shared" si="5"/>
+      <c r="M45" s="28">
+        <f t="shared" si="11"/>
         <v>99.2</v>
       </c>
-      <c r="N31" s="28">
-        <f t="shared" si="6"/>
+      <c r="N45" s="28">
+        <f t="shared" si="12"/>
         <v>-96</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P45" s="28">
         <v>100</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q45" s="34">
         <v>6.49</v>
       </c>
-      <c r="R31" s="32">
-        <f>Q31/P31</f>
+      <c r="R45" s="32">
+        <f>Q45/P45</f>
         <v>6.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="68" x14ac:dyDescent="0.15">
-      <c r="A32" s="28">
+    <row r="46" spans="1:18" ht="68" x14ac:dyDescent="0.15">
+      <c r="A46" s="28">
         <v>104</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B46" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C46" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D46" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E46" s="46">
         <v>0.75</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F46" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G46" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H46" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I46" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J46" s="33">
         <v>747</v>
       </c>
-      <c r="K32" s="55">
-        <v>0</v>
-      </c>
-      <c r="L32" s="33">
-        <f>J32+K32</f>
+      <c r="K46" s="55">
+        <v>0</v>
+      </c>
+      <c r="L46" s="33">
+        <f>J46+K46</f>
         <v>747</v>
       </c>
-      <c r="M32" s="33">
-        <f t="shared" si="5"/>
+      <c r="M46" s="33">
+        <f t="shared" si="11"/>
         <v>746.25</v>
       </c>
-      <c r="N32" s="33">
-        <f t="shared" si="6"/>
+      <c r="N46" s="33">
+        <f t="shared" si="12"/>
         <v>-743.25</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P46" s="28">
         <v>747</v>
       </c>
-      <c r="Q32" s="34">
+      <c r="Q46" s="34">
         <f>12.65+3.95+1.18</f>
         <v>17.78</v>
       </c>
-      <c r="R32" s="32">
-        <f>Q32/P32</f>
+      <c r="R46" s="32">
+        <f>Q46/P46</f>
         <v>2.3801874163319948E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="91" t="s">
+    <row r="47" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="91" t="s">
         <v>597</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="28"/>
-      <c r="H33" s="118"/>
-    </row>
-    <row r="34" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
-      <c r="B34" s="151" t="s">
+      <c r="B47" s="115"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="28"/>
+      <c r="H47" s="118"/>
+    </row>
+    <row r="48" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="27"/>
+      <c r="B48" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C48" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D48" s="50" t="s">
         <v>682</v>
       </c>
-      <c r="E34" s="152">
+      <c r="E48" s="152">
         <v>2</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="153" t="s">
+      <c r="F48" s="46"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="153" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="35" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="116" t="s">
+    <row r="49" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="27"/>
+      <c r="B49" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C49" t="s">
         <v>356</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D49" s="26" t="s">
         <v>683</v>
       </c>
-      <c r="E35" s="110">
+      <c r="E49" s="110">
         <v>4</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="119"/>
-    </row>
-    <row r="36" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="148" t="s">
+      <c r="F49" s="28"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="119"/>
+    </row>
+    <row r="50" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="148" t="s">
         <v>680</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="119"/>
-    </row>
-    <row r="37" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C37" s="97" t="s">
+      <c r="B50" s="116"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="119"/>
+    </row>
+    <row r="51" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C51" s="97" t="s">
         <v>438</v>
       </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="39"/>
-    </row>
-    <row r="38" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C38" s="97" t="s">
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="39"/>
+    </row>
+    <row r="52" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C52" s="97" t="s">
         <v>435</v>
       </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="39"/>
-    </row>
-    <row r="39" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C39" s="97" t="s">
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="39"/>
+    </row>
+    <row r="53" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C53" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="39"/>
-    </row>
-    <row r="40" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C40" s="97" t="s">
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="39"/>
+    </row>
+    <row r="54" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C54" s="97" t="s">
         <v>437</v>
       </c>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="39"/>
-    </row>
-    <row r="41" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C41" s="57" t="s">
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="39"/>
+    </row>
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C55" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="39"/>
-    </row>
-    <row r="42" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="57"/>
-      <c r="C42" s="94" t="s">
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="39"/>
+    </row>
+    <row r="56" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="57"/>
+      <c r="C56" s="94" t="s">
         <v>587</v>
       </c>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="39"/>
-    </row>
-    <row r="43" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="57"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="39"/>
-    </row>
-    <row r="44" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="104" t="s">
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="39"/>
+    </row>
+    <row r="57" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="57"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="39"/>
+    </row>
+    <row r="58" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A58" s="104" t="s">
         <v>434</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="59"/>
-      <c r="R44" s="39"/>
-    </row>
-    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="B45" s="92" t="s">
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="106"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="59"/>
+      <c r="R58" s="39"/>
+    </row>
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="B59" s="92" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="104" t="s">
+    <row r="62" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="A62" s="104" t="s">
         <v>572</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="106"/>
-    </row>
-    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="D49" s="145" t="s">
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="106"/>
+    </row>
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="D63" s="145" t="s">
         <v>690</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E63" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="34" x14ac:dyDescent="0.15">
-      <c r="A50" s="28">
+    <row r="64" spans="1:18" ht="34" x14ac:dyDescent="0.15">
+      <c r="A64" s="28">
         <v>14</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B64" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C64" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D64" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E64" s="46">
         <v>14</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F64" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="47" t="s">
+      <c r="G64" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="H64" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I64" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="J50" s="28">
-        <v>0</v>
-      </c>
-      <c r="K50" s="46">
-        <f>IF(J50&gt;E50,0,E50-J50)</f>
+      <c r="J64" s="28">
+        <v>0</v>
+      </c>
+      <c r="K64" s="46">
+        <f>IF(J64&gt;E64,0,E64-J64)</f>
         <v>14</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L64" s="28">
         <v>4</v>
       </c>
-      <c r="M50" s="28">
-        <f>L50-E50</f>
+      <c r="M64" s="28">
+        <f>L64-E64</f>
         <v>-10</v>
       </c>
-      <c r="N50" s="28">
-        <f>(4*E50)-M50</f>
+      <c r="N64" s="28">
+        <f>(4*E64)-M64</f>
         <v>66</v>
       </c>
-      <c r="R50" s="32" t="e">
-        <f>Q50/P50</f>
+      <c r="R64" s="32" t="e">
+        <f>Q64/P64</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="34" x14ac:dyDescent="0.15">
-      <c r="A51" s="45">
+    <row r="65" spans="1:18" ht="34" x14ac:dyDescent="0.15">
+      <c r="A65" s="45">
         <v>16</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B65" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C65" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D65" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E65" s="48">
         <v>14</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F65" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G65" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="H51" s="47" t="s">
+      <c r="H65" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="47" t="s">
+      <c r="I65" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="J51" s="28">
-        <v>0</v>
-      </c>
-      <c r="K51" s="46">
-        <f>IF(J51&gt;E51,0,E51-J51)</f>
+      <c r="J65" s="28">
+        <v>0</v>
+      </c>
+      <c r="K65" s="46">
+        <f>IF(J65&gt;E65,0,E65-J65)</f>
         <v>14</v>
       </c>
-      <c r="L51" s="38">
-        <v>0</v>
-      </c>
-      <c r="M51" s="28">
-        <f>L51-E51</f>
+      <c r="L65" s="38">
+        <v>0</v>
+      </c>
+      <c r="M65" s="28">
+        <f>L65-E65</f>
         <v>-14</v>
       </c>
-      <c r="N51" s="28">
-        <f>(4*E51)-M51</f>
+      <c r="N65" s="28">
+        <f>(4*E65)-M65</f>
         <v>70</v>
       </c>
-      <c r="R51" s="32" t="e">
-        <f>Q51/P51</f>
+      <c r="R65" s="32" t="e">
+        <f>Q65/P65</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A52" s="45"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="38"/>
-      <c r="R52" s="32"/>
-    </row>
-    <row r="53" spans="1:18" ht="68" x14ac:dyDescent="0.15">
-      <c r="D53" s="93" t="s">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A66" s="45"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="38"/>
+      <c r="R66" s="32"/>
+    </row>
+    <row r="67" spans="1:18" ht="68" x14ac:dyDescent="0.15">
+      <c r="D67" s="93" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="D54" s="145" t="s">
+    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="D68" s="145" t="s">
         <v>691</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E68" s="28">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N59" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N59">
-      <sortCondition ref="B6:B59"/>
+  <autoFilter ref="A6:N73" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N73">
+      <sortCondition ref="B6:B73"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="P3:R3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H34" r:id="rId1" xr:uid="{CC20020E-09E9-1145-A0B9-91ED22861541}"/>
+    <hyperlink ref="H48" r:id="rId1" xr:uid="{CC20020E-09E9-1145-A0B9-91ED22861541}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4868,7 +5434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052A41E-3EA7-B148-953B-E2218E71D84C}">
   <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -4941,11 +5507,11 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="P7" s="154" t="s">
+      <c r="P7" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
     </row>
     <row r="8" spans="1:31" s="83" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="83" t="s">
@@ -6705,17 +7271,17 @@
     <row r="80" spans="1:18" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B80" s="113"/>
       <c r="C80" s="68"/>
-      <c r="D80" s="160" t="s">
+      <c r="D80" s="159" t="s">
         <v>723</v>
       </c>
       <c r="E80" s="85">
         <v>1</v>
       </c>
-      <c r="F80" s="159" t="s">
+      <c r="F80" s="158" t="s">
         <v>200</v>
       </c>
       <c r="G80" s="84"/>
-      <c r="H80" s="161" t="s">
+      <c r="H80" s="160" t="s">
         <v>722</v>
       </c>
       <c r="K80" s="38"/>
@@ -6729,7 +7295,7 @@
     <row r="81" spans="1:20" ht="17" x14ac:dyDescent="0.15">
       <c r="B81" s="69"/>
       <c r="C81" s="68"/>
-      <c r="D81" s="156" t="s">
+      <c r="D81" s="155" t="s">
         <v>721</v>
       </c>
       <c r="E81" s="64">
@@ -7439,7 +8005,7 @@
   <mergeCells count="1">
     <mergeCell ref="P7:R7"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H22" r:id="rId1" xr:uid="{B3564F39-BDFC-024B-80FC-3B84D3B19B84}"/>
     <hyperlink ref="H19" r:id="rId2" xr:uid="{441A81FD-7638-214B-A580-55099579328C}"/>
@@ -7528,11 +8094,11 @@
       <c r="A3" s="29"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="P3" s="154" t="s">
+      <c r="P3" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
     </row>
     <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7672,7 +8238,7 @@
       <c r="G9" s="81" t="s">
         <v>393</v>
       </c>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="154" t="s">
         <v>362</v>
       </c>
       <c r="I9" s="79" t="s">
@@ -7813,7 +8379,7 @@
       <c r="G16" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="H16" s="158" t="s">
+      <c r="H16" s="157" t="s">
         <v>375</v>
       </c>
       <c r="J16" s="71">
@@ -7845,7 +8411,7 @@
     </row>
     <row r="18" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B18" s="73"/>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="156" t="s">
         <v>697</v>
       </c>
       <c r="D18" s="28"/>
@@ -7858,10 +8424,10 @@
       <c r="G18" s="27" t="s">
         <v>699</v>
       </c>
-      <c r="H18" s="157" t="s">
+      <c r="H18" s="156" t="s">
         <v>698</v>
       </c>
-      <c r="I18" s="157" t="s">
+      <c r="I18" s="156" t="s">
         <v>397</v>
       </c>
       <c r="J18" s="27">
@@ -7903,7 +8469,7 @@
         <v>579</v>
       </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="157" t="s">
+      <c r="I19" s="156" t="s">
         <v>397</v>
       </c>
       <c r="J19" s="27">
@@ -7930,7 +8496,7 @@
       <c r="H20" s="117" t="s">
         <v>702</v>
       </c>
-      <c r="I20" s="157" t="s">
+      <c r="I20" s="156" t="s">
         <v>397</v>
       </c>
       <c r="J20" s="27">
@@ -7941,7 +8507,7 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C21" s="157" t="s">
+      <c r="C21" s="156" t="s">
         <v>700</v>
       </c>
       <c r="D21" s="28"/>
@@ -7957,7 +8523,7 @@
       <c r="H21" s="117" t="s">
         <v>701</v>
       </c>
-      <c r="I21" s="157" t="s">
+      <c r="I21" s="156" t="s">
         <v>397</v>
       </c>
       <c r="J21" s="27">
@@ -7968,7 +8534,7 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22" spans="1:18" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="156" t="s">
         <v>695</v>
       </c>
       <c r="D22" s="28"/>
@@ -7984,7 +8550,7 @@
       <c r="H22" s="117" t="s">
         <v>694</v>
       </c>
-      <c r="I22" s="157" t="s">
+      <c r="I22" s="156" t="s">
         <v>397</v>
       </c>
       <c r="J22" s="27">
@@ -8011,7 +8577,7 @@
       <c r="H23" s="117" t="s">
         <v>703</v>
       </c>
-      <c r="I23" s="157" t="s">
+      <c r="I23" s="156" t="s">
         <v>397</v>
       </c>
       <c r="P23" s="28"/>
@@ -8026,7 +8592,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="157" t="s">
+      <c r="I24" s="156" t="s">
         <v>397</v>
       </c>
       <c r="P24" s="28"/>
@@ -8041,7 +8607,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="157" t="s">
+      <c r="I25" s="156" t="s">
         <v>397</v>
       </c>
       <c r="P25" s="28"/>
@@ -8058,7 +8624,7 @@
         <v>582</v>
       </c>
       <c r="H26" s="28"/>
-      <c r="I26" s="157" t="s">
+      <c r="I26" s="156" t="s">
         <v>397</v>
       </c>
       <c r="P26" s="28"/>
@@ -8075,7 +8641,7 @@
         <v>423</v>
       </c>
       <c r="H27" s="28"/>
-      <c r="I27" s="157" t="s">
+      <c r="I27" s="156" t="s">
         <v>397</v>
       </c>
       <c r="P27" s="28"/>
@@ -8177,7 +8743,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="C40" s="156" t="s">
+      <c r="C40" s="155" t="s">
         <v>706</v>
       </c>
       <c r="E40" s="28">
@@ -8188,7 +8754,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="C41" s="156" t="s">
+      <c r="C41" s="155" t="s">
         <v>711</v>
       </c>
       <c r="E41" s="28">
@@ -8197,7 +8763,7 @@
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="C42" s="156" t="s">
+      <c r="C42" s="155" t="s">
         <v>712</v>
       </c>
       <c r="E42" s="28">

--- a/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
+++ b/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Manufacturing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24DA3A7-BBD2-7E4E-91A6-A1DFC18B1488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4725F46F-5F46-4446-AD51-20437620F0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34660" windowHeight="22680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="750">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -2315,10 +2315,17 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2473,7 +2480,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2514,6 +2521,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2590,37 +2603,37 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2630,196 +2643,341 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2827,244 +2985,105 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3563,11 +3582,11 @@
         <v>172</v>
       </c>
       <c r="C3" s="27"/>
-      <c r="P3" s="165" t="s">
+      <c r="P3" s="178" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -5532,10 +5551,10 @@
   <dimension ref="A1:AF121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -5611,11 +5630,11 @@
       <c r="B6" s="92"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Q7" s="165" t="s">
+      <c r="Q7" s="178" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="178"/>
     </row>
     <row r="8" spans="1:32" s="83" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="83" t="s">
@@ -5678,7 +5697,7 @@
       <c r="A10" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="167" t="s">
         <v>724</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -5774,7 +5793,7 @@
       <c r="A11" s="104" t="s">
         <v>428</v>
       </c>
-      <c r="B11" s="169"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="105"/>
       <c r="D11" s="105"/>
       <c r="F11" s="86"/>
@@ -5783,7 +5802,7 @@
     </row>
     <row r="12" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C12" s="115" t="s">
@@ -5808,7 +5827,7 @@
     </row>
     <row r="13" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C13" s="116" t="s">
@@ -5833,7 +5852,7 @@
     </row>
     <row r="14" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C14" s="116" t="s">
@@ -5856,9 +5875,11 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="46"/>
+      <c r="B15" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C15" s="115" t="s">
         <v>448</v>
       </c>
@@ -5881,7 +5902,7 @@
     </row>
     <row r="16" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="172" t="s">
         <v>732</v>
       </c>
       <c r="C16" s="115" t="s">
@@ -5904,9 +5925,11 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
-      <c r="B17" s="46"/>
+      <c r="B17" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C17" s="116" t="s">
         <v>452</v>
       </c>
@@ -5927,9 +5950,11 @@
         <v>606</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C18" s="116" t="s">
         <v>454</v>
       </c>
@@ -5952,7 +5977,7 @@
     </row>
     <row r="19" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
-      <c r="B19" s="173" t="s">
+      <c r="B19" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C19" s="115" t="s">
@@ -5977,7 +6002,7 @@
     </row>
     <row r="20" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
-      <c r="B20" s="173" t="s">
+      <c r="B20" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C20" s="115" t="s">
@@ -6002,7 +6027,7 @@
     </row>
     <row r="21" spans="1:9" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="172" t="s">
         <v>725</v>
       </c>
       <c r="C21" s="115" t="s">
@@ -6025,9 +6050,11 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="172" t="s">
+        <v>726</v>
+      </c>
       <c r="C22" s="116" t="s">
         <v>521</v>
       </c>
@@ -6048,9 +6075,11 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
-      <c r="B23" s="46"/>
+      <c r="B23" s="172" t="s">
+        <v>726</v>
+      </c>
       <c r="C23" s="116" t="s">
         <v>522</v>
       </c>
@@ -6071,9 +6100,11 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="172" t="s">
+        <v>726</v>
+      </c>
       <c r="C24" s="115" t="s">
         <v>523</v>
       </c>
@@ -6096,7 +6127,7 @@
     </row>
     <row r="25" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="172" t="s">
         <v>731</v>
       </c>
       <c r="C25" s="115" t="s">
@@ -6121,7 +6152,7 @@
     </row>
     <row r="26" spans="1:9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C26" s="116" t="s">
@@ -6144,7 +6175,7 @@
     </row>
     <row r="27" spans="1:9" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C27" s="115" t="s">
@@ -6165,9 +6196,11 @@
         <v>635</v>
       </c>
     </row>
-    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="172" t="s">
+        <v>726</v>
+      </c>
       <c r="C28" s="116" t="s">
         <v>531</v>
       </c>
@@ -6186,9 +6219,11 @@
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="180" t="s">
+        <v>726</v>
+      </c>
       <c r="C29" s="116" t="s">
         <v>532</v>
       </c>
@@ -6207,9 +6242,11 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
-      <c r="B30" s="46"/>
+      <c r="B30" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C30" s="115" t="s">
         <v>533</v>
       </c>
@@ -6228,9 +6265,11 @@
         <v>641</v>
       </c>
     </row>
-    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="46"/>
+      <c r="B31" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C31" s="116" t="s">
         <v>534</v>
       </c>
@@ -6251,7 +6290,7 @@
     </row>
     <row r="32" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C32" s="115" t="s">
@@ -6272,9 +6311,11 @@
         <v>636</v>
       </c>
     </row>
-    <row r="33" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="46"/>
+      <c r="B33" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C33" s="115" t="s">
         <v>537</v>
       </c>
@@ -6293,9 +6334,11 @@
         <v>638</v>
       </c>
     </row>
-    <row r="34" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C34" s="115" t="s">
         <v>539</v>
       </c>
@@ -6314,9 +6357,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="35" spans="1:19" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
-      <c r="B35" s="173" t="s">
+      <c r="B35" s="172" t="s">
         <v>729</v>
       </c>
       <c r="C35" s="115" t="s">
@@ -6341,7 +6384,7 @@
     </row>
     <row r="36" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="27"/>
-      <c r="B36" s="173" t="s">
+      <c r="B36" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C36" s="115" t="s">
@@ -6366,7 +6409,7 @@
     </row>
     <row r="37" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
-      <c r="B37" s="173" t="s">
+      <c r="B37" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C37" s="115" t="s">
@@ -6389,9 +6432,11 @@
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
-      <c r="B38" s="46"/>
+      <c r="B38" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C38" s="115" t="s">
         <v>548</v>
       </c>
@@ -6412,9 +6457,11 @@
         <v>652</v>
       </c>
     </row>
-    <row r="39" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="179" t="s">
+        <v>726</v>
+      </c>
       <c r="C39" s="115" t="s">
         <v>553</v>
       </c>
@@ -6457,7 +6504,7 @@
     </row>
     <row r="41" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C41" s="115" t="s">
@@ -7223,7 +7270,7 @@
     </row>
     <row r="69" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="27"/>
-      <c r="B69" s="173" t="s">
+      <c r="B69" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C69" s="115" t="s">
@@ -7257,7 +7304,7 @@
     </row>
     <row r="70" spans="1:19" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="27"/>
-      <c r="B70" s="173" t="s">
+      <c r="B70" s="172" t="s">
         <v>737</v>
       </c>
       <c r="C70" s="115" t="s">
@@ -7280,7 +7327,7 @@
     </row>
     <row r="71" spans="1:19" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
-      <c r="B71" s="173" t="s">
+      <c r="B71" s="172" t="s">
         <v>737</v>
       </c>
       <c r="C71" s="115" t="s">
@@ -7302,7 +7349,7 @@
     </row>
     <row r="72" spans="1:19" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="27"/>
-      <c r="B72" s="173" t="s">
+      <c r="B72" s="172" t="s">
         <v>737</v>
       </c>
       <c r="C72" s="115" t="s">
@@ -7452,7 +7499,7 @@
         <v>481</v>
       </c>
       <c r="D77"/>
-      <c r="E77" s="170" t="s">
+      <c r="E77" s="169" t="s">
         <v>742</v>
       </c>
       <c r="F77" s="85">
@@ -7491,7 +7538,7 @@
       <c r="A79" s="104" t="s">
         <v>429</v>
       </c>
-      <c r="B79" s="169"/>
+      <c r="B79" s="168"/>
       <c r="C79" s="105"/>
       <c r="D79" s="105"/>
       <c r="F79" s="86"/>
@@ -7500,7 +7547,7 @@
     </row>
     <row r="80" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
-      <c r="B80" s="173" t="s">
+      <c r="B80" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C80" s="116" t="s">
@@ -7525,7 +7572,7 @@
     </row>
     <row r="81" spans="1:21" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
-      <c r="B81" s="173" t="s">
+      <c r="B81" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C81" s="115" t="s">
@@ -7549,7 +7596,7 @@
       </c>
     </row>
     <row r="82" spans="1:21" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
-      <c r="B82" s="173" t="s">
+      <c r="B82" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C82" s="113" t="s">
@@ -7570,12 +7617,12 @@
       <c r="S82" s="38"/>
     </row>
     <row r="83" spans="1:21" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="B83" s="173" t="s">
+      <c r="B83" s="172" t="s">
         <v>730</v>
       </c>
       <c r="C83" s="113"/>
       <c r="D83" s="68"/>
-      <c r="E83" s="166" t="s">
+      <c r="E83" s="165" t="s">
         <v>728</v>
       </c>
       <c r="F83" s="85">
@@ -7597,7 +7644,7 @@
       <c r="S83" s="38"/>
     </row>
     <row r="84" spans="1:21" ht="17" x14ac:dyDescent="0.15">
-      <c r="B84" s="173" t="s">
+      <c r="B84" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C84" s="69"/>
@@ -7614,7 +7661,7 @@
     </row>
     <row r="85" spans="1:21" s="123" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A85" s="121"/>
-      <c r="B85" s="171"/>
+      <c r="B85" s="170"/>
       <c r="C85" s="122" t="s">
         <v>615</v>
       </c>
@@ -7629,7 +7676,7 @@
       <c r="A86" s="133" t="s">
         <v>268</v>
       </c>
-      <c r="B86" s="178" t="s">
+      <c r="B86" s="177" t="s">
         <v>726</v>
       </c>
       <c r="C86" s="123"/>
@@ -7684,7 +7731,7 @@
       <c r="A87" s="133" t="s">
         <v>619</v>
       </c>
-      <c r="B87" s="178" t="s">
+      <c r="B87" s="177" t="s">
         <v>726</v>
       </c>
       <c r="C87" s="122"/>
@@ -7719,7 +7766,7 @@
       <c r="A88" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="B88" s="178" t="s">
+      <c r="B88" s="177" t="s">
         <v>726</v>
       </c>
       <c r="C88" s="123"/>
@@ -8123,7 +8170,7 @@
       <c r="A104" s="98">
         <v>307</v>
       </c>
-      <c r="B104" s="172"/>
+      <c r="B104" s="171"/>
       <c r="C104" s="92" t="s">
         <v>283</v>
       </c>
@@ -8334,7 +8381,7 @@
   <mergeCells count="1">
     <mergeCell ref="Q7:S7"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1" xr:uid="{B3564F39-BDFC-024B-80FC-3B84D3B19B84}"/>
     <hyperlink ref="I19" r:id="rId2" xr:uid="{441A81FD-7638-214B-A580-55099579328C}"/>
@@ -8427,11 +8474,11 @@
       <c r="B3" s="29"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="Q3" s="165" t="s">
+      <c r="Q3" s="178" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -8478,7 +8525,7 @@
       <c r="A6" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="169" t="s">
         <v>724</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -8534,7 +8581,7 @@
       <c r="A7" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="175"/>
+      <c r="B7" s="174"/>
       <c r="E7" s="59"/>
       <c r="H7" s="60"/>
       <c r="I7" s="60"/>
@@ -8543,7 +8590,7 @@
     </row>
     <row r="8" spans="1:19" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="58"/>
-      <c r="B8" s="174"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="82" t="s">
         <v>688</v>
       </c>
@@ -8698,13 +8745,13 @@
       <c r="S15" s="28"/>
     </row>
     <row r="16" spans="1:19" s="65" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="176" t="s">
         <v>726</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="176" t="s">
         <v>749</v>
       </c>
       <c r="F16" s="66">
@@ -8905,10 +8952,10 @@
     </row>
     <row r="23" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B23" s="46"/>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="166" t="s">
         <v>740</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="166" t="s">
         <v>746</v>
       </c>
       <c r="E23" s="28"/>
@@ -8933,19 +8980,19 @@
     </row>
     <row r="24" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B24" s="46"/>
-      <c r="C24" s="167" t="s">
+      <c r="C24" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D24" s="167" t="s">
+      <c r="D24" s="166" t="s">
         <v>738</v>
       </c>
-      <c r="E24" s="170" t="s">
+      <c r="E24" s="169" t="s">
         <v>745</v>
       </c>
       <c r="F24" s="27">
         <v>2</v>
       </c>
-      <c r="G24" s="170" t="s">
+      <c r="G24" s="169" t="s">
         <v>199</v>
       </c>
       <c r="H24" s="92"/>
@@ -9173,7 +9220,7 @@
     </row>
     <row r="44" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="173" t="s">
+      <c r="B44" s="172" t="s">
         <v>726</v>
       </c>
       <c r="C44" s="115" t="s">
@@ -9319,10 +9366,10 @@
       <c r="B62" s="46"/>
     </row>
     <row r="63" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="167" t="s">
+      <c r="A63" s="166" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="173"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="115"/>
       <c r="F63" s="110"/>
       <c r="G63" s="28"/>
@@ -9330,7 +9377,7 @@
     </row>
     <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.15">
       <c r="B64" s="46"/>
-      <c r="C64" s="170" t="s">
+      <c r="C64" s="169" t="s">
         <v>743</v>
       </c>
       <c r="D64" s="26" t="s">
@@ -9612,7 +9659,7 @@
     </row>
     <row r="76" spans="1:10" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
-      <c r="B76" s="173" t="s">
+      <c r="B76" s="172" t="s">
         <v>748</v>
       </c>
       <c r="C76" s="115" t="s">

--- a/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
+++ b/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Manufacturing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4725F46F-5F46-4446-AD51-20437620F0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C92D1-D7DA-6C43-ADB0-0E3B20DC4679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34660" windowHeight="22680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3077,14 +3077,14 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3582,11 +3582,11 @@
         <v>172</v>
       </c>
       <c r="C3" s="27"/>
-      <c r="P3" s="178" t="s">
+      <c r="P3" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -5551,10 +5551,10 @@
   <dimension ref="A1:AF121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -5630,11 +5630,11 @@
       <c r="B6" s="92"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Q7" s="178" t="s">
+      <c r="Q7" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
     </row>
     <row r="8" spans="1:32" s="83" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="83" t="s">
@@ -5877,7 +5877,7 @@
     </row>
     <row r="15" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C15" s="115" t="s">
@@ -5927,7 +5927,7 @@
     </row>
     <row r="17" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
-      <c r="B17" s="179" t="s">
+      <c r="B17" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C17" s="116" t="s">
@@ -5952,7 +5952,7 @@
     </row>
     <row r="18" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C18" s="116" t="s">
@@ -6075,7 +6075,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="172" t="s">
         <v>726</v>
@@ -6103,7 +6103,7 @@
     <row r="24" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
       <c r="B24" s="172" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C24" s="115" t="s">
         <v>523</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="29" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="179" t="s">
         <v>726</v>
       </c>
       <c r="C29" s="116" t="s">
@@ -6244,7 +6244,7 @@
     </row>
     <row r="30" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
-      <c r="B30" s="179" t="s">
+      <c r="B30" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C30" s="115" t="s">
@@ -6267,7 +6267,7 @@
     </row>
     <row r="31" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C31" s="116" t="s">
@@ -6313,7 +6313,7 @@
     </row>
     <row r="33" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C33" s="115" t="s">
@@ -6336,7 +6336,7 @@
     </row>
     <row r="34" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C34" s="115" t="s">
@@ -6434,7 +6434,7 @@
     </row>
     <row r="38" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C38" s="115" t="s">
@@ -6459,7 +6459,7 @@
     </row>
     <row r="39" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="178" t="s">
         <v>726</v>
       </c>
       <c r="C39" s="115" t="s">
@@ -8474,11 +8474,11 @@
       <c r="B3" s="29"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="Q3" s="178" t="s">
+      <c r="Q3" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>

--- a/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
+++ b/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Manufacturing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C92D1-D7DA-6C43-ADB0-0E3B20DC4679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46265A-1953-0141-A174-6D0693D22543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34660" windowHeight="22680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="34660" windowHeight="22680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU List" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Concept Estimate" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Core Board V0.4'!$A$6:$N$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Core Board V0.4'!$A$6:$O$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'User Supplied Options'!$A$6:$O$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="751">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -569,9 +569,6 @@
   </si>
   <si>
     <t>ASSEMBLY COMPLETED</t>
-  </si>
-  <si>
-    <t>COMPONENT VALIDATED (GOOD OR MAKE NOTES IF IT'S NOT)</t>
   </si>
   <si>
     <t>Before V0.3 first proto assemble</t>
@@ -1849,9 +1846,6 @@
     <t>https://www.digikey.com/product-detail/en/tdk-corporation/C3216X5R1A686M160AC/445-14673-1-ND/3956339</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/united-chemi-con/EMHL100ARA471MHA0G/565-EMHL100ARA471MHA0GCT-ND/10487084</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/on-semiconductor/NVTR4503NT1G/NVTR4503NT1GOSCT-ND/3487658</t>
   </si>
   <si>
@@ -1964,12 +1958,6 @@
   </si>
   <si>
     <t xml:space="preserve">R5, R3, R10, R44, R45, R2, R49, R34, R39, R40, R35, R1, R48, </t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805JT33K0/1757818?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvgDM8EEkhoseQiRAwArGUmMQrdlz5DR%2BMADYpMuTnxFIpcTXEw6m7ZE48BwseBoU60aSgwLRWsQMgZmNhdddwNlShVTAPlLJXFxAAIAawB5AAsAW0xwrUiQAFV%2BXhZs5ABZbFRMAFdubFiAWgS-M0CFK1I4J1KOuG6oHia%2BpQT8Rwj2DoAWRNlelJCwCiMwOZKFkU8TP14AE3Z2sDIIeZcQfBYATyY2l0akA6A</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805JT11K0/1711858?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvgDM8EEkhoseQiRAwArGUmMQrdlz5DR%2BMADYpMuTnxFIpcTXEw6m7ZE48BwseBoU60aSgwLRWsQMgZmNhdddwNlShVTAPlLJTAwAAIAawB5AAsAW0xwrUiQAFV%2BXhZs5ABZbFRMAFdubFiAWgS-M0CFK1I4J1KOuG6oHia%2BpQT8Rwj2DoAWRNlelJCwCiMwOZKFkU8TP14AE3Z2sDIIeZcQfBYATyY2l0akA6A</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/c-k/JS102011SAQN/1640114</t>
@@ -2304,6 +2292,21 @@
   </si>
   <si>
     <t>Two kits for Itsy Bits, for Teensy 3.2 Sockets. Requires cutting down two of the long ones.</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/united-chemi-con/EMZR100ADA471MF80G/565-4318-1-ND/5824833</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0805FT11K0/RMCF0805FT11K0CT-ND/1942438</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0805FT33K0/RMCF0805FT33K0CT-ND/1942464</t>
+  </si>
+  <si>
+    <t>OK, updated to 1%</t>
+  </si>
+  <si>
+    <t>Back ordered 329. Change to 303, has much higher inventory.</t>
   </si>
 </sst>
 </file>
@@ -2315,10 +2318,24 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2603,37 +2620,37 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2643,448 +2660,463 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3419,27 +3451,27 @@
   <sheetData>
     <row r="2" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C2" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="103" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="103" t="s">
-        <v>405</v>
-      </c>
       <c r="E2" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>426</v>
-      </c>
-      <c r="F2" s="103" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B3" s="96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3" s="1">
         <v>150</v>
@@ -3447,10 +3479,10 @@
     </row>
     <row r="4" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B4" s="96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
@@ -3458,10 +3490,10 @@
     </row>
     <row r="5" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B5" s="96" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E5" s="1">
         <v>130</v>
@@ -3469,10 +3501,10 @@
     </row>
     <row r="8" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="96" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3480,10 +3512,10 @@
     </row>
     <row r="9" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -3491,42 +3523,42 @@
     </row>
     <row r="13" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="96" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="96" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="96" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="96" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3536,2011 +3568,2036 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5DBFB5-E21A-7B4B-815F-748A526FD280}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A50" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="28"/>
-    <col min="2" max="2" width="20.1640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="28" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="28" style="28" customWidth="1"/>
-    <col min="11" max="12" width="18.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" style="28" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="28" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="28" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="28"/>
-    <col min="18" max="18" width="9.1640625" style="28" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="28"/>
+    <col min="2" max="2" width="12.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="28" style="28" customWidth="1"/>
+    <col min="12" max="13" width="18.5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="28"/>
+    <col min="19" max="19" width="9.1640625" style="28" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="91" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+      <c r="B2" s="91"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>44065</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="P3" s="180" t="s">
+      <c r="D3" s="27"/>
+      <c r="Q3" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-    </row>
-    <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.15">
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+    </row>
+    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
-      <c r="B4" s="27"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="27"/>
-      <c r="K4" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="L4" s="38" t="s">
+      <c r="D4" s="27"/>
+      <c r="L4" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="M4" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
-    </row>
-    <row r="5" spans="1:18" ht="34" x14ac:dyDescent="0.15">
-      <c r="B5" s="38" t="s">
+      <c r="S4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" ht="34" x14ac:dyDescent="0.15">
+      <c r="C5" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
-      <c r="J5" s="45" t="s">
+      <c r="H5" s="38"/>
+      <c r="K5" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="N5" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="K5" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="M5" s="45" t="s">
+      <c r="O5" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="34" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="N5" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="167" t="s">
+        <v>720</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="F6" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="H6" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="N6" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="O6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="N6" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="P6" s="28" t="s">
+      <c r="R6" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="S6" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="R6" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:19" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="104" t="s">
-        <v>717</v>
-      </c>
-      <c r="B7" s="105"/>
+        <v>713</v>
+      </c>
+      <c r="B7" s="104"/>
       <c r="C7" s="105"/>
       <c r="D7" s="105"/>
-      <c r="R7" s="39"/>
-    </row>
-    <row r="8" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="E7" s="105"/>
+      <c r="S7" s="39"/>
+    </row>
+    <row r="8" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="60">
         <v>1</v>
       </c>
-      <c r="B8" s="162" t="s">
-        <v>320</v>
-      </c>
+      <c r="B8" s="60"/>
       <c r="C8" s="162" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="E8" s="163">
+        <v>319</v>
+      </c>
+      <c r="D8" s="162" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="163">
         <v>4</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="G8" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="I8" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="J8" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="38">
-        <v>0</v>
-      </c>
       <c r="K8" s="38">
-        <f t="shared" ref="K8:K18" si="0">IF(J8&gt;E8,0,E8-J8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="38">
+        <f t="shared" ref="L8:L18" si="0">IF(K8&gt;F8,0,F8-K8)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="38">
+      <c r="M8" s="38">
         <v>10</v>
       </c>
-      <c r="M8" s="38">
-        <f t="shared" ref="M8" si="1">L8-E8</f>
+      <c r="N8" s="38">
+        <f t="shared" ref="N8" si="1">M8-F8</f>
         <v>6</v>
       </c>
-      <c r="N8" s="38">
-        <f t="shared" ref="N8" si="2">(4*E8)-M8</f>
+      <c r="O8" s="38">
+        <f t="shared" ref="O8" si="2">(4*F8)-N8</f>
         <v>10</v>
       </c>
-      <c r="R8" s="39" t="e">
-        <f t="shared" ref="R8:R14" si="3">Q8/P8</f>
+      <c r="S8" s="39" t="e">
+        <f t="shared" ref="S8:S14" si="3">R8/Q8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="38">
         <v>2</v>
       </c>
-      <c r="B9" s="164" t="s">
-        <v>310</v>
-      </c>
       <c r="C9" s="164" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J9" s="38">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="K9" s="38">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L9" s="38">
-        <v>1</v>
-      </c>
       <c r="M9" s="38">
-        <f>L9-E9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="38">
-        <f>(4*E9)-M9</f>
+        <f>M9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="38">
+        <f>(4*F9)-N9</f>
         <v>4</v>
       </c>
-      <c r="R9" s="39" t="e">
+      <c r="S9" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>3</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="38">
-        <v>1</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="I10" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="J10" s="38">
-        <v>0</v>
+      <c r="C10" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>201</v>
       </c>
       <c r="K10" s="38">
+        <v>0</v>
+      </c>
+      <c r="L10" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L10" s="38">
-        <v>1</v>
-      </c>
       <c r="M10" s="38">
-        <f t="shared" ref="M10:M13" si="4">L10-E10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="38">
-        <f t="shared" ref="N10:N13" si="5">(4*E10)-M10</f>
+        <f t="shared" ref="N10:N13" si="4">M10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="38">
+        <f t="shared" ref="O10:O13" si="5">(4*F10)-N10</f>
         <v>4</v>
       </c>
-      <c r="R10" s="39" t="e">
+      <c r="S10" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="38">
         <v>4</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>199</v>
+      <c r="C11" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>332</v>
+        <v>198</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="J11" s="38">
-        <v>0</v>
+        <v>331</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>201</v>
       </c>
       <c r="K11" s="38">
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L11" s="38">
-        <v>1</v>
-      </c>
       <c r="M11" s="38">
+        <v>1</v>
+      </c>
+      <c r="N11" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N11" s="38">
+      <c r="O11" s="38">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="R11" s="39" t="e">
+      <c r="S11" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
         <v>5</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="38">
-        <v>1</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>199</v>
+      <c r="C12" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="38">
+        <v>1</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>333</v>
+        <v>198</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="J12" s="38">
-        <v>0</v>
+        <v>332</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>201</v>
       </c>
       <c r="K12" s="38">
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L12" s="38">
-        <v>1</v>
-      </c>
       <c r="M12" s="38">
+        <v>1</v>
+      </c>
+      <c r="N12" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N12" s="38">
+      <c r="O12" s="38">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="R12" s="39" t="e">
+      <c r="S12" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
         <v>6</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>199</v>
+      <c r="C13" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="38">
+        <v>1</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>334</v>
+        <v>198</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="J13" s="38">
-        <v>0</v>
+        <v>333</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>201</v>
       </c>
       <c r="K13" s="38">
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L13" s="38">
-        <v>1</v>
-      </c>
       <c r="M13" s="38">
+        <v>1</v>
+      </c>
+      <c r="N13" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N13" s="38">
+      <c r="O13" s="38">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="R13" s="39" t="e">
+      <c r="S13" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
         <v>7</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="59" t="s">
+      <c r="C14" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="38">
+        <v>1</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>335</v>
-      </c>
       <c r="I14" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0</v>
+        <v>334</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>201</v>
       </c>
       <c r="K14" s="38">
+        <v>0</v>
+      </c>
+      <c r="L14" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L14" s="38">
-        <v>1</v>
-      </c>
       <c r="M14" s="38">
-        <f>L14-E14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="38">
-        <f>(4*E14)-M14</f>
+        <f>M14-F14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="38">
+        <f>(4*F14)-N14</f>
         <v>4</v>
       </c>
-      <c r="R14" s="39" t="e">
+      <c r="S14" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>8</v>
       </c>
-      <c r="B15" s="159" t="s">
-        <v>722</v>
-      </c>
       <c r="C15" s="159" t="s">
+        <v>718</v>
+      </c>
+      <c r="D15" s="159" t="s">
+        <v>715</v>
+      </c>
+      <c r="E15" s="161" t="s">
         <v>719</v>
       </c>
-      <c r="D15" s="161" t="s">
-        <v>723</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="160" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="36"/>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="160" t="s">
+        <v>198</v>
+      </c>
       <c r="H15" s="36"/>
-      <c r="K15" s="35">
+      <c r="I15" s="36"/>
+      <c r="L15" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="35">
-        <f>J15+K15</f>
-        <v>0</v>
-      </c>
       <c r="M15" s="35">
-        <f>L15-E15</f>
+        <f>K15+L15</f>
         <v>0</v>
       </c>
       <c r="N15" s="35">
-        <f>(4*E15)-M15</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="28"/>
+        <f>M15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="35">
+        <f>(4*F15)-N15</f>
+        <v>0</v>
+      </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:18" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="S15" s="28"/>
+    </row>
+    <row r="16" spans="1:19" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>9</v>
       </c>
-      <c r="B16" s="159" t="s">
-        <v>227</v>
-      </c>
       <c r="C16" s="159" t="s">
-        <v>720</v>
-      </c>
-      <c r="D16" s="161" t="s">
-        <v>723</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="160" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="36"/>
+        <v>226</v>
+      </c>
+      <c r="D16" s="159" t="s">
+        <v>716</v>
+      </c>
+      <c r="E16" s="161" t="s">
+        <v>719</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="160" t="s">
+        <v>198</v>
+      </c>
       <c r="H16" s="36"/>
-      <c r="K16" s="35">
+      <c r="I16" s="36"/>
+      <c r="L16" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="35">
-        <f>J16+K16</f>
-        <v>0</v>
-      </c>
       <c r="M16" s="35">
-        <f>L16-E16</f>
+        <f>K16+L16</f>
         <v>0</v>
       </c>
       <c r="N16" s="35">
-        <f>(4*E16)-M16</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="28"/>
+        <f>M16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="35">
+        <f>(4*F16)-N16</f>
+        <v>0</v>
+      </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
-    </row>
-    <row r="17" spans="1:18" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="1:19" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>10</v>
       </c>
-      <c r="B17" s="159" t="s">
-        <v>718</v>
-      </c>
       <c r="C17" s="159" t="s">
-        <v>721</v>
-      </c>
-      <c r="D17" s="161" t="s">
-        <v>723</v>
-      </c>
-      <c r="E17" s="35">
-        <v>0</v>
-      </c>
-      <c r="F17" s="160" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="36"/>
+        <v>714</v>
+      </c>
+      <c r="D17" s="159" t="s">
+        <v>717</v>
+      </c>
+      <c r="E17" s="161" t="s">
+        <v>719</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="160" t="s">
+        <v>198</v>
+      </c>
       <c r="H17" s="36"/>
-      <c r="K17" s="35">
+      <c r="I17" s="36"/>
+      <c r="L17" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="35">
-        <f>J17+K17</f>
-        <v>0</v>
-      </c>
       <c r="M17" s="35">
-        <f>L17-E17</f>
+        <f>K17+L17</f>
         <v>0</v>
       </c>
       <c r="N17" s="35">
-        <f>(4*E17)-M17</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="28"/>
+        <f>M17-F17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="35">
+        <f>(4*F17)-N17</f>
+        <v>0</v>
+      </c>
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
-    </row>
-    <row r="18" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="36"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="36"/>
+      <c r="S17" s="28"/>
+    </row>
+    <row r="18" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="36"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="36"/>
-      <c r="K18" s="35">
+      <c r="I18" s="36"/>
+      <c r="L18" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="62"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="36"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="36"/>
+      <c r="S18" s="28"/>
+    </row>
+    <row r="19" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="62"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="36"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="36"/>
-      <c r="P19" s="28"/>
+      <c r="I19" s="36"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="28"/>
-    </row>
-    <row r="20" spans="1:18" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" spans="1:19" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="57"/>
-      <c r="D20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="59"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="60"/>
-      <c r="R20" s="39"/>
-    </row>
-    <row r="21" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="J20" s="60"/>
+      <c r="S20" s="39"/>
+    </row>
+    <row r="21" spans="1:19" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="104" t="s">
-        <v>430</v>
-      </c>
-      <c r="B21" s="105"/>
+        <v>429</v>
+      </c>
+      <c r="B21" s="104"/>
       <c r="C21" s="105"/>
       <c r="D21" s="105"/>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="E21" s="105"/>
+      <c r="S21" s="39"/>
+    </row>
+    <row r="22" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="28">
         <v>0</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="C22" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="D22" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" s="46">
+        <v>1</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="28">
+        <v>0</v>
+      </c>
+      <c r="L22" s="46">
+        <v>10</v>
+      </c>
+      <c r="N22" s="28">
+        <f>M22-F22</f>
+        <v>-1</v>
+      </c>
+      <c r="O22" s="28">
+        <f>(4*F22)-N22</f>
+        <v>5</v>
+      </c>
+      <c r="S22" s="32" t="e">
+        <f t="shared" ref="S22:S29" si="6">R22/Q22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="A23" s="45">
+        <v>1</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="D22" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="46">
-        <v>1</v>
-      </c>
-      <c r="F22" s="46" t="s">
+      <c r="E23" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F23" s="48">
+        <v>4</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J22" s="28">
-        <v>0</v>
-      </c>
-      <c r="K22" s="46">
+      <c r="I23" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="28">
+        <v>0</v>
+      </c>
+      <c r="L23" s="46">
+        <f t="shared" ref="L23:L32" si="7">IF(K23&gt;F23,0,F23-K23)</f>
+        <v>4</v>
+      </c>
+      <c r="M23" s="38">
         <v>10</v>
       </c>
-      <c r="M22" s="28">
-        <f>L22-E22</f>
-        <v>-1</v>
-      </c>
-      <c r="N22" s="28">
-        <f>(4*E22)-M22</f>
-        <v>5</v>
-      </c>
-      <c r="R22" s="32" t="e">
-        <f t="shared" ref="R22:R29" si="6">Q22/P22</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="45">
-        <v>1</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="E23" s="48">
-        <v>4</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J23" s="28">
-        <v>0</v>
-      </c>
-      <c r="K23" s="46">
-        <f t="shared" ref="K23:K32" si="7">IF(J23&gt;E23,0,E23-J23)</f>
-        <v>4</v>
-      </c>
-      <c r="L23" s="38">
+      <c r="N23" s="28">
+        <f t="shared" ref="N23:N28" si="8">M23-F23</f>
+        <v>6</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" ref="O23:O28" si="9">(4*F23)-N23</f>
         <v>10</v>
       </c>
-      <c r="M23" s="28">
-        <f t="shared" ref="M23:M28" si="8">L23-E23</f>
-        <v>6</v>
-      </c>
-      <c r="N23" s="28">
-        <f t="shared" ref="N23:N28" si="9">(4*E23)-M23</f>
-        <v>10</v>
-      </c>
-      <c r="R23" s="32" t="e">
+      <c r="S23" s="32" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="28">
         <v>2</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>310</v>
-      </c>
       <c r="C24" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="E24" s="46">
-        <v>1</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="46">
+        <v>1</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>198</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J24" s="28">
-        <v>0</v>
-      </c>
-      <c r="K24" s="46">
+        <v>305</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="28">
+        <v>0</v>
+      </c>
+      <c r="L24" s="46">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L24" s="38">
-        <v>1</v>
-      </c>
-      <c r="M24" s="28">
-        <f>L24-E24</f>
-        <v>0</v>
+      <c r="M24" s="38">
+        <v>1</v>
       </c>
       <c r="N24" s="28">
-        <f>(4*E24)-M24</f>
+        <f>M24-F24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="28">
+        <f>(4*F24)-N24</f>
         <v>4</v>
       </c>
-      <c r="R24" s="32" t="e">
+      <c r="S24" s="32" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="28">
         <v>9</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="E25" s="46">
-        <v>1</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="J25" s="28">
-        <v>0</v>
-      </c>
-      <c r="K25" s="46">
+      <c r="C25" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="46">
+        <v>1</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="28">
+        <v>0</v>
+      </c>
+      <c r="L25" s="46">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L25" s="28">
-        <v>1</v>
-      </c>
       <c r="M25" s="28">
+        <v>1</v>
+      </c>
+      <c r="N25" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N25" s="28">
+      <c r="O25" s="28">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="R25" s="32" t="e">
+      <c r="S25" s="32" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="28">
         <v>10</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" s="46">
-        <v>1</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>199</v>
+      <c r="C26" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="46">
+        <v>1</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>332</v>
+        <v>198</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>223</v>
       </c>
       <c r="I26" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="J26" s="28">
-        <v>0</v>
-      </c>
-      <c r="K26" s="46">
+        <v>331</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="28">
+        <v>0</v>
+      </c>
+      <c r="L26" s="46">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L26" s="28">
-        <v>1</v>
-      </c>
       <c r="M26" s="28">
+        <v>1</v>
+      </c>
+      <c r="N26" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N26" s="28">
+      <c r="O26" s="28">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="R26" s="32" t="e">
+      <c r="S26" s="32" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="28">
         <v>11</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="E27" s="46">
-        <v>1</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>199</v>
+      <c r="C27" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="46">
+        <v>1</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>333</v>
+        <v>198</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>224</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="J27" s="28">
-        <v>0</v>
-      </c>
-      <c r="K27" s="46">
+        <v>332</v>
+      </c>
+      <c r="J27" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="28">
+        <v>0</v>
+      </c>
+      <c r="L27" s="46">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L27" s="28">
-        <v>1</v>
-      </c>
       <c r="M27" s="28">
+        <v>1</v>
+      </c>
+      <c r="N27" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N27" s="28">
+      <c r="O27" s="28">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="R27" s="32" t="e">
+      <c r="S27" s="32" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="28">
         <v>12</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="E28" s="46">
-        <v>1</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>199</v>
+      <c r="C28" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F28" s="46">
+        <v>1</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>334</v>
+        <v>198</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>225</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="J28" s="28">
-        <v>0</v>
-      </c>
-      <c r="K28" s="46">
+        <v>333</v>
+      </c>
+      <c r="J28" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="46">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L28" s="28">
-        <v>1</v>
-      </c>
       <c r="M28" s="28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N28" s="28">
+      <c r="O28" s="28">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="R28" s="32" t="e">
+      <c r="S28" s="32" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="83" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="28">
         <v>13</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="D29" s="51" t="s">
+      <c r="B29" s="185" t="s">
+        <v>750</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="46">
+        <v>1</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="E29" s="46">
-        <v>1</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>335</v>
-      </c>
       <c r="I29" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="J29" s="28">
-        <v>0</v>
-      </c>
-      <c r="K29" s="46">
+        <v>334</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="28">
+        <v>0</v>
+      </c>
+      <c r="L29" s="46">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L29" s="28">
-        <v>1</v>
-      </c>
       <c r="M29" s="28">
-        <f>L29-E29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="28">
-        <f>(4*E29)-M29</f>
+        <f>M29-F29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="28">
+        <f>(4*F29)-N29</f>
         <v>4</v>
       </c>
-      <c r="R29" s="32" t="e">
+      <c r="S29" s="32" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="36"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="36"/>
+    <row r="30" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="36"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="36"/>
-      <c r="K30" s="35">
+      <c r="I30" s="36"/>
+      <c r="L30" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L30" s="35">
-        <f>J30+K30</f>
-        <v>0</v>
-      </c>
       <c r="M30" s="35">
-        <f>L30-E30</f>
+        <f>K30+L30</f>
         <v>0</v>
       </c>
       <c r="N30" s="35">
-        <f>(4*E30)-M30</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="28"/>
+        <f>M30-F30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="35">
+        <f>(4*F30)-N30</f>
+        <v>0</v>
+      </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="28"/>
-    </row>
-    <row r="31" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="36"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="36"/>
+      <c r="S30" s="28"/>
+    </row>
+    <row r="31" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="36"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="36"/>
-      <c r="K31" s="35">
+      <c r="I31" s="36"/>
+      <c r="L31" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L31" s="35">
-        <f>J31+K31</f>
-        <v>0</v>
-      </c>
       <c r="M31" s="35">
-        <f>L31-E31</f>
+        <f>K31+L31</f>
         <v>0</v>
       </c>
       <c r="N31" s="35">
-        <f>(4*E31)-M31</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="28"/>
+        <f>M31-F31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="35">
+        <f>(4*F31)-N31</f>
+        <v>0</v>
+      </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="28"/>
-    </row>
-    <row r="32" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="36"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="36"/>
+      <c r="S31" s="28"/>
+    </row>
+    <row r="32" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="36"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="36"/>
-      <c r="K32" s="35">
+      <c r="I32" s="36"/>
+      <c r="L32" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L32" s="35">
-        <f>J32+K32</f>
-        <v>0</v>
-      </c>
       <c r="M32" s="35">
-        <f>L32-E32</f>
+        <f>K32+L32</f>
         <v>0</v>
       </c>
       <c r="N32" s="35">
-        <f>(4*E32)-M32</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="28"/>
+        <f>M32-F32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="35">
+        <f>(4*F32)-N32</f>
+        <v>0</v>
+      </c>
       <c r="Q32" s="28"/>
       <c r="R32" s="28"/>
-    </row>
-    <row r="33" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="36"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="36"/>
+      <c r="S32" s="28"/>
+    </row>
+    <row r="33" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="36"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="36"/>
-      <c r="P33" s="28"/>
+      <c r="I33" s="36"/>
       <c r="Q33" s="28"/>
       <c r="R33" s="28"/>
-    </row>
-    <row r="34" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="36"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="36"/>
+      <c r="S33" s="28"/>
+    </row>
+    <row r="34" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="36"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="36"/>
-      <c r="P34" s="28"/>
+      <c r="I34" s="36"/>
       <c r="Q34" s="28"/>
       <c r="R34" s="28"/>
-    </row>
-    <row r="35" spans="1:18" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="S34" s="28"/>
+    </row>
+    <row r="35" spans="1:19" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="59"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="60"/>
-      <c r="R35" s="39"/>
-    </row>
-    <row r="36" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="62"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="36"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="36"/>
+      <c r="J35" s="60"/>
+      <c r="S35" s="39"/>
+    </row>
+    <row r="36" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="62"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="36"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="36"/>
-      <c r="P36" s="28"/>
+      <c r="I36" s="36"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="28"/>
-    </row>
-    <row r="37" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="S36" s="28"/>
+    </row>
+    <row r="37" spans="1:19" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A37" s="104" t="s">
-        <v>431</v>
-      </c>
-      <c r="B37" s="105"/>
+        <v>430</v>
+      </c>
+      <c r="B37" s="104"/>
       <c r="C37" s="105"/>
       <c r="D37" s="105"/>
-      <c r="R37" s="39"/>
-    </row>
-    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="E37" s="105"/>
+      <c r="S37" s="39"/>
+    </row>
+    <row r="38" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="E38" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="B38" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="D38" s="47" t="s">
+      <c r="F38" s="46">
+        <v>0</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="E38" s="46">
-        <v>0</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="47" t="s">
+      <c r="J38" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="L38" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="J38" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="K38" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52" t="s">
-        <v>324</v>
-      </c>
+      <c r="M38" s="52"/>
       <c r="N38" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="R38" s="32"/>
-    </row>
-    <row r="39" spans="1:18" ht="68" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+      <c r="O38" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="S38" s="32"/>
+    </row>
+    <row r="39" spans="1:19" ht="68" x14ac:dyDescent="0.15">
       <c r="A39" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="150" t="s">
+        <v>354</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39" s="46">
+        <v>2</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="K39" s="28">
+        <v>0</v>
+      </c>
+      <c r="L39" s="53">
+        <f t="shared" ref="L39:L44" si="10">IF(K39&gt;F39,0,F39-K39)</f>
+        <v>2</v>
+      </c>
+      <c r="N39" s="28">
+        <f>M39-F39</f>
+        <v>-2</v>
+      </c>
+      <c r="O39" s="28">
+        <f>(4*F39)-N39</f>
+        <v>10</v>
+      </c>
+      <c r="S39" s="32" t="e">
+        <f>R39/Q39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="30" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="A40" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" s="150" t="s">
+      <c r="B40" s="87"/>
+      <c r="C40" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="D39" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="E39" s="46">
-        <v>2</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="H39" s="47" t="s">
+      <c r="E40" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="F40" s="30">
+        <v>4</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="I40" s="87" t="s">
         <v>328</v>
       </c>
-      <c r="I39" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J39" s="28">
-        <v>0</v>
-      </c>
-      <c r="K39" s="53">
-        <f t="shared" ref="K39:K44" si="10">IF(J39&gt;E39,0,E39-J39)</f>
-        <v>2</v>
-      </c>
-      <c r="M39" s="28">
-        <f>L39-E39</f>
-        <v>-2</v>
-      </c>
-      <c r="N39" s="28">
-        <f>(4*E39)-M39</f>
-        <v>10</v>
-      </c>
-      <c r="R39" s="32" t="e">
-        <f>Q39/P39</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="30" customFormat="1" ht="34" x14ac:dyDescent="0.15">
-      <c r="A40" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="149" t="s">
-        <v>356</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="E40" s="30">
-        <v>4</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="G40" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="H40" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="I40" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" s="30">
-        <v>0</v>
+      <c r="J40" s="88" t="s">
+        <v>201</v>
       </c>
       <c r="K40" s="30">
+        <v>0</v>
+      </c>
+      <c r="L40" s="30">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="L40" s="30">
+      <c r="M40" s="30">
         <v>4</v>
       </c>
-      <c r="M40" s="30">
-        <f>L40-E40</f>
-        <v>0</v>
-      </c>
       <c r="N40" s="30">
-        <f>(4*E40)-M40</f>
+        <f>M40-F40</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="30">
+        <f>(4*F40)-N40</f>
         <v>16</v>
       </c>
-      <c r="R40" s="89"/>
-    </row>
-    <row r="41" spans="1:18" s="46" customFormat="1" ht="34" x14ac:dyDescent="0.15">
+      <c r="S40" s="89"/>
+    </row>
+    <row r="41" spans="1:19" s="46" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="E41" s="46">
+        <v>342</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="F41" s="46">
         <v>4</v>
       </c>
-      <c r="F41" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="I41" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="H41" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="J41" s="46">
-        <v>0</v>
+      <c r="J41" s="47" t="s">
+        <v>217</v>
       </c>
       <c r="K41" s="46">
+        <v>0</v>
+      </c>
+      <c r="L41" s="46">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="L41" s="46">
+      <c r="M41" s="46">
         <v>4</v>
       </c>
-      <c r="M41" s="46">
-        <f t="shared" ref="M41:M46" si="11">L41-E41</f>
-        <v>0</v>
-      </c>
       <c r="N41" s="46">
-        <f t="shared" ref="N41:N46" si="12">(4*E41)-M41</f>
+        <f t="shared" ref="N41:N46" si="11">M41-F41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="46">
+        <f t="shared" ref="O41:O46" si="12">(4*F41)-N41</f>
         <v>16</v>
       </c>
-      <c r="R41" s="90"/>
-    </row>
-    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.15">
+      <c r="S41" s="90"/>
+    </row>
+    <row r="42" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="28">
         <v>15</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="C42" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="F42" s="46">
+        <v>1</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>345</v>
-      </c>
-      <c r="E42" s="46">
-        <v>1</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H42" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="I42" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="J42" s="28">
-        <v>1</v>
-      </c>
-      <c r="K42" s="53">
+      <c r="I42" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" s="28">
+        <v>1</v>
+      </c>
+      <c r="L42" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M42" s="28">
+      <c r="N42" s="28">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="N42" s="28">
+      <c r="O42" s="28">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="R42" s="32" t="e">
-        <f>Q42/P42</f>
+      <c r="S42" s="32" t="e">
+        <f>R42/Q42</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="85" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="85" x14ac:dyDescent="0.15">
       <c r="A43" s="28">
         <v>101</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>203</v>
-      </c>
       <c r="C43" s="46" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="D43" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="46">
         <v>70</v>
       </c>
-      <c r="F43" s="46" t="s">
-        <v>199</v>
-      </c>
       <c r="G43" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="H43" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="I43" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J43" s="28">
+      <c r="J43" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" s="28">
         <v>860</v>
       </c>
-      <c r="K43" s="53">
+      <c r="L43" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L43" s="28">
-        <f>J43+K43</f>
+      <c r="M43" s="28">
+        <f>K43+L43</f>
         <v>860</v>
       </c>
-      <c r="M43" s="28">
+      <c r="N43" s="28">
         <f t="shared" si="11"/>
         <v>790</v>
       </c>
-      <c r="N43" s="28">
+      <c r="O43" s="28">
         <f t="shared" si="12"/>
         <v>-510</v>
       </c>
-      <c r="R43" s="32" t="e">
-        <f>Q43/P43</f>
+      <c r="S43" s="32" t="e">
+        <f>R43/Q43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="102" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="102" x14ac:dyDescent="0.15">
       <c r="A44" s="28">
         <v>102</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="C44" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="E44" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="G44" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="F44" s="46" t="s">
+      <c r="H44" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="I44" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H44" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="I44" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J44" s="28">
+      <c r="J44" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="K44" s="28">
         <v>426.2</v>
       </c>
-      <c r="K44" s="53">
+      <c r="L44" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L44" s="28">
-        <f>J44+K44</f>
+      <c r="M44" s="28">
+        <f>K44+L44</f>
         <v>426.2</v>
       </c>
-      <c r="M44" s="28">
+      <c r="N44" s="28">
         <f t="shared" si="11"/>
         <v>425.4</v>
       </c>
-      <c r="N44" s="28">
+      <c r="O44" s="28">
         <f t="shared" si="12"/>
         <v>-422.2</v>
       </c>
-      <c r="P44" s="28">
+      <c r="Q44" s="28">
         <v>430</v>
       </c>
-      <c r="R44" s="32">
-        <f>Q44/P44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="85" x14ac:dyDescent="0.15">
+      <c r="S44" s="32">
+        <f>R44/Q44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="85" x14ac:dyDescent="0.15">
       <c r="A45" s="28">
         <v>103</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="C45" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="E45" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="G45" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="46">
-        <v>0.8</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="46" t="s">
+      <c r="H45" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="H45" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J45" s="33">
+      <c r="J45" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="K45" s="33">
         <v>100</v>
       </c>
-      <c r="K45" s="55">
-        <v>0</v>
-      </c>
-      <c r="L45" s="28">
-        <f>J45+K45</f>
+      <c r="L45" s="55">
+        <v>0</v>
+      </c>
+      <c r="M45" s="28">
+        <f>K45+L45</f>
         <v>100</v>
       </c>
-      <c r="M45" s="28">
+      <c r="N45" s="28">
         <f t="shared" si="11"/>
         <v>99.2</v>
       </c>
-      <c r="N45" s="28">
+      <c r="O45" s="28">
         <f t="shared" si="12"/>
         <v>-96</v>
       </c>
-      <c r="P45" s="28">
+      <c r="Q45" s="28">
         <v>100</v>
       </c>
-      <c r="Q45" s="34">
+      <c r="R45" s="34">
         <v>6.49</v>
       </c>
-      <c r="R45" s="32">
-        <f>Q45/P45</f>
+      <c r="S45" s="32">
+        <f>R45/Q45</f>
         <v>6.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="68" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="68" x14ac:dyDescent="0.15">
       <c r="A46" s="28">
         <v>104</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>206</v>
-      </c>
       <c r="C46" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="G46" s="46" t="s">
+      <c r="I46" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="H46" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="I46" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J46" s="33">
+      <c r="J46" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="K46" s="33">
         <v>747</v>
       </c>
-      <c r="K46" s="55">
-        <v>0</v>
-      </c>
-      <c r="L46" s="33">
-        <f>J46+K46</f>
+      <c r="L46" s="55">
+        <v>0</v>
+      </c>
+      <c r="M46" s="33">
+        <f>K46+L46</f>
         <v>747</v>
       </c>
-      <c r="M46" s="33">
+      <c r="N46" s="33">
         <f t="shared" si="11"/>
         <v>746.25</v>
       </c>
-      <c r="N46" s="33">
+      <c r="O46" s="33">
         <f t="shared" si="12"/>
         <v>-743.25</v>
       </c>
-      <c r="P46" s="28">
+      <c r="Q46" s="28">
         <v>747</v>
       </c>
-      <c r="Q46" s="34">
+      <c r="R46" s="34">
         <f>12.65+3.95+1.18</f>
         <v>17.78</v>
       </c>
-      <c r="R46" s="32">
-        <f>Q46/P46</f>
+      <c r="S46" s="32">
+        <f>R46/Q46</f>
         <v>2.3801874163319948E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="91" t="s">
-        <v>593</v>
-      </c>
-      <c r="B47" s="115"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="28"/>
-      <c r="H47" s="118"/>
-    </row>
-    <row r="48" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>592</v>
+      </c>
+      <c r="B47" s="91"/>
+      <c r="C47" s="115"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="28"/>
+      <c r="I47" s="118"/>
+    </row>
+    <row r="48" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="151" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>677</v>
-      </c>
-      <c r="E48" s="152">
+      <c r="B48" s="27"/>
+      <c r="C48" s="151" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>673</v>
+      </c>
+      <c r="F48" s="152">
         <v>2</v>
       </c>
-      <c r="F48" s="46"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="153" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G48" s="46"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="153" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="116" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" t="s">
-        <v>355</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="E49" s="110">
+      <c r="B49" s="27"/>
+      <c r="C49" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="F49" s="110">
         <v>4</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="119"/>
-    </row>
-    <row r="50" spans="1:18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G49" s="28"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="119"/>
+    </row>
+    <row r="50" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="148" t="s">
-        <v>675</v>
-      </c>
-      <c r="B50" s="116"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="119"/>
-    </row>
-    <row r="51" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C51" s="97" t="s">
-        <v>436</v>
-      </c>
-      <c r="J51" s="40"/>
+        <v>671</v>
+      </c>
+      <c r="B50" s="148"/>
+      <c r="C50" s="116"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="119"/>
+    </row>
+    <row r="51" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="D51" s="97" t="s">
+        <v>435</v>
+      </c>
       <c r="K51" s="40"/>
       <c r="L51" s="40"/>
       <c r="M51" s="40"/>
       <c r="N51" s="40"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="39"/>
-    </row>
-    <row r="52" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C52" s="97" t="s">
-        <v>433</v>
-      </c>
-      <c r="J52" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="39"/>
+    </row>
+    <row r="52" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="D52" s="97" t="s">
+        <v>432</v>
+      </c>
       <c r="K52" s="40"/>
       <c r="L52" s="40"/>
       <c r="M52" s="40"/>
       <c r="N52" s="40"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="39"/>
-    </row>
-    <row r="53" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C53" s="97" t="s">
-        <v>434</v>
-      </c>
-      <c r="J53" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="39"/>
+    </row>
+    <row r="53" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="D53" s="97" t="s">
+        <v>433</v>
+      </c>
       <c r="K53" s="40"/>
       <c r="L53" s="40"/>
       <c r="M53" s="40"/>
       <c r="N53" s="40"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="39"/>
-    </row>
-    <row r="54" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C54" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="J54" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="39"/>
+    </row>
+    <row r="54" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="D54" s="97" t="s">
+        <v>434</v>
+      </c>
       <c r="K54" s="40"/>
       <c r="L54" s="40"/>
       <c r="M54" s="40"/>
       <c r="N54" s="40"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="39"/>
-    </row>
-    <row r="55" spans="1:18" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="C55" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="J55" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="39"/>
+    </row>
+    <row r="55" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="D55" s="57" t="s">
+        <v>370</v>
+      </c>
       <c r="K55" s="40"/>
       <c r="L55" s="40"/>
       <c r="M55" s="40"/>
       <c r="N55" s="40"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="39"/>
-    </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="57"/>
-      <c r="C56" s="94" t="s">
-        <v>585</v>
-      </c>
-      <c r="J56" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="39"/>
+    </row>
+    <row r="56" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="57"/>
+      <c r="D56" s="94" t="s">
+        <v>584</v>
+      </c>
       <c r="K56" s="40"/>
       <c r="L56" s="40"/>
       <c r="M56" s="40"/>
       <c r="N56" s="40"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="39"/>
-    </row>
-    <row r="57" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="57"/>
-      <c r="J57" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="39"/>
+    </row>
+    <row r="57" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="57"/>
       <c r="K57" s="40"/>
       <c r="L57" s="40"/>
       <c r="M57" s="40"/>
       <c r="N57" s="40"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="39"/>
-    </row>
-    <row r="58" spans="1:18" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="O57" s="40"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="39"/>
+    </row>
+    <row r="58" spans="1:19" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A58" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="B58" s="105"/>
+        <v>431</v>
+      </c>
+      <c r="B58" s="104"/>
       <c r="C58" s="105"/>
-      <c r="D58" s="106"/>
-      <c r="G58" s="60"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="106"/>
       <c r="H58" s="60"/>
-      <c r="I58" s="59"/>
-      <c r="R58" s="39"/>
-    </row>
-    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="B59" s="92" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="24" x14ac:dyDescent="0.15">
+      <c r="I58" s="60"/>
+      <c r="J58" s="59"/>
+      <c r="S58" s="39"/>
+    </row>
+    <row r="59" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="C59" s="92" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="24" x14ac:dyDescent="0.15">
       <c r="A62" s="104" t="s">
-        <v>570</v>
-      </c>
-      <c r="B62" s="105"/>
+        <v>569</v>
+      </c>
+      <c r="B62" s="104"/>
       <c r="C62" s="105"/>
-      <c r="D62" s="106"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="D63" s="145" t="s">
-        <v>685</v>
-      </c>
-      <c r="E63" s="28">
+      <c r="D62" s="105"/>
+      <c r="E62" s="106"/>
+    </row>
+    <row r="63" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="E63" s="145" t="s">
+        <v>681</v>
+      </c>
+      <c r="F63" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="34" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="34" x14ac:dyDescent="0.15">
       <c r="A64" s="28">
         <v>14</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="C64" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F64" s="46">
+        <v>14</v>
+      </c>
+      <c r="G64" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="C64" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="D64" s="51" t="s">
-        <v>344</v>
-      </c>
-      <c r="E64" s="46">
+      <c r="I64" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J64" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="K64" s="28">
+        <v>0</v>
+      </c>
+      <c r="L64" s="46">
+        <f>IF(K64&gt;F64,0,F64-K64)</f>
         <v>14</v>
       </c>
-      <c r="F64" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="G64" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="H64" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="J64" s="28">
-        <v>0</v>
-      </c>
-      <c r="K64" s="46">
-        <f>IF(J64&gt;E64,0,E64-J64)</f>
-        <v>14</v>
-      </c>
-      <c r="L64" s="28">
+      <c r="M64" s="28">
         <v>4</v>
       </c>
-      <c r="M64" s="28">
-        <f>L64-E64</f>
+      <c r="N64" s="28">
+        <f>M64-F64</f>
         <v>-10</v>
       </c>
-      <c r="N64" s="28">
-        <f>(4*E64)-M64</f>
+      <c r="O64" s="28">
+        <f>(4*F64)-N64</f>
         <v>66</v>
       </c>
-      <c r="R64" s="32" t="e">
-        <f>Q64/P64</f>
+      <c r="S64" s="32" t="e">
+        <f>R64/Q64</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="34" x14ac:dyDescent="0.15">
       <c r="A65" s="45">
         <v>16</v>
       </c>
-      <c r="B65" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="C65" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="E65" s="48">
+      <c r="B65" s="45"/>
+      <c r="C65" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="F65" s="48">
         <v>14</v>
       </c>
-      <c r="F65" s="46" t="s">
+      <c r="G65" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H65" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="G65" s="46" t="s">
+      <c r="I65" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="H65" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="I65" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="J65" s="28">
-        <v>0</v>
-      </c>
-      <c r="K65" s="46">
-        <f>IF(J65&gt;E65,0,E65-J65)</f>
+      <c r="J65" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="K65" s="28">
+        <v>0</v>
+      </c>
+      <c r="L65" s="46">
+        <f>IF(K65&gt;F65,0,F65-K65)</f>
         <v>14</v>
       </c>
-      <c r="L65" s="38">
-        <v>0</v>
-      </c>
-      <c r="M65" s="28">
-        <f>L65-E65</f>
+      <c r="M65" s="38">
+        <v>0</v>
+      </c>
+      <c r="N65" s="28">
+        <f>M65-F65</f>
         <v>-14</v>
       </c>
-      <c r="N65" s="28">
-        <f>(4*E65)-M65</f>
+      <c r="O65" s="28">
+        <f>(4*F65)-N65</f>
         <v>70</v>
       </c>
-      <c r="R65" s="32" t="e">
-        <f>Q65/P65</f>
+      <c r="S65" s="32" t="e">
+        <f>R65/Q65</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" s="45"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="46"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="48"/>
       <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="H66" s="46"/>
       <c r="I66" s="47"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="38"/>
-      <c r="R66" s="32"/>
-    </row>
-    <row r="67" spans="1:18" ht="68" x14ac:dyDescent="0.15">
-      <c r="D67" s="93" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.15">
-      <c r="D68" s="145" t="s">
-        <v>686</v>
-      </c>
-      <c r="E68" s="28">
+      <c r="J66" s="47"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="38"/>
+      <c r="S66" s="32"/>
+    </row>
+    <row r="67" spans="1:19" ht="68" x14ac:dyDescent="0.15">
+      <c r="E67" s="93" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="E68" s="145" t="s">
+        <v>682</v>
+      </c>
+      <c r="F68" s="28">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N73" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N73">
-      <sortCondition ref="B6:B73"/>
+  <autoFilter ref="A6:O73" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:O73">
+      <sortCondition ref="C6:C73"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H48" r:id="rId1" xr:uid="{CC20020E-09E9-1145-A0B9-91ED22861541}"/>
+    <hyperlink ref="I48" r:id="rId1" xr:uid="{CC20020E-09E9-1145-A0B9-91ED22861541}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5550,11 +5607,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052A41E-3EA7-B148-953B-E2218E71D84C}">
   <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -5580,43 +5637,43 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="95"/>
       <c r="C2" s="114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="95"/>
       <c r="C3" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="95"/>
       <c r="C4" s="114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="114">
@@ -5625,20 +5682,20 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" s="92"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Q7" s="180" t="s">
+      <c r="Q7" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
     </row>
     <row r="8" spans="1:32" s="83" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="38"/>
       <c r="E8" s="38"/>
@@ -5647,7 +5704,7 @@
       <c r="H8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M8" s="38" t="s">
         <v>175</v>
@@ -5668,130 +5725,130 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="K9" s="146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L9" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="N9" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="O9" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>182</v>
       </c>
       <c r="P9" s="38"/>
       <c r="Q9" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="R9" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="S9" s="38" t="s">
         <v>184</v>
-      </c>
-      <c r="S9" s="38" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="83" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" s="167" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="57" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="H10" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="I10" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="J10" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="I10" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="83" t="s">
-        <v>239</v>
-      </c>
       <c r="K10" s="146" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="L10" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="N10" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="N10" s="38" t="s">
-        <v>195</v>
-      </c>
       <c r="O10" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P10" s="38"/>
       <c r="Q10" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="S10" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="S10" s="38" t="s">
-        <v>198</v>
-      </c>
       <c r="T10" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="U10" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="U10" s="83" t="s">
+      <c r="V10" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="V10" s="83" t="s">
+      <c r="W10" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="W10" s="83" t="s">
+      <c r="X10" s="83" t="s">
         <v>243</v>
-      </c>
-      <c r="X10" s="83" t="s">
-        <v>244</v>
       </c>
       <c r="Y10" s="83" t="s">
         <v>3</v>
       </c>
       <c r="Z10" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA10" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AA10" s="83" t="s">
+      <c r="AB10" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="AB10" s="83" t="s">
+      <c r="AC10" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="AC10" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="83" t="s">
+      <c r="AE10" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="AE10" s="83" t="s">
+      <c r="AF10" s="83" t="s">
         <v>249</v>
-      </c>
-      <c r="AF10" s="83" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B11" s="168"/>
       <c r="C11" s="105"/>
@@ -5803,266 +5860,266 @@
     <row r="12" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
       <c r="B12" s="172" t="s">
-        <v>726</v>
-      </c>
-      <c r="C12" s="115" t="s">
+        <v>722</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12" t="s">
         <v>440</v>
-      </c>
-      <c r="D12" t="s">
-        <v>442</v>
-      </c>
-      <c r="E12" t="s">
-        <v>441</v>
       </c>
       <c r="F12" s="110">
         <v>2</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I12" s="117" t="s">
-        <v>599</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C13" s="116" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" t="s">
         <v>443</v>
       </c>
-      <c r="D13" t="s">
-        <v>444</v>
-      </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13" s="110">
         <v>4</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I13" s="117" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C14" s="116" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" s="110">
         <v>5</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I14" s="117" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="B15" s="178" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="110">
         <v>1</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I15" s="117" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:32" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="172" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F16" s="110">
         <v>1</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I16" s="117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
       <c r="B17" s="178" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C17" s="116" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" t="s">
         <v>452</v>
       </c>
-      <c r="D17" t="s">
-        <v>453</v>
-      </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" s="110">
         <v>6</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I17" s="117" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="178" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C18" s="116" t="s">
+        <v>453</v>
+      </c>
+      <c r="D18" t="s">
         <v>454</v>
       </c>
-      <c r="D18" t="s">
-        <v>455</v>
-      </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="110">
         <v>6</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I18" s="117" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
       <c r="B19" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F19" s="110">
         <v>1</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I19" s="117" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D20" t="s">
+        <v>469</v>
+      </c>
+      <c r="E20" t="s">
         <v>470</v>
-      </c>
-      <c r="E20" t="s">
-        <v>471</v>
       </c>
       <c r="F20" s="110">
         <v>1</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I20" s="117" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:9" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
       <c r="B21" s="172" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E21" s="96" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F21" s="110">
         <v>1</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I21" s="119" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
       <c r="B22" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F22" s="110">
         <v>10</v>
@@ -6072,22 +6129,22 @@
         <v>7</v>
       </c>
       <c r="I22" s="119" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:9" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F23" s="110">
         <v>10</v>
@@ -6097,70 +6154,70 @@
         <v>13</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
       <c r="B24" s="172" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F24" s="110">
         <v>1</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I24" s="119" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
       <c r="B25" s="172" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F25" s="110">
         <v>1</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I25" s="119" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
       <c r="B26" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C26" s="116" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" s="110">
         <v>21</v>
@@ -6170,363 +6227,367 @@
         <v>470</v>
       </c>
       <c r="I26" s="119" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:9" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
       <c r="B27" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F27" s="110">
         <v>13</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I27" s="119" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
       <c r="B28" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C28" s="116" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F28" s="110">
         <v>6</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="26" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I28" s="119" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
       <c r="B29" s="179" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C29" s="116" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="110">
         <v>2</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="I29" s="119" t="s">
         <v>642</v>
-      </c>
-      <c r="I29" s="119" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
       <c r="B30" s="178" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F30" s="110">
         <v>2</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="143" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I30" s="119" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
       <c r="B31" s="178" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C31" s="116" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F31" s="110">
         <v>3</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="26" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I31" s="119" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
       <c r="B32" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F32" s="110">
         <v>2</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I32" s="119" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="178" t="s">
-        <v>726</v>
+      <c r="B33" s="184" t="s">
+        <v>749</v>
       </c>
       <c r="C33" s="115" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F33" s="110">
         <v>1</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I33" s="119" t="s">
-        <v>638</v>
+        <v>748</v>
       </c>
     </row>
     <row r="34" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
-      <c r="B34" s="178" t="s">
-        <v>726</v>
+      <c r="B34" s="184" t="s">
+        <v>749</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>539</v>
-      </c>
-      <c r="D34" s="27"/>
+        <v>538</v>
+      </c>
+      <c r="D34" s="183">
+        <v>0.01</v>
+      </c>
       <c r="E34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" s="110">
         <v>1</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I34" s="119" t="s">
-        <v>639</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:19" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
       <c r="B35" s="172" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C35" s="115" t="s">
+        <v>540</v>
+      </c>
+      <c r="D35" t="s">
         <v>541</v>
       </c>
-      <c r="D35" t="s">
-        <v>542</v>
-      </c>
       <c r="E35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F35" s="110">
         <v>1</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I35" s="119" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="27"/>
       <c r="B36" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E36" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F36" s="110">
         <v>1</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I36" s="119" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C37" s="115" t="s">
+        <v>545</v>
+      </c>
+      <c r="D37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" t="s">
         <v>546</v>
-      </c>
-      <c r="D37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E37" t="s">
-        <v>547</v>
       </c>
       <c r="F37" s="110">
         <v>1</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I37" s="119" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
       <c r="B38" s="178" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C38" s="115" t="s">
+        <v>547</v>
+      </c>
+      <c r="D38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" t="s">
         <v>548</v>
-      </c>
-      <c r="D38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" t="s">
-        <v>549</v>
       </c>
       <c r="F38" s="110">
         <v>1</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I38" s="119" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="178" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C39" s="115" t="s">
+        <v>552</v>
+      </c>
+      <c r="D39" t="s">
         <v>553</v>
       </c>
-      <c r="D39" t="s">
-        <v>554</v>
-      </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F39" s="110">
         <v>1</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I39" s="119" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="180" t="s">
+        <v>722</v>
+      </c>
       <c r="C40" s="115" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F40" s="110">
         <v>1</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I40" s="119" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
       <c r="B41" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C41" s="115" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F41" s="110">
         <v>1</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I41" s="119" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="91" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B42" s="93"/>
       <c r="C42" s="115"/>
@@ -6547,11 +6608,11 @@
         <v>1</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J43" s="148"/>
       <c r="K43" s="83">
@@ -6581,508 +6642,508 @@
       <c r="A44" s="27"/>
       <c r="B44" s="46"/>
       <c r="C44" s="115" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F44" s="110">
         <v>2</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S44" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
       <c r="B45" s="46"/>
       <c r="C45" s="115" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F45" s="110">
         <v>1</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S45" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
       <c r="B46" s="46"/>
       <c r="C46" s="115" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F46" s="110">
         <v>1</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S46" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
       <c r="B47" s="46"/>
       <c r="C47" s="115" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F47" s="110">
         <v>2</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S47" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
       <c r="B48" s="46"/>
       <c r="C48" s="115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F48" s="110">
         <v>1</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S48" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
       <c r="B49" s="46"/>
       <c r="C49" s="115" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F49" s="110">
         <v>1</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S49" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="50" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
       <c r="B50" s="46"/>
       <c r="C50" s="115" t="s">
+        <v>509</v>
+      </c>
+      <c r="D50" t="s">
         <v>510</v>
-      </c>
-      <c r="D50" t="s">
-        <v>511</v>
       </c>
       <c r="F50" s="110">
         <v>2</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S50" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
       <c r="B51" s="46"/>
       <c r="C51" s="115" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F51" s="110">
         <v>2</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S51" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
       <c r="B52" s="46"/>
       <c r="C52" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D52" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F52" s="110">
         <v>1</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S52" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
       <c r="B53" s="46"/>
       <c r="C53" s="115" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F53" s="110">
         <v>1</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="R53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S53" s="144" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="148" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B54" s="150"/>
       <c r="C54" s="140"/>
@@ -7097,7 +7158,7 @@
     <row r="55" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B55" s="46"/>
       <c r="C55" s="111" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D55" s="70"/>
       <c r="L55" s="27">
@@ -7120,7 +7181,7 @@
     <row r="56" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B56" s="46"/>
       <c r="C56" s="111" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D56" s="70"/>
       <c r="L56" s="27">
@@ -7143,7 +7204,7 @@
     <row r="57" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B57" s="46"/>
       <c r="C57" s="111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D57" s="70"/>
       <c r="L57" s="27">
@@ -7166,49 +7227,49 @@
     <row r="58" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B58" s="46"/>
       <c r="C58" s="112" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D58" s="70"/>
     </row>
     <row r="59" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B59" s="46"/>
       <c r="C59" s="112" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D59" s="70"/>
     </row>
     <row r="60" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B60" s="46"/>
       <c r="C60" s="112" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D60" s="70"/>
     </row>
     <row r="61" spans="1:19" ht="34" x14ac:dyDescent="0.15">
       <c r="B61" s="46"/>
       <c r="C61" s="112" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D61" s="70"/>
     </row>
     <row r="62" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B62" s="46"/>
       <c r="C62" s="112" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D62" s="70"/>
     </row>
     <row r="63" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B63" s="46"/>
       <c r="C63" s="112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D63" s="70"/>
     </row>
     <row r="64" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B64" s="46"/>
       <c r="C64" s="75" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F64" s="86"/>
       <c r="I64" s="83"/>
@@ -7217,7 +7278,7 @@
     <row r="65" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B65" s="46"/>
       <c r="C65" s="75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F65" s="86"/>
       <c r="I65" s="83"/>
@@ -7226,7 +7287,7 @@
     <row r="66" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B66" s="46"/>
       <c r="C66" s="97" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F66" s="86"/>
       <c r="I66" s="83"/>
@@ -7234,7 +7295,7 @@
     </row>
     <row r="67" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="91" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B67" s="93"/>
       <c r="C67" s="115"/>
@@ -7246,54 +7307,54 @@
       <c r="A68" s="27"/>
       <c r="B68" s="71"/>
       <c r="C68" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D68" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F68" s="110">
         <v>1</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I68" s="117" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="27"/>
       <c r="B69" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C69" s="115" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E69" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F69" s="110">
         <v>1</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I69" s="117" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -7305,91 +7366,91 @@
     <row r="70" spans="1:19" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="27"/>
       <c r="B70" s="172" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C70" s="115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E70" s="96" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F70" s="110">
         <v>1</v>
       </c>
       <c r="G70" s="28"/>
       <c r="I70" s="117" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:19" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
       <c r="B71" s="172" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C71" s="115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E71" s="96" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F71" s="110">
         <v>1</v>
       </c>
       <c r="G71" s="28"/>
       <c r="I71" s="119" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="1:19" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="27"/>
       <c r="B72" s="172" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C72" s="115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E72" s="96" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F72" s="110">
         <v>1</v>
       </c>
       <c r="G72" s="28"/>
       <c r="I72" s="119" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="27"/>
       <c r="B73" s="46"/>
       <c r="C73" s="116" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F73" s="110">
         <v>2</v>
       </c>
       <c r="G73" s="28"/>
       <c r="H73" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I73" s="119" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -7402,13 +7463,13 @@
       <c r="A74" s="27"/>
       <c r="B74" s="46"/>
       <c r="C74" s="116" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F74" s="110">
         <v>4</v>
@@ -7417,7 +7478,7 @@
       <c r="H74" s="26"/>
       <c r="I74" s="119"/>
       <c r="J74" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -7430,26 +7491,26 @@
       <c r="A75" s="27"/>
       <c r="B75" s="46"/>
       <c r="C75" s="115" t="s">
+        <v>480</v>
+      </c>
+      <c r="D75" t="s">
         <v>481</v>
       </c>
-      <c r="D75" t="s">
-        <v>482</v>
-      </c>
       <c r="E75" s="92" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F75" s="110">
         <v>1</v>
       </c>
       <c r="G75" s="28"/>
       <c r="H75" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I75" s="119" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -7462,28 +7523,28 @@
       <c r="A76" s="83"/>
       <c r="B76" s="46"/>
       <c r="C76" s="140" t="s">
+        <v>480</v>
+      </c>
+      <c r="D76" t="s">
         <v>481</v>
       </c>
-      <c r="D76" t="s">
-        <v>482</v>
-      </c>
       <c r="E76" s="92" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F76" s="85">
         <v>1</v>
       </c>
       <c r="G76" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H76" s="94" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I76" s="141" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K76" s="22">
         <v>0</v>
@@ -7496,11 +7557,11 @@
       <c r="A77" s="83"/>
       <c r="B77" s="46"/>
       <c r="C77" s="140" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D77"/>
       <c r="E77" s="169" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F77" s="85">
         <v>2</v>
@@ -7508,35 +7569,35 @@
       <c r="G77" s="57"/>
       <c r="H77" s="94"/>
       <c r="I77" s="141" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J77" s="26"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B78" s="46"/>
       <c r="C78" s="115" t="s">
+        <v>564</v>
+      </c>
+      <c r="D78" t="s">
+        <v>566</v>
+      </c>
+      <c r="E78" t="s">
+        <v>567</v>
+      </c>
+      <c r="F78" s="110">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
         <v>565</v>
-      </c>
-      <c r="D78" t="s">
-        <v>567</v>
-      </c>
-      <c r="E78" t="s">
-        <v>568</v>
-      </c>
-      <c r="F78" s="110">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>566</v>
       </c>
       <c r="I78" s="118"/>
       <c r="J78" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:19" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A79" s="104" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B79" s="168"/>
       <c r="C79" s="105"/>
@@ -7548,59 +7609,59 @@
     <row r="80" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
       <c r="B80" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C80" s="116" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F80" s="110">
         <v>2</v>
       </c>
       <c r="G80" s="28"/>
       <c r="H80" s="26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I80" s="119" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="81" spans="1:21" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
       <c r="B81" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C81" s="115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E81" s="92" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F81" s="110">
         <v>1</v>
       </c>
       <c r="G81" s="28"/>
       <c r="H81" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I81" s="119" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="1:21" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B82" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C82" s="113" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D82" s="68"/>
       <c r="E82" s="84"/>
@@ -7618,22 +7679,22 @@
     </row>
     <row r="83" spans="1:21" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B83" s="172" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C83" s="113"/>
       <c r="D83" s="68"/>
       <c r="E83" s="165" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F83" s="85">
         <v>1</v>
       </c>
       <c r="G83" s="157" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H83" s="84"/>
       <c r="I83" s="158" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="L83" s="38"/>
       <c r="N83" s="38"/>
@@ -7645,25 +7706,25 @@
     </row>
     <row r="84" spans="1:21" ht="17" x14ac:dyDescent="0.15">
       <c r="B84" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C84" s="69"/>
       <c r="D84" s="68"/>
       <c r="E84" s="155" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F84" s="64">
         <v>4</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:21" s="123" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A85" s="121"/>
       <c r="B85" s="170"/>
       <c r="C85" s="122" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E85" s="124"/>
       <c r="F85" s="125"/>
@@ -7674,29 +7735,29 @@
     </row>
     <row r="86" spans="1:21" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A86" s="133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B86" s="177" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C86" s="123"/>
       <c r="D86" s="130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E86" s="133" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F86" s="131">
         <v>1</v>
       </c>
       <c r="G86" s="132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H86" s="130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I86" s="134" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K86" s="129">
         <v>1</v>
@@ -7721,35 +7782,35 @@
         <v>21.88</v>
       </c>
       <c r="T86" s="129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U86" s="129" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="129" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A87" s="133" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B87" s="177" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C87" s="122"/>
       <c r="D87" s="133" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E87" s="133" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F87" s="131">
         <v>1</v>
       </c>
       <c r="G87" s="139" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H87" s="133"/>
       <c r="I87" s="134" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K87" s="129">
         <v>0</v>
@@ -7764,29 +7825,29 @@
     </row>
     <row r="88" spans="1:21" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A88" s="133" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B88" s="177" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C88" s="123"/>
       <c r="D88" s="133" t="s">
+        <v>374</v>
+      </c>
+      <c r="E88" s="133" t="s">
+        <v>612</v>
+      </c>
+      <c r="F88" s="131">
+        <v>1</v>
+      </c>
+      <c r="G88" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="H88" s="133" t="s">
         <v>375</v>
       </c>
-      <c r="E88" s="133" t="s">
-        <v>614</v>
-      </c>
-      <c r="F88" s="131">
-        <v>1</v>
-      </c>
-      <c r="G88" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="H88" s="133" t="s">
-        <v>376</v>
-      </c>
       <c r="I88" s="134" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K88" s="129">
         <v>0</v>
@@ -7808,7 +7869,7 @@
     <row r="89" spans="1:21" s="129" customFormat="1" ht="44" x14ac:dyDescent="0.15">
       <c r="B89" s="123"/>
       <c r="C89" s="122" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D89" s="133"/>
       <c r="E89" s="133"/>
@@ -7826,27 +7887,27 @@
     </row>
     <row r="90" spans="1:21" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A90" s="133" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B90" s="139"/>
       <c r="C90" s="123"/>
       <c r="D90" s="133" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E90" s="133" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F90" s="131">
         <v>2</v>
       </c>
       <c r="G90" s="132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H90" s="130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I90" s="134" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K90" s="129">
         <v>0</v>
@@ -7867,62 +7928,62 @@
     </row>
     <row r="91" spans="1:21" s="138" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A91" s="133" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B91" s="139"/>
       <c r="C91" s="135" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D91" s="133" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E91" s="139" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F91" s="131">
         <v>1</v>
       </c>
       <c r="G91" s="132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H91" s="136" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I91" s="137" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="92" spans="1:21" s="138" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A92" s="133" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B92" s="139"/>
       <c r="C92" s="135" t="s">
+        <v>619</v>
+      </c>
+      <c r="D92" s="133" t="s">
+        <v>614</v>
+      </c>
+      <c r="E92" s="139" t="s">
+        <v>622</v>
+      </c>
+      <c r="F92" s="131">
+        <v>1</v>
+      </c>
+      <c r="G92" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92" s="133" t="s">
         <v>621</v>
       </c>
-      <c r="D92" s="133" t="s">
-        <v>616</v>
-      </c>
-      <c r="E92" s="139" t="s">
-        <v>624</v>
-      </c>
-      <c r="F92" s="131">
-        <v>1</v>
-      </c>
-      <c r="G92" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="H92" s="133" t="s">
-        <v>623</v>
-      </c>
       <c r="I92" s="137" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B93" s="38"/>
       <c r="C93" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D93" s="68"/>
       <c r="E93" s="84"/>
@@ -7942,19 +8003,19 @@
       <c r="C94" s="69"/>
       <c r="D94" s="68"/>
       <c r="E94" s="69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F94" s="64">
         <v>1</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:21" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B95" s="38"/>
       <c r="C95" s="113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D95" s="84"/>
       <c r="E95" s="84"/>
@@ -7973,14 +8034,14 @@
     <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C96" s="69"/>
       <c r="D96" s="91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E96" s="69"/>
     </row>
     <row r="97" spans="1:19" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B97" s="38"/>
       <c r="C97" s="113" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D97" s="84"/>
       <c r="E97" s="84"/>
@@ -8002,23 +8063,23 @@
       </c>
       <c r="B98" s="36"/>
       <c r="C98" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E98" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="E98" s="36" t="s">
-        <v>284</v>
-      </c>
       <c r="F98" s="37">
         <v>1</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H98" s="36"/>
       <c r="I98" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J98" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K98" s="35">
         <v>1</v>
@@ -8048,21 +8109,21 @@
         <v>302</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F99" s="37">
         <v>1</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I99" s="83"/>
       <c r="J99" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S99" s="39"/>
     </row>
@@ -8072,21 +8133,21 @@
       </c>
       <c r="B100" s="36"/>
       <c r="C100" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F100" s="37">
         <v>1</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I100" s="83"/>
       <c r="J100" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S100" s="39"/>
     </row>
@@ -8095,21 +8156,21 @@
         <v>304</v>
       </c>
       <c r="C101" s="92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="98"/>
       <c r="E101" s="97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F101" s="99">
         <v>1</v>
       </c>
       <c r="G101" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I101" s="94"/>
       <c r="J101" s="98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S101" s="100"/>
     </row>
@@ -8119,21 +8180,21 @@
       </c>
       <c r="B102" s="36"/>
       <c r="C102" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F102" s="37">
         <v>1</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I102" s="83"/>
       <c r="J102" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K102" s="40"/>
       <c r="L102" s="40"/>
@@ -8145,21 +8206,21 @@
         <v>306</v>
       </c>
       <c r="C103" s="92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="98"/>
       <c r="E103" s="97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F103" s="99">
         <v>1</v>
       </c>
       <c r="G103" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I103" s="94"/>
       <c r="J103" s="98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K103" s="101"/>
       <c r="L103" s="101"/>
@@ -8172,21 +8233,21 @@
       </c>
       <c r="B104" s="171"/>
       <c r="C104" s="92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="98"/>
       <c r="E104" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F104" s="99">
         <v>1</v>
       </c>
       <c r="G104" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I104" s="94"/>
       <c r="J104" s="98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S104" s="100"/>
     </row>
@@ -8195,25 +8256,25 @@
         <v>308</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F105" s="37">
         <v>1</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I105" s="120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J105" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K105" s="38">
         <v>4</v>
@@ -8247,24 +8308,24 @@
       </c>
       <c r="B106" s="36"/>
       <c r="C106" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F106" s="37">
         <v>1</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I106" s="83"/>
       <c r="J106" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S106" s="39"/>
     </row>
@@ -8273,24 +8334,24 @@
         <v>310</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F107" s="37">
         <v>1</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H107" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I107" s="83"/>
       <c r="J107" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S107" s="39"/>
     </row>
@@ -8299,19 +8360,19 @@
         <v>311</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F108" s="86"/>
       <c r="H108" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I108" s="83"/>
       <c r="J108" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S108" s="39"/>
     </row>
@@ -8320,24 +8381,24 @@
         <v>312</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="F109" s="37">
+        <v>1</v>
+      </c>
+      <c r="G109" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H109" s="43" t="s">
         <v>300</v>
-      </c>
-      <c r="F109" s="37">
-        <v>1</v>
-      </c>
-      <c r="G109" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="H109" s="43" t="s">
-        <v>301</v>
       </c>
       <c r="I109" s="83"/>
       <c r="J109" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S109" s="39"/>
     </row>
@@ -8381,52 +8442,49 @@
   <mergeCells count="1">
     <mergeCell ref="Q7:S7"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1" xr:uid="{B3564F39-BDFC-024B-80FC-3B84D3B19B84}"/>
     <hyperlink ref="I19" r:id="rId2" xr:uid="{441A81FD-7638-214B-A580-55099579328C}"/>
     <hyperlink ref="I69" r:id="rId3" xr:uid="{A2EAFEEE-277F-C94D-BE13-096BC666E042}"/>
     <hyperlink ref="I20" r:id="rId4" xr:uid="{9512419F-9FD8-DE49-B8E8-15F04F2D8C4E}"/>
     <hyperlink ref="I16" r:id="rId5" xr:uid="{FEB952F9-A808-124E-A68E-B97647941AB6}"/>
-    <hyperlink ref="I12" r:id="rId6" xr:uid="{1C53847F-5580-FF49-B730-27297740FD71}"/>
-    <hyperlink ref="I24" r:id="rId7" xr:uid="{484FA34B-DD1F-4247-AA50-74C9F90A7470}"/>
-    <hyperlink ref="I25" r:id="rId8" xr:uid="{9CCB5340-0AF0-4B4E-B53C-BD4ED61D48F7}"/>
-    <hyperlink ref="I14" r:id="rId9" xr:uid="{4DDAF198-0DB4-A445-84C6-C5B81F0E0AE5}"/>
-    <hyperlink ref="I15" r:id="rId10" xr:uid="{42AF74D9-2AB3-234A-8B75-5EEA3CB64E2B}"/>
-    <hyperlink ref="I13" r:id="rId11" xr:uid="{A6981C13-5249-8643-A41C-B2B2100F79D1}"/>
-    <hyperlink ref="I17" r:id="rId12" xr:uid="{484B6B63-AA78-7743-BBB3-CFC6FCB12C15}"/>
-    <hyperlink ref="I18" r:id="rId13" xr:uid="{CD594B1E-E3AA-0943-A29A-C9163BA37E99}"/>
-    <hyperlink ref="I73" r:id="rId14" xr:uid="{C1CC8B14-BBCA-4D40-9FF8-7DD9D4696CC5}"/>
-    <hyperlink ref="I81" r:id="rId15" xr:uid="{4D54B049-208C-EB4E-84D2-41A2F08DF86C}"/>
-    <hyperlink ref="I75" r:id="rId16" xr:uid="{54012B0E-4E17-1344-80E3-3A670B34649A}"/>
-    <hyperlink ref="I91" r:id="rId17" xr:uid="{F426B9DF-2D8C-6B44-894D-BDCD1F63FD09}"/>
-    <hyperlink ref="I88" r:id="rId18" xr:uid="{2776FBA9-9985-9E4B-9FB5-4B066FF0ED50}"/>
-    <hyperlink ref="I92" r:id="rId19" xr:uid="{A8CE4F90-1BAF-1447-9A14-F563F16A701F}"/>
-    <hyperlink ref="I76" r:id="rId20" xr:uid="{5FA56FEC-ABF3-D042-8227-2FF115EE568D}"/>
-    <hyperlink ref="I90" r:id="rId21" xr:uid="{913EBDAF-6D52-7F42-9D9E-2E61FE9C1502}"/>
-    <hyperlink ref="I87" r:id="rId22" xr:uid="{F903274A-513B-A64B-848E-306B1EEC7E1C}"/>
-    <hyperlink ref="I86" r:id="rId23" xr:uid="{1D3329C3-5719-9943-AF92-B402BC871D52}"/>
-    <hyperlink ref="I22" r:id="rId24" xr:uid="{13958584-2A2A-734F-A90A-B2A4875219D6}"/>
-    <hyperlink ref="I23" r:id="rId25" xr:uid="{F5C45803-8299-174A-B095-B21036B0A8AF}"/>
-    <hyperlink ref="I26" r:id="rId26" xr:uid="{B37F0916-A681-C94F-9417-EA6AD4DCE2F5}"/>
-    <hyperlink ref="I27" r:id="rId27" xr:uid="{B5AD4FCD-3A33-E049-B98E-30C31CDDD8CE}"/>
-    <hyperlink ref="I32" r:id="rId28" display="https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805JT2K20/1757894?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvgDM8EEkhoseQiRAwArGUmMQrdlz5DR%2BMADYpMuTnxFIpcTXEw6m7ZE48BwseBoU60aSgwLRWsQMgZmNhdddwNlShVTAPlLJRgAOhgAAgBrAHkACwBbTHCtSJAAVX5eFlzkAFlsVEwAV25sWIBaBL8zQIUrUjgncq64XqgeFoGlBPxHCPYugBZE2X6UkLAKIzAFsqWRTxM-XgATdk6wMghFlxB8FgBPJg6XZqQjoA" xr:uid="{C89B3AE8-2F75-9E4F-8557-F499D5E5DF2C}"/>
-    <hyperlink ref="I33" r:id="rId29" display="https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805JT33K0/1757818?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvgDM8EEkhoseQiRAwArGUmMQrdlz5DR%2BMADYpMuTnxFIpcTXEw6m7ZE48BwseBoU60aSgwLRWsQMgZmNhdddwNlShVTAPlLJXFxAAIAawB5AAsAW0xwrUiQAFV%2BXhZs5ABZbFRMAFdubFiAWgS-M0CFK1I4J1KOuG6oHia%2BpQT8Rwj2DoAWRNlelJCwCiMwOZKFkU8TP14AE3Z2sDIIeZcQfBYATyY2l0akA6A" xr:uid="{01DB6BEB-8082-F14F-BD2F-D034F1B5C516}"/>
-    <hyperlink ref="I34" r:id="rId30" display="https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805JT11K0/1711858?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvgDM8EEkhoseQiRAwArGUmMQrdlz5DR%2BMADYpMuTnxFIpcTXEw6m7ZE48BwseBoU60aSgwLRWsQMgZmNhdddwNlShVTAPlLJTAwAAIAawB5AAsAW0xwrUiQAFV%2BXhZs5ABZbFRMAFdubFiAWgS-M0CFK1I4J1KOuG6oHia%2BpQT8Rwj2DoAWRNlelJCwCiMwOZKFkU8TP14AE3Z2sDIIeZcQfBYATyY2l0akA6A" xr:uid="{B4F463C7-28F2-0543-888C-6270C9EEB313}"/>
-    <hyperlink ref="I35" r:id="rId31" xr:uid="{3A3F234B-DA89-DC4E-A019-191BEF80621C}"/>
-    <hyperlink ref="I30" r:id="rId32" xr:uid="{2C06ADAF-6244-234C-82AE-DB6C9F2BC33B}"/>
-    <hyperlink ref="I28" r:id="rId33" xr:uid="{BBA4BA88-0911-4741-AF80-19328FF5D413}"/>
-    <hyperlink ref="I37" r:id="rId34" xr:uid="{F0C40ABB-1307-424D-AE97-974B5F1532AD}"/>
-    <hyperlink ref="I38" r:id="rId35" xr:uid="{BC943498-AC83-6E4B-8676-F69B559D7C59}"/>
-    <hyperlink ref="I39" r:id="rId36" xr:uid="{247056C5-13A1-C842-AE97-9C2AC1934F85}"/>
-    <hyperlink ref="I40" r:id="rId37" xr:uid="{7BAF4CE9-9A25-4243-9C54-73411A4EC804}"/>
-    <hyperlink ref="I41" r:id="rId38" xr:uid="{AA0EFC18-CD46-1947-957F-08534C7F8E72}"/>
-    <hyperlink ref="I80" r:id="rId39" xr:uid="{28ED6A70-D746-9040-95B2-9CA2B4DBBAC4}"/>
-    <hyperlink ref="I71" r:id="rId40" xr:uid="{9746EEC6-8B11-2E4B-BAF8-32614C10BC2F}"/>
-    <hyperlink ref="I72" r:id="rId41" xr:uid="{C0B1E6B5-726E-7E44-BB2F-97BB560A17AC}"/>
-    <hyperlink ref="I68" r:id="rId42" xr:uid="{F0DAC8EB-D183-DD47-A3FB-3112A5C042FE}"/>
-    <hyperlink ref="I36" r:id="rId43" xr:uid="{39F9DEDE-42F9-B944-8686-DF9330F03276}"/>
-    <hyperlink ref="I83" r:id="rId44" xr:uid="{2DB7EDC1-5C1D-294D-B1FD-D1E9A1868E4E}"/>
+    <hyperlink ref="I24" r:id="rId6" xr:uid="{484FA34B-DD1F-4247-AA50-74C9F90A7470}"/>
+    <hyperlink ref="I25" r:id="rId7" xr:uid="{9CCB5340-0AF0-4B4E-B53C-BD4ED61D48F7}"/>
+    <hyperlink ref="I14" r:id="rId8" xr:uid="{4DDAF198-0DB4-A445-84C6-C5B81F0E0AE5}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{42AF74D9-2AB3-234A-8B75-5EEA3CB64E2B}"/>
+    <hyperlink ref="I13" r:id="rId10" xr:uid="{A6981C13-5249-8643-A41C-B2B2100F79D1}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{484B6B63-AA78-7743-BBB3-CFC6FCB12C15}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{CD594B1E-E3AA-0943-A29A-C9163BA37E99}"/>
+    <hyperlink ref="I73" r:id="rId13" xr:uid="{C1CC8B14-BBCA-4D40-9FF8-7DD9D4696CC5}"/>
+    <hyperlink ref="I81" r:id="rId14" xr:uid="{4D54B049-208C-EB4E-84D2-41A2F08DF86C}"/>
+    <hyperlink ref="I75" r:id="rId15" xr:uid="{54012B0E-4E17-1344-80E3-3A670B34649A}"/>
+    <hyperlink ref="I91" r:id="rId16" xr:uid="{F426B9DF-2D8C-6B44-894D-BDCD1F63FD09}"/>
+    <hyperlink ref="I88" r:id="rId17" xr:uid="{2776FBA9-9985-9E4B-9FB5-4B066FF0ED50}"/>
+    <hyperlink ref="I92" r:id="rId18" xr:uid="{A8CE4F90-1BAF-1447-9A14-F563F16A701F}"/>
+    <hyperlink ref="I76" r:id="rId19" xr:uid="{5FA56FEC-ABF3-D042-8227-2FF115EE568D}"/>
+    <hyperlink ref="I90" r:id="rId20" xr:uid="{913EBDAF-6D52-7F42-9D9E-2E61FE9C1502}"/>
+    <hyperlink ref="I87" r:id="rId21" xr:uid="{F903274A-513B-A64B-848E-306B1EEC7E1C}"/>
+    <hyperlink ref="I86" r:id="rId22" xr:uid="{1D3329C3-5719-9943-AF92-B402BC871D52}"/>
+    <hyperlink ref="I22" r:id="rId23" xr:uid="{13958584-2A2A-734F-A90A-B2A4875219D6}"/>
+    <hyperlink ref="I23" r:id="rId24" xr:uid="{F5C45803-8299-174A-B095-B21036B0A8AF}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{B37F0916-A681-C94F-9417-EA6AD4DCE2F5}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{B5AD4FCD-3A33-E049-B98E-30C31CDDD8CE}"/>
+    <hyperlink ref="I32" r:id="rId27" display="https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805JT2K20/1757894?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXAAYAOAdgE4QBdfABwBcoQBlFgJwEsA7AOYgAvvgDM8EEkhoseQiRAwArGUmMQrdlz5DR%2BMADYpMuTnxFIpcTXEw6m7ZE48BwseBoU60aSgwLRWsQMgZmNhdddwNlShVTAPlLJRgAOhgAAgBrAHkACwBbTHCtSJAAVX5eFlzkAFlsVEwAV25sWIBaBL8zQIUrUjgncq64XqgeFoGlBPxHCPYugBZE2X6UkLAKIzAFsqWRTxM-XgATdk6wMghFlxB8FgBPJg6XZqQjoA" xr:uid="{C89B3AE8-2F75-9E4F-8557-F499D5E5DF2C}"/>
+    <hyperlink ref="I35" r:id="rId28" xr:uid="{3A3F234B-DA89-DC4E-A019-191BEF80621C}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{2C06ADAF-6244-234C-82AE-DB6C9F2BC33B}"/>
+    <hyperlink ref="I28" r:id="rId30" xr:uid="{BBA4BA88-0911-4741-AF80-19328FF5D413}"/>
+    <hyperlink ref="I37" r:id="rId31" xr:uid="{F0C40ABB-1307-424D-AE97-974B5F1532AD}"/>
+    <hyperlink ref="I38" r:id="rId32" xr:uid="{BC943498-AC83-6E4B-8676-F69B559D7C59}"/>
+    <hyperlink ref="I39" r:id="rId33" xr:uid="{247056C5-13A1-C842-AE97-9C2AC1934F85}"/>
+    <hyperlink ref="I40" r:id="rId34" xr:uid="{7BAF4CE9-9A25-4243-9C54-73411A4EC804}"/>
+    <hyperlink ref="I41" r:id="rId35" xr:uid="{AA0EFC18-CD46-1947-957F-08534C7F8E72}"/>
+    <hyperlink ref="I80" r:id="rId36" xr:uid="{28ED6A70-D746-9040-95B2-9CA2B4DBBAC4}"/>
+    <hyperlink ref="I71" r:id="rId37" xr:uid="{9746EEC6-8B11-2E4B-BAF8-32614C10BC2F}"/>
+    <hyperlink ref="I72" r:id="rId38" xr:uid="{C0B1E6B5-726E-7E44-BB2F-97BB560A17AC}"/>
+    <hyperlink ref="I68" r:id="rId39" xr:uid="{F0DAC8EB-D183-DD47-A3FB-3112A5C042FE}"/>
+    <hyperlink ref="I36" r:id="rId40" xr:uid="{39F9DEDE-42F9-B944-8686-DF9330F03276}"/>
+    <hyperlink ref="I83" r:id="rId41" xr:uid="{2DB7EDC1-5C1D-294D-B1FD-D1E9A1868E4E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8436,8 +8494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6340416-D374-C841-832D-DB1142BA15CE}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -8474,11 +8532,11 @@
       <c r="B3" s="29"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="Q3" s="180" t="s">
+      <c r="Q3" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -8497,89 +8555,89 @@
     </row>
     <row r="5" spans="1:19" s="38" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="K5" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="M5" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="N5" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="O5" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="Q5" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="R5" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="S5" s="38" t="s">
         <v>184</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="169" t="s">
+        <v>720</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="B6" s="169" t="s">
-        <v>724</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>187</v>
       </c>
       <c r="D6" s="61" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>148</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="I6" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="K6" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="L6" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="M6" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="O6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="O6" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q6" s="28" t="s">
+      <c r="R6" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="S6" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="38" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="174"/>
       <c r="E7" s="59"/>
@@ -8592,7 +8650,7 @@
       <c r="A8" s="58"/>
       <c r="B8" s="173"/>
       <c r="C8" s="82" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E8" s="59"/>
       <c r="H8" s="60"/>
@@ -8603,21 +8661,21 @@
     <row r="9" spans="1:19" s="65" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="B9" s="46"/>
       <c r="D9" s="81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="30"/>
       <c r="H9" s="81" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I9" s="154" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K9" s="65">
         <v>0</v>
@@ -8635,7 +8693,7 @@
     <row r="10" spans="1:19" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B10" s="46"/>
       <c r="C10" s="82" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="28"/>
@@ -8653,16 +8711,16 @@
     <row r="11" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="46"/>
       <c r="D11" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F11" s="67">
         <v>2</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -8673,16 +8731,16 @@
     <row r="12" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B12" s="46"/>
       <c r="D12" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F12" s="67">
         <v>1</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
@@ -8693,16 +8751,16 @@
     <row r="13" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B13" s="46"/>
       <c r="D13" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F13" s="67">
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
@@ -8713,16 +8771,16 @@
     <row r="14" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B14" s="46"/>
       <c r="D14" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F14" s="67">
         <v>1</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -8733,7 +8791,7 @@
     <row r="15" spans="1:19" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B15" s="46"/>
       <c r="C15" s="82" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="64"/>
@@ -8746,25 +8804,25 @@
     </row>
     <row r="16" spans="1:19" s="65" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="B16" s="176" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D16" s="175" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E16" s="176" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F16" s="66">
         <v>2</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H16" s="80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I16" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K16" s="65">
         <v>1</v>
@@ -8782,7 +8840,7 @@
     <row r="17" spans="1:19" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="46"/>
       <c r="C17" s="82" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="57"/>
@@ -8798,23 +8856,23 @@
       <c r="B18" s="46"/>
       <c r="C18" s="73"/>
       <c r="D18" s="156" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="64">
         <v>1</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="I18" s="156" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J18" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K18" s="27">
         <v>0</v>
@@ -8843,21 +8901,21 @@
     <row r="19" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B19" s="46"/>
       <c r="D19" s="91" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="27">
         <v>1</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K19" s="27">
         <v>3</v>
@@ -8869,23 +8927,23 @@
     <row r="20" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B20" s="46"/>
       <c r="D20" s="91" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="27">
         <v>1</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I20" s="117" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J20" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K20" s="27">
         <v>0</v>
@@ -8897,23 +8955,23 @@
     <row r="21" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B21" s="46"/>
       <c r="D21" s="156" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="27">
         <v>1</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I21" s="117" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J21" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K21" s="27">
         <v>0</v>
@@ -8925,23 +8983,23 @@
     <row r="22" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B22" s="46"/>
       <c r="D22" s="156" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="27">
         <v>1</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I22" s="117" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J22" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K22" s="27">
         <v>1</v>
@@ -8953,26 +9011,26 @@
     <row r="23" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B23" s="46"/>
       <c r="C23" s="166" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D23" s="166" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="27">
         <v>1</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" s="92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I23" s="117" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="J23" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="28"/>
@@ -8981,23 +9039,23 @@
     <row r="24" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B24" s="46"/>
       <c r="C24" s="166" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D24" s="166" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E24" s="169" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F24" s="27">
         <v>2</v>
       </c>
       <c r="G24" s="169" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="92"/>
       <c r="I24" s="117" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="J24" s="156"/>
       <c r="Q24" s="28"/>
@@ -9007,14 +9065,14 @@
     <row r="25" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="46"/>
       <c r="D25" s="77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
@@ -9023,32 +9081,40 @@
     <row r="26" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="46"/>
       <c r="D26" s="77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
       <c r="S26" s="28"/>
     </row>
-    <row r="27" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" s="27" customFormat="1" ht="68" x14ac:dyDescent="0.15">
       <c r="B27" s="46"/>
+      <c r="C27" s="181" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" s="91" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E27" s="28"/>
+      <c r="F27" s="27">
+        <v>1</v>
+      </c>
       <c r="G27" s="28"/>
       <c r="H27" s="92" t="s">
-        <v>580</v>
-      </c>
-      <c r="I27" s="28"/>
+        <v>579</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>650</v>
+      </c>
       <c r="J27" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q27" s="28"/>
       <c r="R27" s="28"/>
@@ -9057,16 +9123,16 @@
     <row r="28" spans="1:19" s="27" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="B28" s="46"/>
       <c r="D28" s="91" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="28"/>
@@ -9078,59 +9144,59 @@
     <row r="30" spans="1:19" ht="21" x14ac:dyDescent="0.15">
       <c r="B30" s="46"/>
       <c r="C30" s="107" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
       <c r="B31" s="46"/>
       <c r="C31" s="115" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F31" s="110">
         <v>1</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I31" s="117" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="91"/>
       <c r="B32" s="93"/>
       <c r="C32" s="116" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F32" s="110">
         <v>1</v>
       </c>
       <c r="G32" s="28"/>
       <c r="I32" s="119" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="46"/>
       <c r="D33" s="91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="27">
@@ -9139,10 +9205,10 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="117" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J33" s="144" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q33" s="28"/>
       <c r="R33" s="28"/>
@@ -9154,25 +9220,25 @@
     <row r="35" spans="1:19" ht="22" x14ac:dyDescent="0.15">
       <c r="B35" s="46"/>
       <c r="C35" s="108" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B36" s="46"/>
       <c r="D36" s="92" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B37" s="46"/>
       <c r="D37" s="92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B38" s="46"/>
       <c r="D38" s="92" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
@@ -9181,25 +9247,25 @@
     <row r="40" spans="1:19" ht="21" x14ac:dyDescent="0.15">
       <c r="B40" s="46"/>
       <c r="C40" s="107" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B41" s="46"/>
       <c r="D41" s="155" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F41" s="28">
         <v>1</v>
       </c>
       <c r="I41" s="117" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B42" s="46"/>
       <c r="D42" s="155" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F42" s="28">
         <v>1</v>
@@ -9209,25 +9275,25 @@
     <row r="43" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="B43" s="46"/>
       <c r="D43" s="155" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F43" s="28">
         <v>1</v>
       </c>
       <c r="I43" s="117" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="44" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
       <c r="B44" s="172" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C44" s="115" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="110">
@@ -9235,13 +9301,13 @@
       </c>
       <c r="G44" s="28"/>
       <c r="H44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I44" s="119" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.15">
@@ -9254,19 +9320,19 @@
     <row r="47" spans="1:19" ht="21" x14ac:dyDescent="0.15">
       <c r="B47" s="46"/>
       <c r="C47" s="107" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="B48" s="46"/>
       <c r="D48" s="92" t="s">
+        <v>582</v>
+      </c>
+      <c r="H48" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="I48" s="109" t="s">
         <v>583</v>
-      </c>
-      <c r="H48" s="92" t="s">
-        <v>417</v>
-      </c>
-      <c r="I48" s="109" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -9275,13 +9341,13 @@
     <row r="50" spans="1:10" ht="21" x14ac:dyDescent="0.15">
       <c r="B50" s="46"/>
       <c r="C50" s="107" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B51" s="46"/>
       <c r="D51" s="92" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -9290,7 +9356,7 @@
     <row r="53" spans="1:10" ht="21" x14ac:dyDescent="0.15">
       <c r="B53" s="46"/>
       <c r="C53" s="107" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21" x14ac:dyDescent="0.15">
@@ -9303,7 +9369,7 @@
     <row r="56" spans="1:10" ht="21" x14ac:dyDescent="0.15">
       <c r="B56" s="46"/>
       <c r="C56" s="107" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -9315,43 +9381,43 @@
     <row r="59" spans="1:10" ht="21" x14ac:dyDescent="0.15">
       <c r="B59" s="46"/>
       <c r="C59" s="107" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27"/>
       <c r="B60" s="46"/>
       <c r="C60" s="115" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F60" s="110">
         <v>1</v>
       </c>
       <c r="G60" s="28"/>
       <c r="H60" s="26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I60" s="119" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="27"/>
       <c r="B61" s="46"/>
       <c r="C61" s="116" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E61" s="26"/>
       <c r="F61" s="110">
@@ -9367,7 +9433,7 @@
     </row>
     <row r="63" spans="1:10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="166" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B63" s="172"/>
       <c r="C63" s="115"/>
@@ -9378,309 +9444,309 @@
     <row r="64" spans="1:10" ht="34" x14ac:dyDescent="0.15">
       <c r="B64" s="46"/>
       <c r="C64" s="169" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F64" s="110">
         <v>2</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I64" s="119" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A65" s="27"/>
       <c r="B65" s="46"/>
       <c r="C65" s="115" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E65" s="145" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F65" s="110">
         <v>1</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I65" s="118"/>
       <c r="J65" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="27"/>
       <c r="B66" s="46"/>
       <c r="C66" s="115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E66" s="146" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F66" s="110">
         <v>1</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I66" s="118"/>
       <c r="J66" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A67" s="27"/>
       <c r="B67" s="46"/>
       <c r="C67" s="115" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E67" s="146" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F67" s="110">
         <v>3</v>
       </c>
       <c r="G67" s="28"/>
       <c r="H67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I67" s="118"/>
       <c r="J67" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A68" s="27"/>
       <c r="B68" s="46"/>
       <c r="C68" s="115" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D68" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E68" s="146" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F68" s="110">
         <v>1</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I68" s="118"/>
       <c r="J68" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="27"/>
       <c r="B69" s="46"/>
       <c r="C69" s="115" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D69" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E69" s="146" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F69" s="110">
         <v>1</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I69" s="118"/>
       <c r="J69" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A70" s="27"/>
       <c r="B70" s="46"/>
       <c r="C70" s="115" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D70" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E70" s="146" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F70" s="110">
         <v>1</v>
       </c>
       <c r="G70" s="28"/>
       <c r="H70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I70" s="118"/>
       <c r="J70" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
       <c r="B71" s="46"/>
       <c r="C71" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D71" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E71" s="146" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F71" s="110">
         <v>1</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I71" s="118"/>
       <c r="J71" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="27"/>
       <c r="B72" s="46"/>
       <c r="C72" s="115" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D72" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E72" s="147" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F72" s="110">
         <v>1</v>
       </c>
       <c r="G72" s="28"/>
       <c r="H72" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I72" s="118"/>
       <c r="J72" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:10" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="27"/>
       <c r="B73" s="46"/>
       <c r="C73" s="115" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D73" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E73" s="147" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F73" s="110">
         <v>1</v>
       </c>
       <c r="G73" s="28"/>
       <c r="H73" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I73" s="118"/>
       <c r="J73" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="27"/>
       <c r="B74" s="46"/>
       <c r="C74" s="115" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F74" s="110">
         <v>2</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I74" s="118"/>
       <c r="J74" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="27"/>
       <c r="B75" s="46"/>
       <c r="C75" s="115" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D75" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F75" s="110">
         <v>1</v>
       </c>
       <c r="G75" s="28"/>
       <c r="H75" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I75" s="118"/>
       <c r="J75" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:10" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
       <c r="B76" s="172" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C76" s="115" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F76" s="110">
         <v>1</v>
       </c>
       <c r="G76" s="28"/>
       <c r="H76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I76" s="118"/>
       <c r="J76" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">

--- a/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
+++ b/Manufacturing/BOM Core 64 v0.4.0 CB Yellow LB Blue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Manufacturing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46265A-1953-0141-A174-6D0693D22543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE46DA08-AA52-5A43-B864-914DFD37DCE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2480" windowWidth="34660" windowHeight="22680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="34660" windowHeight="22680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU List" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="756">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -2307,6 +2307,21 @@
   </si>
   <si>
     <t>Back ordered 329. Change to 303, has much higher inventory.</t>
+  </si>
+  <si>
+    <t>Desk Stand</t>
+  </si>
+  <si>
+    <t>sides, cross bars, screws</t>
+  </si>
+  <si>
+    <t>-OR- Kick-stand</t>
+  </si>
+  <si>
+    <t>USB Cable</t>
+  </si>
+  <si>
+    <t>Programming cable for Teensy</t>
   </si>
 </sst>
 </file>
@@ -2318,10 +2333,24 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2620,37 +2649,37 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2660,463 +2689,472 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3570,7 +3608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5DBFB5-E21A-7B4B-815F-748A526FD280}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3618,11 +3656,11 @@
         <v>172</v>
       </c>
       <c r="D3" s="27"/>
-      <c r="Q3" s="182" t="s">
+      <c r="Q3" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -4620,7 +4658,7 @@
       <c r="A29" s="28">
         <v>13</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="184" t="s">
         <v>750</v>
       </c>
       <c r="C29" s="47" t="s">
@@ -5605,13 +5643,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052A41E-3EA7-B148-953B-E2218E71D84C}">
-  <dimension ref="A1:AF121"/>
+  <dimension ref="A1:AF127"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -5687,11 +5725,11 @@
       <c r="B6" s="92"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="Q7" s="182" t="s">
+      <c r="Q7" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
     </row>
     <row r="8" spans="1:32" s="83" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="83" t="s">
@@ -6370,7 +6408,7 @@
     </row>
     <row r="33" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="183" t="s">
         <v>749</v>
       </c>
       <c r="C33" s="115" t="s">
@@ -6393,13 +6431,13 @@
     </row>
     <row r="34" spans="1:19" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
-      <c r="B34" s="184" t="s">
+      <c r="B34" s="183" t="s">
         <v>749</v>
       </c>
       <c r="C34" s="115" t="s">
         <v>538</v>
       </c>
-      <c r="D34" s="183">
+      <c r="D34" s="182">
         <v>0.01</v>
       </c>
       <c r="E34" t="s">
@@ -8041,7 +8079,7 @@
     <row r="97" spans="1:19" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B97" s="38"/>
       <c r="C97" s="113" t="s">
-        <v>393</v>
+        <v>751</v>
       </c>
       <c r="D97" s="84"/>
       <c r="E97" s="84"/>
@@ -8057,212 +8095,127 @@
       <c r="R97" s="38"/>
       <c r="S97" s="38"/>
     </row>
-    <row r="98" spans="1:19" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C98" s="69"/>
+      <c r="D98" s="185" t="s">
+        <v>752</v>
+      </c>
+      <c r="E98" s="69"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C99" s="69"/>
+      <c r="D99" s="186" t="s">
+        <v>753</v>
+      </c>
+      <c r="E99" s="69"/>
+    </row>
+    <row r="100" spans="1:19" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+      <c r="B100" s="38"/>
+      <c r="C100" s="113" t="s">
+        <v>754</v>
+      </c>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="84"/>
+      <c r="L100" s="38"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
+      <c r="Q100" s="38"/>
+      <c r="R100" s="38"/>
+      <c r="S100" s="38"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C101" s="69"/>
+      <c r="D101" s="188" t="s">
+        <v>755</v>
+      </c>
+      <c r="E101" s="69"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C102" s="69"/>
+      <c r="D102" s="186"/>
+      <c r="E102" s="69"/>
+    </row>
+    <row r="103" spans="1:19" s="83" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+      <c r="B103" s="38"/>
+      <c r="C103" s="113" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="84"/>
+      <c r="I103" s="84"/>
+      <c r="L103" s="38"/>
+      <c r="N103" s="38"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
+      <c r="Q103" s="38"/>
+      <c r="R103" s="38"/>
+      <c r="S103" s="38"/>
+    </row>
+    <row r="104" spans="1:19" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="35">
         <v>301</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="28" t="s">
+      <c r="B104" s="36"/>
+      <c r="C104" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="E98" s="36" t="s">
+      <c r="E104" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="F98" s="37">
-        <v>1</v>
-      </c>
-      <c r="G98" s="28" t="s">
+      <c r="F104" s="37">
+        <v>1</v>
+      </c>
+      <c r="G104" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H98" s="36"/>
-      <c r="I98" s="35" t="s">
+      <c r="H104" s="36"/>
+      <c r="I104" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="J98" s="35" t="s">
+      <c r="J104" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="K98" s="35">
-        <v>1</v>
-      </c>
-      <c r="L98" s="35">
-        <f>IF(K98&gt;F98,0,F98-K98)</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="35">
-        <f>K98+L98</f>
-        <v>1</v>
-      </c>
-      <c r="N98" s="35">
-        <f>M98-F98</f>
-        <v>0</v>
-      </c>
-      <c r="O98" s="35">
-        <f>(4*F98)-N98</f>
+      <c r="K104" s="35">
+        <v>1</v>
+      </c>
+      <c r="L104" s="35">
+        <f>IF(K104&gt;F104,0,F104-K104)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="35">
+        <f>K104+L104</f>
+        <v>1</v>
+      </c>
+      <c r="N104" s="35">
+        <f>M104-F104</f>
+        <v>0</v>
+      </c>
+      <c r="O104" s="35">
+        <f>(4*F104)-N104</f>
         <v>4</v>
       </c>
-      <c r="Q98" s="28"/>
-      <c r="R98" s="28"/>
-      <c r="S98" s="28"/>
-    </row>
-    <row r="99" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="38">
-        <v>302</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="D99" s="35"/>
-      <c r="E99" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="F99" s="37">
-        <v>1</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="I99" s="83"/>
-      <c r="J99" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="S99" s="39"/>
-    </row>
-    <row r="100" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="35">
-        <v>303</v>
-      </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="D100" s="35"/>
-      <c r="E100" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="F100" s="37">
-        <v>1</v>
-      </c>
-      <c r="G100" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="I100" s="83"/>
-      <c r="J100" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="S100" s="39"/>
-    </row>
-    <row r="101" spans="1:19" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="97">
-        <v>304</v>
-      </c>
-      <c r="C101" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D101" s="98"/>
-      <c r="E101" s="97" t="s">
-        <v>288</v>
-      </c>
-      <c r="F101" s="99">
-        <v>1</v>
-      </c>
-      <c r="G101" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="I101" s="94"/>
-      <c r="J101" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="S101" s="100"/>
-    </row>
-    <row r="102" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="35">
-        <v>305</v>
-      </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="D102" s="35"/>
-      <c r="E102" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="F102" s="37">
-        <v>1</v>
-      </c>
-      <c r="G102" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="I102" s="83"/>
-      <c r="J102" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="39"/>
-    </row>
-    <row r="103" spans="1:19" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="97">
-        <v>306</v>
-      </c>
-      <c r="C103" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D103" s="98"/>
-      <c r="E103" s="97" t="s">
-        <v>291</v>
-      </c>
-      <c r="F103" s="99">
-        <v>1</v>
-      </c>
-      <c r="G103" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="I103" s="94"/>
-      <c r="J103" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="K103" s="101"/>
-      <c r="L103" s="101"/>
-      <c r="R103" s="102"/>
-      <c r="S103" s="100"/>
-    </row>
-    <row r="104" spans="1:19" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="98">
-        <v>307</v>
-      </c>
-      <c r="B104" s="171"/>
-      <c r="C104" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D104" s="98"/>
-      <c r="E104" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="F104" s="99">
-        <v>1</v>
-      </c>
-      <c r="G104" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="I104" s="94"/>
-      <c r="J104" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="S104" s="100"/>
+      <c r="Q104" s="28"/>
+      <c r="R104" s="28"/>
+      <c r="S104" s="28"/>
     </row>
     <row r="105" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="38">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C105" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="D105" s="98" t="s">
-        <v>295</v>
-      </c>
+      <c r="D105" s="35"/>
       <c r="E105" s="42" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F105" s="37">
         <v>1</v>
@@ -8270,41 +8223,15 @@
       <c r="G105" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I105" s="120" t="s">
-        <v>295</v>
-      </c>
+      <c r="I105" s="83"/>
       <c r="J105" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="K105" s="38">
-        <v>4</v>
-      </c>
-      <c r="L105" s="38">
-        <v>0</v>
-      </c>
-      <c r="M105" s="35">
-        <f>K105+L105</f>
-        <v>4</v>
-      </c>
-      <c r="N105" s="35">
-        <f>M105-F105</f>
-        <v>3</v>
-      </c>
-      <c r="O105" s="35">
-        <f>(4*F105)-N105</f>
-        <v>1</v>
-      </c>
-      <c r="Q105" s="38">
-        <v>20</v>
-      </c>
-      <c r="R105" s="38">
-        <v>16</v>
-      </c>
       <c r="S105" s="39"/>
     </row>
     <row r="106" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="35">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B106" s="36"/>
       <c r="C106" s="28" t="s">
@@ -8312,16 +8239,13 @@
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="42" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F106" s="37">
         <v>1</v>
       </c>
       <c r="G106" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="H106" s="43" t="s">
-        <v>297</v>
       </c>
       <c r="I106" s="83"/>
       <c r="J106" s="35" t="s">
@@ -8329,120 +8253,298 @@
       </c>
       <c r="S106" s="39"/>
     </row>
-    <row r="107" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="38">
-        <v>310</v>
-      </c>
-      <c r="C107" s="28" t="s">
+    <row r="107" spans="1:19" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="97">
+        <v>304</v>
+      </c>
+      <c r="C107" s="92" t="s">
         <v>282</v>
       </c>
-      <c r="D107" s="35"/>
-      <c r="E107" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="F107" s="37">
-        <v>1</v>
-      </c>
-      <c r="G107" s="28" t="s">
+      <c r="D107" s="98"/>
+      <c r="E107" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="F107" s="99">
+        <v>1</v>
+      </c>
+      <c r="G107" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="H107" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I107" s="83"/>
-      <c r="J107" s="35" t="s">
+      <c r="I107" s="94"/>
+      <c r="J107" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="S107" s="39"/>
+      <c r="S107" s="100"/>
     </row>
     <row r="108" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="38">
-        <v>311</v>
-      </c>
+      <c r="A108" s="35">
+        <v>305</v>
+      </c>
+      <c r="B108" s="36"/>
       <c r="C108" s="28" t="s">
         <v>282</v>
       </c>
       <c r="D108" s="35"/>
-      <c r="E108" s="43" t="s">
+      <c r="E108" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="F108" s="37">
+        <v>1</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="I108" s="83"/>
+      <c r="J108" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="R108" s="41"/>
+      <c r="S108" s="39"/>
+    </row>
+    <row r="109" spans="1:19" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="97">
+        <v>306</v>
+      </c>
+      <c r="C109" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D109" s="98"/>
+      <c r="E109" s="97" t="s">
+        <v>291</v>
+      </c>
+      <c r="F109" s="99">
+        <v>1</v>
+      </c>
+      <c r="G109" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="I109" s="94"/>
+      <c r="J109" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="K109" s="101"/>
+      <c r="L109" s="101"/>
+      <c r="R109" s="102"/>
+      <c r="S109" s="100"/>
+    </row>
+    <row r="110" spans="1:19" s="97" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="98">
+        <v>307</v>
+      </c>
+      <c r="B110" s="171"/>
+      <c r="C110" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" s="98"/>
+      <c r="E110" s="97" t="s">
+        <v>292</v>
+      </c>
+      <c r="F110" s="99">
+        <v>1</v>
+      </c>
+      <c r="G110" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="I110" s="94"/>
+      <c r="J110" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="S110" s="100"/>
+    </row>
+    <row r="111" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="38">
+        <v>308</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="98" t="s">
+        <v>295</v>
+      </c>
+      <c r="E111" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="F111" s="37">
+        <v>1</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="I111" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J111" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K111" s="38">
+        <v>4</v>
+      </c>
+      <c r="L111" s="38">
+        <v>0</v>
+      </c>
+      <c r="M111" s="35">
+        <f>K111+L111</f>
+        <v>4</v>
+      </c>
+      <c r="N111" s="35">
+        <f>M111-F111</f>
+        <v>3</v>
+      </c>
+      <c r="O111" s="35">
+        <f>(4*F111)-N111</f>
+        <v>1</v>
+      </c>
+      <c r="Q111" s="38">
+        <v>20</v>
+      </c>
+      <c r="R111" s="38">
+        <v>16</v>
+      </c>
+      <c r="S111" s="39"/>
+    </row>
+    <row r="112" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="35">
+        <v>309</v>
+      </c>
+      <c r="B112" s="36"/>
+      <c r="C112" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D112" s="35"/>
+      <c r="E112" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="F112" s="37">
+        <v>1</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H112" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="I112" s="83"/>
+      <c r="J112" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="S112" s="39"/>
+    </row>
+    <row r="113" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="38">
+        <v>310</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D113" s="35"/>
+      <c r="E113" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F113" s="37">
+        <v>1</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H113" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="I113" s="83"/>
+      <c r="J113" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="S113" s="39"/>
+    </row>
+    <row r="114" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="38">
+        <v>311</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="35"/>
+      <c r="E114" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="F108" s="86"/>
-      <c r="H108" s="43" t="s">
+      <c r="F114" s="86"/>
+      <c r="H114" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="I108" s="83"/>
-      <c r="J108" s="43" t="s">
+      <c r="I114" s="83"/>
+      <c r="J114" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="S108" s="39"/>
-    </row>
-    <row r="109" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="38">
+      <c r="S114" s="39"/>
+    </row>
+    <row r="115" spans="1:19" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="38">
         <v>312</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C115" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="D109" s="35"/>
-      <c r="E109" s="43" t="s">
+      <c r="D115" s="35"/>
+      <c r="E115" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="F109" s="37">
-        <v>1</v>
-      </c>
-      <c r="G109" s="43" t="s">
+      <c r="F115" s="37">
+        <v>1</v>
+      </c>
+      <c r="G115" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="H109" s="43" t="s">
+      <c r="H115" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="I109" s="83"/>
-      <c r="J109" s="43" t="s">
+      <c r="I115" s="83"/>
+      <c r="J115" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="S109" s="39"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C110" s="28"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C111" s="28"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C112" s="28"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="28"/>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="28"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C115" s="28"/>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="S115" s="39"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C116" s="28"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C117" s="28"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C118" s="28"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C119" s="28"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C120" s="28"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C121" s="28"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C122" s="28"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C123" s="28"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C124" s="28"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C125" s="28"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C126" s="28"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C127" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Q7:S7"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1" xr:uid="{B3564F39-BDFC-024B-80FC-3B84D3B19B84}"/>
     <hyperlink ref="I19" r:id="rId2" xr:uid="{441A81FD-7638-214B-A580-55099579328C}"/>
@@ -8494,7 +8596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6340416-D374-C841-832D-DB1142BA15CE}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="125" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
@@ -8532,11 +8634,11 @@
       <c r="B3" s="29"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="Q3" s="182" t="s">
+      <c r="Q3" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
